--- a/models/training_results_with_epoch.xlsx
+++ b/models/training_results_with_epoch.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Skripsi\Code\models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902C2948-E093-4862-8592-0D9D8D5C8E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerFold" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="46">
   <si>
     <t>Ticker</t>
   </si>
@@ -44,13 +50,43 @@
     <t>Val_R2</t>
   </si>
   <si>
-    <t>ADMR</t>
+    <t>ACES</t>
+  </si>
+  <si>
+    <t>Open_LAG</t>
+  </si>
+  <si>
+    <t>High_LAG</t>
+  </si>
+  <si>
+    <t>Low_LAG</t>
+  </si>
+  <si>
+    <t>Volume_LAG</t>
+  </si>
+  <si>
+    <t>Close_LAG</t>
+  </si>
+  <si>
+    <t>Open_High_LAG</t>
+  </si>
+  <si>
+    <t>Open_Low_LAG</t>
+  </si>
+  <si>
+    <t>Open_Volume_LAG</t>
+  </si>
+  <si>
+    <t>High_Low_LAG</t>
   </si>
   <si>
     <t>High_Volume_LAG</t>
   </si>
   <si>
     <t>Low_Volume_LAG</t>
+  </si>
+  <si>
+    <t>Open_High_Low_LAG</t>
   </si>
   <si>
     <t>Open_High_Volume_LAG</t>
@@ -128,8 +164,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,13 +228,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -236,7 +280,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -270,6 +314,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -304,9 +349,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -479,14 +525,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -529,22 +585,22 @@
         <v>100</v>
       </c>
       <c r="E2">
-        <v>661877.875</v>
+        <v>134820.375</v>
       </c>
       <c r="F2">
-        <v>793.6826782226562</v>
+        <v>339.59469604492188</v>
       </c>
       <c r="G2">
-        <v>0.5438782535535291</v>
+        <v>0.2754963641992183</v>
       </c>
       <c r="H2">
-        <v>807.2562132092434</v>
+        <v>367.05035345697752</v>
       </c>
       <c r="I2">
-        <v>-33.16376446134274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>-5.9942480116816172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -555,25 +611,25 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="E3">
-        <v>1236998.5</v>
+        <v>14982.7568359375</v>
       </c>
       <c r="F3">
-        <v>1037.09130859375</v>
+        <v>96.806785583496094</v>
       </c>
       <c r="G3">
-        <v>0.8834588264851306</v>
+        <v>7.3761844795823303E-2</v>
       </c>
       <c r="H3">
-        <v>1108.661458739094</v>
+        <v>122.1237802650173</v>
       </c>
       <c r="I3">
-        <v>-62.34466214780737</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.3410202178077118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -584,25 +640,25 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="E4">
-        <v>7490.94287109375</v>
+        <v>5958.15283203125</v>
       </c>
       <c r="F4">
-        <v>73.67472839355469</v>
+        <v>61.055866241455078</v>
       </c>
       <c r="G4">
-        <v>0.0527246576862387</v>
+        <v>4.8417311631900398E-2</v>
       </c>
       <c r="H4">
-        <v>85.38575124311859</v>
+        <v>76.737063086779699</v>
       </c>
       <c r="I4">
-        <v>-0.5381148077060679</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.5340850107720887</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -613,25 +669,25 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E5">
-        <v>2076.7119140625</v>
+        <v>4423.24609375</v>
       </c>
       <c r="F5">
-        <v>36.11266708374024</v>
+        <v>53.167728424072273</v>
       </c>
       <c r="G5">
-        <v>0.0274776252051585</v>
+        <v>0.1022500383468487</v>
       </c>
       <c r="H5">
-        <v>43.17631703346122</v>
+        <v>65.06121344388545</v>
       </c>
       <c r="I5">
-        <v>-1.053753317143043</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.60467162146122666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -642,25 +698,25 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>16241.1474609375</v>
+        <v>3976.59521484375</v>
       </c>
       <c r="F6">
-        <v>102.1026916503906</v>
+        <v>49.427791595458977</v>
       </c>
       <c r="G6">
-        <v>0.1031024952906926</v>
+        <v>6.1585343529692901E-2</v>
       </c>
       <c r="H6">
-        <v>123.9207567222907</v>
+        <v>60.869417598636488</v>
       </c>
       <c r="I6">
-        <v>-0.7236409412738055</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>-3.5664341685865998E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -674,22 +730,22 @@
         <v>100</v>
       </c>
       <c r="E7">
-        <v>761684.5</v>
+        <v>100396.8671875</v>
       </c>
       <c r="F7">
-        <v>853.5244140625</v>
+        <v>280.51123046875</v>
       </c>
       <c r="G7">
-        <v>0.5854680032248923</v>
+        <v>0.2248101807204691</v>
       </c>
       <c r="H7">
-        <v>866.1533863701144</v>
+        <v>316.82587807049782</v>
       </c>
       <c r="I7">
-        <v>-38.61495866949949</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>-4.2233780692881693</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -700,25 +756,25 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E8">
-        <v>765271.375</v>
+        <v>29856.794921875</v>
       </c>
       <c r="F8">
-        <v>636.4122924804688</v>
+        <v>146.51512145996091</v>
       </c>
       <c r="G8">
-        <v>0.5035635785856307</v>
+        <v>0.1045265141144</v>
       </c>
       <c r="H8">
-        <v>871.8595535306481</v>
+        <v>172.5764790437303</v>
       </c>
       <c r="I8">
-        <v>-37.93166737192147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>-0.3037666199591354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -729,25 +785,25 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="E9">
-        <v>7721.3291015625</v>
+        <v>5634.041015625</v>
       </c>
       <c r="F9">
-        <v>73.77202606201172</v>
+        <v>59.071552276611328</v>
       </c>
       <c r="G9">
-        <v>0.052387721480435</v>
+        <v>4.67444965209989E-2</v>
       </c>
       <c r="H9">
-        <v>85.24151588278417</v>
+        <v>74.856529368638107</v>
       </c>
       <c r="I9">
-        <v>-0.5808418383326989</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.56054570961362438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -758,25 +814,25 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E10">
-        <v>1305.447998046875</v>
+        <v>3725.675048828125</v>
       </c>
       <c r="F10">
-        <v>28.98831939697266</v>
+        <v>47.985088348388672</v>
       </c>
       <c r="G10">
-        <v>0.0220460688754803</v>
+        <v>9.1024817355169096E-2</v>
       </c>
       <c r="H10">
-        <v>35.71497235782716</v>
+        <v>59.208930574009088</v>
       </c>
       <c r="I10">
-        <v>-0.3150934984058994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.66580926293981657</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -787,25 +843,25 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E11">
-        <v>13941.4697265625</v>
+        <v>3842.026123046875</v>
       </c>
       <c r="F11">
-        <v>92.41612243652344</v>
+        <v>48.470726013183601</v>
       </c>
       <c r="G11">
-        <v>0.0953353304079641</v>
+        <v>6.0353142586086997E-2</v>
       </c>
       <c r="H11">
-        <v>116.2616022397618</v>
+        <v>59.701339783600389</v>
       </c>
       <c r="I11">
-        <v>-0.4659434036487683</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>3.0224219583662702E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -816,25 +872,25 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="E12">
-        <v>731524.3125</v>
+        <v>475520.875</v>
       </c>
       <c r="F12">
-        <v>836.0648803710938</v>
+        <v>578.64324951171875</v>
       </c>
       <c r="G12">
-        <v>0.5732284065197278</v>
+        <v>0.45984664598487829</v>
       </c>
       <c r="H12">
-        <v>848.9479922410861</v>
+        <v>689.50837220812082</v>
       </c>
       <c r="I12">
-        <v>-36.81199078471303</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>-23.73461997434018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -845,25 +901,25 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E13">
-        <v>638364.6875</v>
+        <v>19787.08203125</v>
       </c>
       <c r="F13">
-        <v>543.8628540039062</v>
+        <v>116.06048583984381</v>
       </c>
       <c r="G13">
-        <v>0.4254989173149317</v>
+        <v>8.5439688712577094E-2</v>
       </c>
       <c r="H13">
-        <v>796.4629987637497</v>
+        <v>140.65349254722449</v>
       </c>
       <c r="I13">
-        <v>-31.53166830049132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.13395167668541499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -874,25 +930,25 @@
         <v>3</v>
       </c>
       <c r="D14">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="E14">
-        <v>7184.154296875</v>
+        <v>6013.52783203125</v>
       </c>
       <c r="F14">
-        <v>70.85166168212891</v>
+        <v>61.472869873046882</v>
       </c>
       <c r="G14">
-        <v>0.0499741813706215</v>
+        <v>4.8716305881945803E-2</v>
       </c>
       <c r="H14">
-        <v>83.13345316410008</v>
+        <v>77.198895093837336</v>
       </c>
       <c r="I14">
-        <v>-0.4281414569272005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.53039493679465033</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -903,25 +959,25 @@
         <v>4</v>
       </c>
       <c r="D15">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="E15">
-        <v>1259.363647460938</v>
+        <v>4551.3115234375</v>
       </c>
       <c r="F15">
-        <v>26.47322845458984</v>
+        <v>55.77294921875</v>
       </c>
       <c r="G15">
-        <v>0.0200529920478462</v>
+        <v>0.1073352985976057</v>
       </c>
       <c r="H15">
-        <v>35.1472383473137</v>
+        <v>65.956712944511779</v>
       </c>
       <c r="I15">
-        <v>-0.2787510921483089</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.59375238433786548</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -932,25 +988,25 @@
         <v>5</v>
       </c>
       <c r="D16">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E16">
-        <v>14231.505859375</v>
+        <v>3621.72314453125</v>
       </c>
       <c r="F16">
-        <v>97.29791259765624</v>
+        <v>46.998710632324219</v>
       </c>
       <c r="G16">
-        <v>0.0976166528126465</v>
+        <v>5.8826821002787702E-2</v>
       </c>
       <c r="H16">
-        <v>117.8998190526968</v>
+        <v>57.779478463948386</v>
       </c>
       <c r="I16">
-        <v>-0.5217516864126264</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>8.4941678401494594E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -961,25 +1017,25 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="E17">
-        <v>880286.375</v>
+        <v>136964.640625</v>
       </c>
       <c r="F17">
-        <v>921.3851928710938</v>
+        <v>342.83877563476563</v>
       </c>
       <c r="G17">
-        <v>0.6337035923786334</v>
+        <v>0.27828177725835118</v>
       </c>
       <c r="H17">
-        <v>933.01547237923</v>
+        <v>370.04683275767007</v>
       </c>
       <c r="I17">
-        <v>-44.49060394540331</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>-6.124950625467914</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -990,25 +1046,25 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="E18">
-        <v>1325631.75</v>
+        <v>15325.1279296875</v>
       </c>
       <c r="F18">
-        <v>1123.51806640625</v>
+        <v>95.667251586914063</v>
       </c>
       <c r="G18">
-        <v>0.9709288961251908</v>
+        <v>7.3302242048068997E-2</v>
       </c>
       <c r="H18">
-        <v>1148.219791480766</v>
+        <v>123.7821076866236</v>
       </c>
       <c r="I18">
-        <v>-67.26486425749762</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0.32815706840813791</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1019,25 +1075,25 @@
         <v>3</v>
       </c>
       <c r="D19">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E19">
-        <v>6477.69873046875</v>
+        <v>5944.65283203125</v>
       </c>
       <c r="F19">
-        <v>68.29975128173828</v>
+        <v>61.67474365234375</v>
       </c>
       <c r="G19">
-        <v>0.0484087693120477</v>
+        <v>4.8310559259388902E-2</v>
       </c>
       <c r="H19">
-        <v>79.62081441392709</v>
+        <v>77.050157484802341</v>
       </c>
       <c r="I19">
-        <v>-0.302867872429879</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.53825055924991683</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1048,25 +1104,25 @@
         <v>4</v>
       </c>
       <c r="D20">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="E20">
-        <v>1371.245239257812</v>
+        <v>12676.66015625</v>
       </c>
       <c r="F20">
-        <v>29.43545341491699</v>
+        <v>97.859191894531236</v>
       </c>
       <c r="G20">
-        <v>0.0224200159616497</v>
+        <v>0.18984900650585881</v>
       </c>
       <c r="H20">
-        <v>36.45843681944168</v>
+        <v>112.34422095402689</v>
       </c>
       <c r="I20">
-        <v>-0.3764266062663681</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>-9.9388674356003001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1077,25 +1133,25 @@
         <v>5</v>
       </c>
       <c r="D21">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E21">
-        <v>15304.61328125</v>
+        <v>5086.3681640625</v>
       </c>
       <c r="F21">
-        <v>97.33477020263672</v>
+        <v>56.780910491943359</v>
       </c>
       <c r="G21">
-        <v>0.0980937790792451</v>
+        <v>7.0069851072863606E-2</v>
       </c>
       <c r="H21">
-        <v>121.0162657731286</v>
+        <v>70.845613868989318</v>
       </c>
       <c r="I21">
-        <v>-0.6219790989193256</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>-0.24961026916674051</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1106,25 +1162,25 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="E22">
-        <v>970148</v>
+        <v>145811.875</v>
       </c>
       <c r="F22">
-        <v>970.6143188476562</v>
+        <v>349.72607421875</v>
       </c>
       <c r="G22">
-        <v>0.6692091112791466</v>
+        <v>0.28313423546277849</v>
       </c>
       <c r="H22">
-        <v>981.5588795867156</v>
+        <v>381.83159769129628</v>
       </c>
       <c r="I22">
-        <v>-48.39052164577599</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>-6.5927785392312099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1138,22 +1194,22 @@
         <v>83</v>
       </c>
       <c r="E23">
-        <v>1115469.125</v>
+        <v>17073.0859375</v>
       </c>
       <c r="F23">
-        <v>922.455810546875</v>
+        <v>103.1474533081055</v>
       </c>
       <c r="G23">
-        <v>0.7689650855969234</v>
+        <v>7.8116504658210503E-2</v>
       </c>
       <c r="H23">
-        <v>1052.375656750388</v>
+        <v>130.5789027503765</v>
       </c>
       <c r="I23">
-        <v>-55.8003053661751</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.25052684347238668</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1164,25 +1220,25 @@
         <v>3</v>
       </c>
       <c r="D24">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E24">
-        <v>8126.57958984375</v>
+        <v>6155.15087890625</v>
       </c>
       <c r="F24">
-        <v>75.51586151123047</v>
+        <v>62.028812408447273</v>
       </c>
       <c r="G24">
-        <v>0.0531637506976847</v>
+        <v>4.9277557669185901E-2</v>
       </c>
       <c r="H24">
-        <v>87.52730390149397</v>
+        <v>78.059970073372128</v>
       </c>
       <c r="I24">
-        <v>-0.6808973776496413</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.51881240810664453</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1193,25 +1249,25 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="E25">
-        <v>1004.91015625</v>
+        <v>5578.24267578125</v>
       </c>
       <c r="F25">
-        <v>23.89373016357422</v>
+        <v>61.073146820068359</v>
       </c>
       <c r="G25">
-        <v>0.0182425807123955</v>
+        <v>0.1173478903803713</v>
       </c>
       <c r="H25">
-        <v>31.48846296765458</v>
+        <v>73.689952745570764</v>
       </c>
       <c r="I25">
-        <v>-0.0542790540871472</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.50381619089779883</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1222,25 +1278,25 @@
         <v>5</v>
       </c>
       <c r="D26">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E26">
-        <v>13457.1474609375</v>
+        <v>3810.57763671875</v>
       </c>
       <c r="F26">
-        <v>91.21670532226562</v>
+        <v>48.665904998779297</v>
       </c>
       <c r="G26">
-        <v>0.09442543004840979</v>
+        <v>6.1021920728488999E-2</v>
       </c>
       <c r="H26">
-        <v>114.236989739305</v>
+        <v>59.695162395334599</v>
       </c>
       <c r="I26">
-        <v>-0.4196609573814372</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>3.91480529222284E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1251,25 +1307,25 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E27">
-        <v>29899.4765625</v>
+        <v>126805.53125</v>
       </c>
       <c r="F27">
-        <v>136.0596160888672</v>
+        <v>301.89151000976563</v>
       </c>
       <c r="G27">
-        <v>0.0983965106082343</v>
+        <v>0.239630958882038</v>
       </c>
       <c r="H27">
-        <v>170.1228273376569</v>
+        <v>356.06327769350298</v>
       </c>
       <c r="I27">
-        <v>-0.4441024736935446</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>-5.5967873874804477</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1280,25 +1336,25 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="E28">
-        <v>596061.875</v>
+        <v>16161.5673828125</v>
       </c>
       <c r="F28">
-        <v>512.645263671875</v>
+        <v>98.499328613281236</v>
       </c>
       <c r="G28">
-        <v>0.3993715007978713</v>
+        <v>7.5160480566829793E-2</v>
       </c>
       <c r="H28">
-        <v>769.6297790162683</v>
+        <v>127.0291973265834</v>
       </c>
       <c r="I28">
-        <v>-29.41734534728757</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.2903386673038757</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1309,25 +1365,25 @@
         <v>3</v>
       </c>
       <c r="D29">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E29">
-        <v>6308.32421875</v>
+        <v>5930.94287109375</v>
       </c>
       <c r="F29">
-        <v>66.95841217041016</v>
+        <v>60.965488433837891</v>
       </c>
       <c r="G29">
-        <v>0.0476145819258708</v>
+        <v>4.83779530504772E-2</v>
       </c>
       <c r="H29">
-        <v>78.51384246769589</v>
+        <v>76.524989003164208</v>
       </c>
       <c r="I29">
-        <v>-0.2590121647868381</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.53612206149637787</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1338,25 +1394,25 @@
         <v>4</v>
       </c>
       <c r="D30">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E30">
-        <v>4169.966796875</v>
+        <v>3662.671142578125</v>
       </c>
       <c r="F30">
-        <v>51.42121505737305</v>
+        <v>46.640106201171882</v>
       </c>
       <c r="G30">
-        <v>0.0391766768727065</v>
+        <v>8.6401452443615204E-2</v>
       </c>
       <c r="H30">
-        <v>57.98300847755358</v>
+        <v>58.707279553218072</v>
       </c>
       <c r="I30">
-        <v>-3.278527522814289</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.67147430776307226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1367,25 +1423,25 @@
         <v>5</v>
       </c>
       <c r="D31">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E31">
-        <v>14472.13671875</v>
+        <v>3881.987548828125</v>
       </c>
       <c r="F31">
-        <v>94.04991149902344</v>
+        <v>49.0491943359375</v>
       </c>
       <c r="G31">
-        <v>0.0964738255335308</v>
+        <v>6.1310455891372899E-2</v>
       </c>
       <c r="H31">
-        <v>118.5026086265642</v>
+        <v>59.970753722538738</v>
       </c>
       <c r="I31">
-        <v>-0.5665516076111484</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>1.93549338828089E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1396,25 +1452,25 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E32">
-        <v>31025.66796875</v>
+        <v>99938.2890625</v>
       </c>
       <c r="F32">
-        <v>140.2247619628906</v>
+        <v>283.709228515625</v>
       </c>
       <c r="G32">
-        <v>0.1010582758553009</v>
+        <v>0.2281653764598382</v>
       </c>
       <c r="H32">
-        <v>173.9331961829037</v>
+        <v>316.09190217969189</v>
       </c>
       <c r="I32">
-        <v>-0.5450412731321193</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>-4.1977243736085121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1425,25 +1481,25 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="E33">
-        <v>180226.53125</v>
+        <v>14842.9814453125</v>
       </c>
       <c r="F33">
-        <v>256.3724365234375</v>
+        <v>94.2540283203125</v>
       </c>
       <c r="G33">
-        <v>0.2104406487912481</v>
+        <v>7.196812853581E-2</v>
       </c>
       <c r="H33">
-        <v>423.0926192331796</v>
+        <v>121.64752979789979</v>
       </c>
       <c r="I33">
-        <v>-8.216832835999416</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.34766283608098281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1454,25 +1510,25 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E34">
-        <v>6866.76123046875</v>
+        <v>8450.876953125</v>
       </c>
       <c r="F34">
-        <v>70.64498138427734</v>
+        <v>73.456298828125</v>
       </c>
       <c r="G34">
-        <v>0.0505066958983364</v>
+        <v>5.7335216180655901E-2</v>
       </c>
       <c r="H34">
-        <v>81.92725464419217</v>
+        <v>91.8238627577187</v>
       </c>
       <c r="I34">
-        <v>-0.3957016916921284</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.3442104466287203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1483,25 +1539,25 @@
         <v>4</v>
       </c>
       <c r="D35">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E35">
-        <v>2469.447265625</v>
+        <v>5301.82568359375</v>
       </c>
       <c r="F35">
-        <v>39.10672378540039</v>
+        <v>60.106853485107422</v>
       </c>
       <c r="G35">
-        <v>0.0298098509358767</v>
+        <v>0.11514462985297599</v>
       </c>
       <c r="H35">
-        <v>46.58014661080659</v>
+        <v>71.723513607773725</v>
       </c>
       <c r="I35">
-        <v>-1.626828681053647</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.52864876631117874</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -1512,25 +1568,25 @@
         <v>5</v>
       </c>
       <c r="D36">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E36">
-        <v>15423.7001953125</v>
+        <v>3787.716796875</v>
       </c>
       <c r="F36">
-        <v>100.1826553344727</v>
+        <v>48.383140563964851</v>
       </c>
       <c r="G36">
-        <v>0.1002250843232491</v>
+        <v>6.0852685331156398E-2</v>
       </c>
       <c r="H36">
-        <v>121.2403222384077</v>
+        <v>59.372268931230728</v>
       </c>
       <c r="I36">
-        <v>-0.6720570854130483</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>4.4175809212944901E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1541,25 +1597,25 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E37">
-        <v>35574.3984375</v>
+        <v>101737.1875</v>
       </c>
       <c r="F37">
-        <v>147.5206756591797</v>
+        <v>286.64959716796881</v>
       </c>
       <c r="G37">
-        <v>0.1074001450398937</v>
+        <v>0.23061836579457529</v>
       </c>
       <c r="H37">
-        <v>184.6878149722748</v>
+        <v>318.92275471959118</v>
       </c>
       <c r="I37">
-        <v>-0.7079211428198238</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>-4.2904797814183384</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -1570,25 +1626,25 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="E38">
-        <v>880521.5</v>
+        <v>14081.0458984375</v>
       </c>
       <c r="F38">
-        <v>722.6551513671875</v>
+        <v>88.961326599121094</v>
       </c>
       <c r="G38">
-        <v>0.5793264084884111</v>
+        <v>6.8557828423311803E-2</v>
       </c>
       <c r="H38">
-        <v>934.942431585962</v>
+        <v>118.4215588371006</v>
       </c>
       <c r="I38">
-        <v>-43.69455799590597</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.38079660090492079</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -1602,22 +1658,22 @@
         <v>37</v>
       </c>
       <c r="E39">
-        <v>7478.72021484375</v>
+        <v>6195.73388671875</v>
       </c>
       <c r="F39">
-        <v>73.13412475585938</v>
+        <v>61.170211791992188</v>
       </c>
       <c r="G39">
-        <v>0.051954329954453</v>
+        <v>4.7444964361445498E-2</v>
       </c>
       <c r="H39">
-        <v>85.178422994743</v>
+        <v>78.600289982850711</v>
       </c>
       <c r="I39">
-        <v>-0.5308670072534131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.52034126427742811</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -1628,25 +1684,25 @@
         <v>4</v>
       </c>
       <c r="D40">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E40">
-        <v>2813.86328125</v>
+        <v>14660.400390625</v>
       </c>
       <c r="F40">
-        <v>43.11941528320312</v>
+        <v>99.0501708984375</v>
       </c>
       <c r="G40">
-        <v>0.0326953460828901</v>
+        <v>0.17270347672196179</v>
       </c>
       <c r="H40">
-        <v>49.68204590194443</v>
+        <v>119.8331323175881</v>
       </c>
       <c r="I40">
-        <v>-1.848047037155897</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>-0.28035083205151318</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -1657,25 +1713,25 @@
         <v>5</v>
       </c>
       <c r="D41">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E41">
-        <v>14103.86328125</v>
+        <v>4034.126708984375</v>
       </c>
       <c r="F41">
-        <v>96.93373107910156</v>
+        <v>50.717117309570313</v>
       </c>
       <c r="G41">
-        <v>0.0973915288943928</v>
+        <v>6.2931947960512394E-2</v>
       </c>
       <c r="H41">
-        <v>117.3715542445723</v>
+        <v>61.921575810893799</v>
       </c>
       <c r="I41">
-        <v>-0.5003061633913494</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>-1.49646058347804E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -1686,25 +1742,25 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E42">
-        <v>30546.328125</v>
+        <v>99651.84375</v>
       </c>
       <c r="F42">
-        <v>139.2768402099609</v>
+        <v>280.58895874023438</v>
       </c>
       <c r="G42">
-        <v>0.1002237113790105</v>
+        <v>0.22508603168229999</v>
       </c>
       <c r="H42">
-        <v>172.9891280072958</v>
+        <v>315.65045634409569</v>
       </c>
       <c r="I42">
-        <v>-0.5053670896280669</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>-4.1852272818508469</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1715,25 +1771,25 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="E43">
-        <v>1177924.375</v>
+        <v>19832.294921875</v>
       </c>
       <c r="F43">
-        <v>981.7603149414062</v>
+        <v>110.94541168212891</v>
       </c>
       <c r="G43">
-        <v>0.8276931289097346</v>
+        <v>8.4792063888022795E-2</v>
       </c>
       <c r="H43">
-        <v>1081.615986845864</v>
+        <v>140.82590925287101</v>
       </c>
       <c r="I43">
-        <v>-59.14110371062102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.1311694475832412</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1744,25 +1800,25 @@
         <v>3</v>
       </c>
       <c r="D44">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E44">
-        <v>6654.66748046875</v>
+        <v>5814.5849609375</v>
       </c>
       <c r="F44">
-        <v>69.00933837890625</v>
+        <v>60.254482269287109</v>
       </c>
       <c r="G44">
-        <v>0.0496597683448921</v>
+        <v>4.7445203793625303E-2</v>
       </c>
       <c r="H44">
-        <v>80.93550260933382</v>
+        <v>75.925088803817331</v>
       </c>
       <c r="I44">
-        <v>-0.3690664470521224</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.54671242826786326</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -1773,25 +1829,25 @@
         <v>4</v>
       </c>
       <c r="D45">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E45">
-        <v>2625.994140625</v>
+        <v>3885.676513671875</v>
       </c>
       <c r="F45">
-        <v>41.51750183105469</v>
+        <v>48.203029632568359</v>
       </c>
       <c r="G45">
-        <v>0.0317794236010925</v>
+        <v>9.0345752003456806E-2</v>
       </c>
       <c r="H45">
-        <v>48.50849617537906</v>
+        <v>60.528509693213842</v>
       </c>
       <c r="I45">
-        <v>-1.833621595992717</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>0.65162093895816064</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -1802,25 +1858,25 @@
         <v>5</v>
       </c>
       <c r="D46">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E46">
-        <v>16294.9091796875</v>
+        <v>3580.9697265625</v>
       </c>
       <c r="F46">
-        <v>103.2745819091797</v>
+        <v>46.670093536376953</v>
       </c>
       <c r="G46">
-        <v>0.1044808121654253</v>
+        <v>5.8065379633885902E-2</v>
       </c>
       <c r="H46">
-        <v>125.240954000671</v>
+        <v>57.58484020639041</v>
       </c>
       <c r="I46">
-        <v>-0.7462202045204885</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>9.5756933070582806E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -1831,25 +1887,25 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="E47">
-        <v>30533.15234375</v>
+        <v>860998</v>
       </c>
       <c r="F47">
-        <v>137.9164276123047</v>
+        <v>856.58697509765625</v>
       </c>
       <c r="G47">
-        <v>0.0999748834489014</v>
+        <v>0.70043643228414565</v>
       </c>
       <c r="H47">
-        <v>172.7520709517494</v>
+        <v>927.81111394748518</v>
       </c>
       <c r="I47">
-        <v>-0.5014255992549925</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>-43.802995682543283</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -1860,25 +1916,25 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="E48">
-        <v>33377.9765625</v>
+        <v>14942.2021484375</v>
       </c>
       <c r="F48">
-        <v>154.4375152587891</v>
+        <v>88.52294921875</v>
       </c>
       <c r="G48">
-        <v>0.1343955346018469</v>
+        <v>6.9291646544156899E-2</v>
       </c>
       <c r="H48">
-        <v>176.14952301232</v>
+        <v>121.7348492356434</v>
       </c>
       <c r="I48">
-        <v>-0.5517650879099463</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.3417786610980082</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -1889,25 +1945,25 @@
         <v>3</v>
       </c>
       <c r="D49">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E49">
-        <v>7485.79931640625</v>
+        <v>6613.0380859375</v>
       </c>
       <c r="F49">
-        <v>73.81493377685547</v>
+        <v>63.179969787597663</v>
       </c>
       <c r="G49">
-        <v>0.0526098775644787</v>
+        <v>4.8861250095947599E-2</v>
       </c>
       <c r="H49">
-        <v>85.57812668932822</v>
+        <v>81.224031581590495</v>
       </c>
       <c r="I49">
-        <v>-0.5281432571136851</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.48787808620834477</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1918,25 +1974,25 @@
         <v>4</v>
       </c>
       <c r="D50">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E50">
-        <v>2596.2138671875</v>
+        <v>13624.39453125</v>
       </c>
       <c r="F50">
-        <v>41.06904220581055</v>
+        <v>97.347946166992202</v>
       </c>
       <c r="G50">
-        <v>0.0312465882632216</v>
+        <v>0.17198830292002501</v>
       </c>
       <c r="H50">
-        <v>48.13966007533654</v>
+        <v>116.2449096508858</v>
       </c>
       <c r="I50">
-        <v>-1.591559438329161</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>-0.17684440462604789</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1947,25 +2003,25 @@
         <v>5</v>
       </c>
       <c r="D51">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E51">
-        <v>13497.6064453125</v>
+        <v>5213.78662109375</v>
       </c>
       <c r="F51">
-        <v>91.15333557128906</v>
+        <v>59.541847229003913</v>
       </c>
       <c r="G51">
-        <v>0.0942126873706369</v>
+        <v>7.6342086440988902E-2</v>
       </c>
       <c r="H51">
-        <v>114.5527431363722</v>
+        <v>71.716906637771274</v>
       </c>
       <c r="I51">
-        <v>-0.4261289585661035</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>-0.28197269630504701</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1976,25 +2032,25 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E52">
-        <v>33764.296875</v>
+        <v>286015.65625</v>
       </c>
       <c r="F52">
-        <v>144.8370666503906</v>
+        <v>430.29898071289063</v>
       </c>
       <c r="G52">
-        <v>0.1044745211135588</v>
+        <v>0.3387821375173935</v>
       </c>
       <c r="H52">
-        <v>181.6509712025533</v>
+        <v>534.75917017103791</v>
       </c>
       <c r="I52">
-        <v>-0.6754342770754911</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>-13.88272820552835</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -2005,25 +2061,25 @@
         <v>2</v>
       </c>
       <c r="D53">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="E53">
-        <v>31200.955078125</v>
+        <v>15606.2568359375</v>
       </c>
       <c r="F53">
-        <v>152.1542053222656</v>
+        <v>95.861885070800781</v>
       </c>
       <c r="G53">
-        <v>0.1321260952890954</v>
+        <v>7.3150210288961404E-2</v>
       </c>
       <c r="H53">
-        <v>172.9068621383081</v>
+        <v>124.7924130582049</v>
       </c>
       <c r="I53">
-        <v>-0.5444734609725634</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.31445890063495358</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -2034,25 +2090,25 @@
         <v>3</v>
       </c>
       <c r="D54">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E54">
-        <v>7931.09619140625</v>
+        <v>5785.1083984375</v>
       </c>
       <c r="F54">
-        <v>74.68878936767578</v>
+        <v>60.785198211669922</v>
       </c>
       <c r="G54">
-        <v>0.0535027048332804</v>
+        <v>4.7618642667632501E-2</v>
       </c>
       <c r="H54">
-        <v>87.86303745823162</v>
+        <v>75.909320721626216</v>
       </c>
       <c r="I54">
-        <v>-0.6372601379486782</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.5501201952160053</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -2063,25 +2119,25 @@
         <v>4</v>
       </c>
       <c r="D55">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E55">
-        <v>3312.825439453125</v>
+        <v>17394.654296875</v>
       </c>
       <c r="F55">
-        <v>45.48360443115234</v>
+        <v>111.4859924316406</v>
       </c>
       <c r="G55">
-        <v>0.0347809490810919</v>
+        <v>0.23165199730989289</v>
       </c>
       <c r="H55">
-        <v>52.65316844076539</v>
+        <v>130.6529011284201</v>
       </c>
       <c r="I55">
-        <v>-2.315126686401973</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>-0.50872360951054452</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -2092,25 +2148,25 @@
         <v>5</v>
       </c>
       <c r="D56">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E56">
-        <v>14723.5654296875</v>
+        <v>4324.62451171875</v>
       </c>
       <c r="F56">
-        <v>94.11705780029295</v>
+        <v>52.194000244140632</v>
       </c>
       <c r="G56">
-        <v>0.0978764189964158</v>
+        <v>6.41428020361266E-2</v>
       </c>
       <c r="H56">
-        <v>118.5239843544132</v>
+        <v>64.510497924873249</v>
       </c>
       <c r="I56">
-        <v>-0.5358056030680624</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>-8.5078472012743295E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -2121,25 +2177,25 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="E57">
-        <v>30770.015625</v>
+        <v>242942.328125</v>
       </c>
       <c r="F57">
-        <v>138.7866668701172</v>
+        <v>472.45236206054688</v>
       </c>
       <c r="G57">
-        <v>0.100917869711204</v>
+        <v>0.38807803090741277</v>
       </c>
       <c r="H57">
-        <v>172.3176509127425</v>
+        <v>492.72057959787702</v>
       </c>
       <c r="I57">
-        <v>-0.4792285321472908</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>-11.64158999727111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -2150,25 +2206,25 @@
         <v>2</v>
       </c>
       <c r="D58">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="E58">
-        <v>32506.916015625</v>
+        <v>17381.025390625</v>
       </c>
       <c r="F58">
-        <v>154.8905792236328</v>
+        <v>101.8374862670898</v>
       </c>
       <c r="G58">
-        <v>0.1370404109278817</v>
+        <v>7.9100667567673602E-2</v>
       </c>
       <c r="H58">
-        <v>177.1456282033158</v>
+        <v>131.67907740856751</v>
       </c>
       <c r="I58">
-        <v>-0.617469612962476</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>0.2363277126681107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -2179,25 +2235,25 @@
         <v>3</v>
       </c>
       <c r="D59">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E59">
-        <v>6862.1796875</v>
+        <v>5908.5068359375</v>
       </c>
       <c r="F59">
-        <v>70.90488433837891</v>
+        <v>60.818603515625</v>
       </c>
       <c r="G59">
-        <v>0.050844460701936</v>
+        <v>4.8159800012813198E-2</v>
       </c>
       <c r="H59">
-        <v>82.07641823989762</v>
+        <v>76.39027557156173</v>
       </c>
       <c r="I59">
-        <v>-0.4348088850187845</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.53820292567667172</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -2208,25 +2264,25 @@
         <v>4</v>
       </c>
       <c r="D60">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E60">
-        <v>2051.1845703125</v>
+        <v>13013.552734375</v>
       </c>
       <c r="F60">
-        <v>36.03989410400391</v>
+        <v>96.930000305175781</v>
       </c>
       <c r="G60">
-        <v>0.0274659109096333</v>
+        <v>0.1749899254374572</v>
       </c>
       <c r="H60">
-        <v>43.10448907276518</v>
+        <v>113.72168868934359</v>
       </c>
       <c r="I60">
-        <v>-1.05178028384654</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>-0.12825953525392539</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -2237,25 +2293,25 @@
         <v>5</v>
       </c>
       <c r="D61">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E61">
-        <v>14355.1875</v>
+        <v>3756.8994140625</v>
       </c>
       <c r="F61">
-        <v>97.67239379882812</v>
+        <v>47.672214508056641</v>
       </c>
       <c r="G61">
-        <v>0.09829062001134981</v>
+        <v>5.9518373261542197E-2</v>
       </c>
       <c r="H61">
-        <v>117.5793120026844</v>
+        <v>58.820608007402399</v>
       </c>
       <c r="I61">
-        <v>-0.5387471339996034</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>5.0547460352981501E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -2266,25 +2322,25 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="E62">
-        <v>39315.859375</v>
+        <v>189087.875</v>
       </c>
       <c r="F62">
-        <v>163.8340911865234</v>
+        <v>408.78829956054688</v>
       </c>
       <c r="G62">
-        <v>0.1125409740094406</v>
+        <v>0.3334336327278109</v>
       </c>
       <c r="H62">
-        <v>193.8858196910252</v>
+        <v>434.76387345843932</v>
       </c>
       <c r="I62">
-        <v>-1.062862312998372</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>-8.8399172132397155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -2295,25 +2351,25 @@
         <v>2</v>
       </c>
       <c r="D63">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E63">
-        <v>31907.8984375</v>
+        <v>122442.484375</v>
       </c>
       <c r="F63">
-        <v>154.0214996337891</v>
+        <v>312.1055908203125</v>
       </c>
       <c r="G63">
-        <v>0.1340474458948868</v>
+        <v>0.2177334197690653</v>
       </c>
       <c r="H63">
-        <v>175.3918801869376</v>
+        <v>349.67859380185121</v>
       </c>
       <c r="I63">
-        <v>-0.6138363688219269</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>-4.3535555085287756</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -2324,25 +2380,25 @@
         <v>3</v>
       </c>
       <c r="D64">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E64">
-        <v>7040.8203125</v>
+        <v>6666.89404296875</v>
       </c>
       <c r="F64">
-        <v>70.69329071044922</v>
+        <v>65.397674560546875</v>
       </c>
       <c r="G64">
-        <v>0.0502787954547477</v>
+        <v>5.1670767520209403E-2</v>
       </c>
       <c r="H64">
-        <v>82.43376232042954</v>
+        <v>81.306043171974338</v>
       </c>
       <c r="I64">
-        <v>-0.4183138516492924</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.47940175401709828</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -2353,25 +2409,25 @@
         <v>4</v>
       </c>
       <c r="D65">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E65">
-        <v>2778.355712890625</v>
+        <v>12499.458984375</v>
       </c>
       <c r="F65">
-        <v>42.75711441040039</v>
+        <v>96.389457702636719</v>
       </c>
       <c r="G65">
-        <v>0.0326939389882164</v>
+        <v>0.1839544909482459</v>
       </c>
       <c r="H65">
-        <v>50.21835691372651</v>
+        <v>111.20635233284381</v>
       </c>
       <c r="I65">
-        <v>-1.839720278825666</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>-7.8688141928937694E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -2382,25 +2438,25 @@
         <v>5</v>
       </c>
       <c r="D66">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E66">
-        <v>13159.650390625</v>
+        <v>5733.232421875</v>
       </c>
       <c r="F66">
-        <v>92.12525939941406</v>
+        <v>60.571426391601563</v>
       </c>
       <c r="G66">
-        <v>0.0936354794714705</v>
+        <v>7.4002064161351494E-2</v>
       </c>
       <c r="H66">
-        <v>113.0751541994594</v>
+        <v>74.252113206210325</v>
       </c>
       <c r="I66">
-        <v>-0.379874990704391</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>-0.4373287675889842</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2411,25 +2467,25 @@
         <v>1</v>
       </c>
       <c r="D67">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="E67">
-        <v>28405.962890625</v>
+        <v>246869.28125</v>
       </c>
       <c r="F67">
-        <v>132.7856903076172</v>
+        <v>475.22933959960938</v>
       </c>
       <c r="G67">
-        <v>0.09639693637968649</v>
+        <v>0.39006517490815062</v>
       </c>
       <c r="H67">
-        <v>166.8440795389965</v>
+        <v>496.66743995436798</v>
       </c>
       <c r="I67">
-        <v>-0.3727658369297257</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>-11.8437429941447</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -2440,25 +2496,25 @@
         <v>2</v>
       </c>
       <c r="D68">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="E68">
-        <v>500318.1875</v>
+        <v>16177.7177734375</v>
       </c>
       <c r="F68">
-        <v>449.6446838378906</v>
+        <v>95.255294799804673</v>
       </c>
       <c r="G68">
-        <v>0.3508740816536391</v>
+        <v>7.38165296586617E-2</v>
       </c>
       <c r="H68">
-        <v>705.3247703477749</v>
+        <v>127.00445214741509</v>
       </c>
       <c r="I68">
-        <v>-24.610039755315</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.2890100068314248</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -2469,25 +2525,25 @@
         <v>3</v>
       </c>
       <c r="D69">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E69">
-        <v>8280.2841796875</v>
+        <v>6586.63525390625</v>
       </c>
       <c r="F69">
-        <v>77.24616241455078</v>
+        <v>65.308143615722656</v>
       </c>
       <c r="G69">
-        <v>0.0551406639491308</v>
+        <v>5.1890087995002103E-2</v>
       </c>
       <c r="H69">
-        <v>89.71629042511978</v>
+        <v>80.907740241116201</v>
       </c>
       <c r="I69">
-        <v>-0.694814203409662</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.48592379622180831</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -2498,25 +2554,25 @@
         <v>4</v>
       </c>
       <c r="D70">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E70">
-        <v>2467.89208984375</v>
+        <v>13094.3212890625</v>
       </c>
       <c r="F70">
-        <v>39.13005828857422</v>
+        <v>96.898963928222656</v>
       </c>
       <c r="G70">
-        <v>0.0296571478489698</v>
+        <v>0.1736225800134033</v>
       </c>
       <c r="H70">
-        <v>45.91751168489618</v>
+        <v>114.06967186277279</v>
       </c>
       <c r="I70">
-        <v>-1.44978946244203</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>-0.1358939973369005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -2527,25 +2583,25 @@
         <v>5</v>
       </c>
       <c r="D71">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E71">
-        <v>18558.041015625</v>
+        <v>4712.1240234375</v>
       </c>
       <c r="F71">
-        <v>105.6138381958008</v>
+        <v>56.141639709472663</v>
       </c>
       <c r="G71">
-        <v>0.1106886808399852</v>
+        <v>7.1728035873255103E-2</v>
       </c>
       <c r="H71">
-        <v>130.2809390999705</v>
+        <v>68.43733319408274</v>
       </c>
       <c r="I71">
-        <v>-0.966556359170758</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>-0.1582512732001054</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -2556,25 +2612,25 @@
         <v>1</v>
       </c>
       <c r="D72">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E72">
-        <v>27097.1328125</v>
+        <v>102645.9609375</v>
       </c>
       <c r="F72">
-        <v>130.8091888427734</v>
+        <v>288.4423828125</v>
       </c>
       <c r="G72">
-        <v>0.09460592619446551</v>
+        <v>0.23217838188976681</v>
       </c>
       <c r="H72">
-        <v>162.7645126150725</v>
+        <v>320.35702588595439</v>
       </c>
       <c r="I72">
-        <v>-0.3339952113646784</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>-4.34089710971221</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -2585,25 +2641,25 @@
         <v>2</v>
       </c>
       <c r="D73">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="E73">
-        <v>32947.4765625</v>
+        <v>15250.1953125</v>
       </c>
       <c r="F73">
-        <v>154.0690460205078</v>
+        <v>92.275222778320327</v>
       </c>
       <c r="G73">
-        <v>0.1338546667774735</v>
+        <v>7.1377732606245303E-2</v>
       </c>
       <c r="H73">
-        <v>177.3437330722141</v>
+        <v>123.21468209423961</v>
       </c>
       <c r="I73">
-        <v>-0.6986957849908715</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>0.32927386473681169</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -2614,25 +2670,25 @@
         <v>3</v>
       </c>
       <c r="D74">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E74">
-        <v>6922.76708984375</v>
+        <v>6255.650390625</v>
       </c>
       <c r="F74">
-        <v>70.27524566650391</v>
+        <v>63.229824066162109</v>
       </c>
       <c r="G74">
-        <v>0.0503370759566028</v>
+        <v>5.0022689733647097E-2</v>
       </c>
       <c r="H74">
-        <v>82.08479886884624</v>
+        <v>78.706803711798003</v>
       </c>
       <c r="I74">
-        <v>-0.392786498829756</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>0.51146650669534965</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -2643,25 +2699,25 @@
         <v>4</v>
       </c>
       <c r="D75">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E75">
-        <v>2313.165771484375</v>
+        <v>13693.6171875</v>
       </c>
       <c r="F75">
-        <v>38.63784790039063</v>
+        <v>100.48911285400391</v>
       </c>
       <c r="G75">
-        <v>0.0294319180164613</v>
+        <v>0.20087494472617201</v>
       </c>
       <c r="H75">
-        <v>45.85278556962989</v>
+        <v>116.4645704626125</v>
       </c>
       <c r="I75">
-        <v>-1.289112833451182</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>-0.19073982864684111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -2672,25 +2728,25 @@
         <v>5</v>
       </c>
       <c r="D76">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E76">
-        <v>13491.30859375</v>
+        <v>4899.40673828125</v>
       </c>
       <c r="F76">
-        <v>92.33962249755859</v>
+        <v>55.988296508789063</v>
       </c>
       <c r="G76">
-        <v>0.0945151028329009</v>
+        <v>6.9313170620219994E-2</v>
       </c>
       <c r="H76">
-        <v>115.0279974857224</v>
+        <v>69.616189498815061</v>
       </c>
       <c r="I76">
-        <v>-0.4164603077821686</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>-0.2026226108419599</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -2701,25 +2757,25 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E77">
-        <v>31804.7421875</v>
+        <v>94855.2265625</v>
       </c>
       <c r="F77">
-        <v>138.6851501464844</v>
+        <v>269.11614990234369</v>
       </c>
       <c r="G77">
-        <v>0.1010840935903495</v>
+        <v>0.21494662410916829</v>
       </c>
       <c r="H77">
-        <v>176.5365254457584</v>
+        <v>307.94854908572319</v>
       </c>
       <c r="I77">
-        <v>-0.5427907500292648</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>-3.932846520976216</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -2730,25 +2786,25 @@
         <v>2</v>
       </c>
       <c r="D78">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E78">
-        <v>28307.271484375</v>
+        <v>15114.03515625</v>
       </c>
       <c r="F78">
-        <v>146.0706939697266</v>
+        <v>86.73321533203125</v>
       </c>
       <c r="G78">
-        <v>0.1273055651822046</v>
+        <v>6.8521820379021894E-2</v>
       </c>
       <c r="H78">
-        <v>166.2921287872058</v>
+        <v>122.4659273157602</v>
       </c>
       <c r="I78">
-        <v>-0.4023310015299941</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.33436838476324021</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -2759,25 +2815,25 @@
         <v>3</v>
       </c>
       <c r="D79">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E79">
-        <v>6926.32666015625</v>
+        <v>5258.9482421875</v>
       </c>
       <c r="F79">
-        <v>69.87004089355469</v>
+        <v>58.374568939208977</v>
       </c>
       <c r="G79">
-        <v>0.0500109451035306</v>
+        <v>4.5419564229371497E-2</v>
       </c>
       <c r="H79">
-        <v>82.01111385258858</v>
+        <v>72.452004054158863</v>
       </c>
       <c r="I79">
-        <v>-0.4127429088097472</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.59178067242442334</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -2788,25 +2844,25 @@
         <v>4</v>
       </c>
       <c r="D80">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E80">
-        <v>1857.997436523437</v>
+        <v>22025.16015625</v>
       </c>
       <c r="F80">
-        <v>34.0372428894043</v>
+        <v>115.9862976074219</v>
       </c>
       <c r="G80">
-        <v>0.0258620028716769</v>
+        <v>0.19039283420313599</v>
       </c>
       <c r="H80">
-        <v>40.63884544782899</v>
+        <v>146.85406826442869</v>
       </c>
       <c r="I80">
-        <v>-0.8397301505295304</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>-0.90123335941684357</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -2817,25 +2873,25 @@
         <v>5</v>
       </c>
       <c r="D81">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E81">
-        <v>14247.876953125</v>
+        <v>4625.2666015625</v>
       </c>
       <c r="F81">
-        <v>97.54352569580078</v>
+        <v>54.161415100097663</v>
       </c>
       <c r="G81">
-        <v>0.0974938848113398</v>
+        <v>6.6039749115833504E-2</v>
       </c>
       <c r="H81">
-        <v>118.3559331836959</v>
+        <v>67.100527405285291</v>
       </c>
       <c r="I81">
-        <v>-0.5151916961897695</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>-0.15786137417398449</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -2846,25 +2902,25 @@
         <v>1</v>
       </c>
       <c r="D82">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E82">
-        <v>29586.912109375</v>
+        <v>83884.5703125</v>
       </c>
       <c r="F82">
-        <v>136.0552215576172</v>
+        <v>253.9118957519531</v>
       </c>
       <c r="G82">
-        <v>0.0988282193016851</v>
+        <v>0.20292627016752851</v>
       </c>
       <c r="H82">
-        <v>169.6765267756578</v>
+        <v>289.59169750227022</v>
       </c>
       <c r="I82">
-        <v>-0.4470093110470168</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>-3.3618443413083892</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -2875,25 +2931,25 @@
         <v>2</v>
       </c>
       <c r="D83">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E83">
-        <v>32838.140625</v>
+        <v>14545.1640625</v>
       </c>
       <c r="F83">
-        <v>156.3909759521484</v>
+        <v>86.636985778808594</v>
       </c>
       <c r="G83">
-        <v>0.1388151740960918</v>
+        <v>6.7638689241482003E-2</v>
       </c>
       <c r="H83">
-        <v>178.5205776578971</v>
+        <v>120.10788694611161</v>
       </c>
       <c r="I83">
-        <v>-0.7116565760369068</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>0.35936412907141829</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -2904,25 +2960,25 @@
         <v>3</v>
       </c>
       <c r="D84">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E84">
-        <v>6781.6884765625</v>
+        <v>5615.50146484375</v>
       </c>
       <c r="F84">
-        <v>69.13685607910156</v>
+        <v>59.6956787109375</v>
       </c>
       <c r="G84">
-        <v>0.0494218489615054</v>
+        <v>4.72461528089047E-2</v>
       </c>
       <c r="H84">
-        <v>81.33208122069919</v>
+        <v>74.564226243246367</v>
       </c>
       <c r="I84">
-        <v>-0.3663080059083866</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>0.56119983547193475</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -2933,25 +2989,25 @@
         <v>4</v>
       </c>
       <c r="D85">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E85">
-        <v>2329.98046875</v>
+        <v>14989.421875</v>
       </c>
       <c r="F85">
-        <v>38.41191101074219</v>
+        <v>99.477317810058594</v>
       </c>
       <c r="G85">
-        <v>0.0291597361352649</v>
+        <v>0.17065535566270451</v>
       </c>
       <c r="H85">
-        <v>45.56046304890245</v>
+        <v>121.9227613585572</v>
       </c>
       <c r="I85">
-        <v>-1.295457902683788</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>-0.29856857734543057</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -2962,25 +3018,25 @@
         <v>5</v>
       </c>
       <c r="D86">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E86">
-        <v>14989.95703125</v>
+        <v>5256.7919921875</v>
       </c>
       <c r="F86">
-        <v>101.3450317382812</v>
+        <v>58.059108734130859</v>
       </c>
       <c r="G86">
-        <v>0.1010856986238623</v>
+        <v>7.0858077952611107E-2</v>
       </c>
       <c r="H86">
-        <v>121.0759156286847</v>
+        <v>71.389396901797255</v>
       </c>
       <c r="I86">
-        <v>-0.6123165119378724</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>-0.31775517251478108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -2991,25 +3047,25 @@
         <v>1</v>
       </c>
       <c r="D87">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E87">
-        <v>33114.578125</v>
+        <v>126775.1640625</v>
       </c>
       <c r="F87">
-        <v>143.1197967529297</v>
+        <v>297.38247680664063</v>
       </c>
       <c r="G87">
-        <v>0.1033927738729759</v>
+        <v>0.23525333615962049</v>
       </c>
       <c r="H87">
-        <v>179.4196625588802</v>
+        <v>356.01663456365583</v>
       </c>
       <c r="I87">
-        <v>-0.6065628887376112</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>-5.5938820605273483</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -3020,25 +3076,25 @@
         <v>2</v>
       </c>
       <c r="D88">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E88">
-        <v>31704.052734375</v>
+        <v>14797.6767578125</v>
       </c>
       <c r="F88">
-        <v>153.7186431884766</v>
+        <v>87.418304443359375</v>
       </c>
       <c r="G88">
-        <v>0.1337313522327897</v>
+        <v>6.9245179368342194E-2</v>
       </c>
       <c r="H88">
-        <v>175.1903672818973</v>
+        <v>120.9688835745407</v>
       </c>
       <c r="I88">
-        <v>-0.5358161232743287</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>0.34766366642165453</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -3049,25 +3105,25 @@
         <v>3</v>
       </c>
       <c r="D89">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E89">
-        <v>6732.2099609375</v>
+        <v>5998.2060546875</v>
       </c>
       <c r="F89">
-        <v>69.99495697021484</v>
+        <v>61.725322723388672</v>
       </c>
       <c r="G89">
-        <v>0.0498441153972537</v>
+        <v>4.8989166825965401E-2</v>
       </c>
       <c r="H89">
-        <v>81.2604631368154</v>
+        <v>76.83993624481009</v>
       </c>
       <c r="I89">
-        <v>-0.365227809564675</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>0.53076730308822218</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -3078,25 +3134,25 @@
         <v>4</v>
       </c>
       <c r="D90">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E90">
-        <v>1646.283081054688</v>
+        <v>17038.2109375</v>
       </c>
       <c r="F90">
-        <v>32.65594100952148</v>
+        <v>104.4056930541992</v>
       </c>
       <c r="G90">
-        <v>0.0249466438765601</v>
+        <v>0.1768186098866445</v>
       </c>
       <c r="H90">
-        <v>39.32987507556556</v>
+        <v>129.47087028298321</v>
       </c>
       <c r="I90">
-        <v>-0.7694657590035018</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>-0.4783285481971612</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -3107,25 +3163,25 @@
         <v>5</v>
       </c>
       <c r="D91">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E91">
-        <v>16470.869140625</v>
+        <v>3553.909423828125</v>
       </c>
       <c r="F91">
-        <v>102.6349716186523</v>
+        <v>46.766437530517578</v>
       </c>
       <c r="G91">
-        <v>0.1036619198685907</v>
+        <v>5.7679035054803499E-2</v>
       </c>
       <c r="H91">
-        <v>124.3522254736604</v>
+        <v>57.759678567950239</v>
       </c>
       <c r="I91">
-        <v>-0.8105350032552672</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>0.1037322446111537</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -3136,25 +3192,25 @@
         <v>1</v>
       </c>
       <c r="D92">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="E92">
-        <v>30768.19140625</v>
+        <v>198984.03125</v>
       </c>
       <c r="F92">
-        <v>138.3488006591797</v>
+        <v>423.771728515625</v>
       </c>
       <c r="G92">
-        <v>0.1005828467539346</v>
+        <v>0.34688225632094932</v>
       </c>
       <c r="H92">
-        <v>172.2617930319919</v>
+        <v>446.04589943006658</v>
       </c>
       <c r="I92">
-        <v>-0.4888035120630931</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>-9.3571455980567766</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -3165,25 +3221,25 @@
         <v>2</v>
       </c>
       <c r="D93">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E93">
-        <v>32470.943359375</v>
+        <v>14502.837890625</v>
       </c>
       <c r="F93">
-        <v>153.7096405029297</v>
+        <v>96.1861572265625</v>
       </c>
       <c r="G93">
-        <v>0.1326424301548499</v>
+        <v>7.2344949937276207E-2</v>
       </c>
       <c r="H93">
-        <v>175.6844018330442</v>
+        <v>120.3599367140182</v>
       </c>
       <c r="I93">
-        <v>-0.5399672208645441</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>0.36346284019987229</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -3194,25 +3250,25 @@
         <v>3</v>
       </c>
       <c r="D94">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E94">
-        <v>7878.35107421875</v>
+        <v>5834.10009765625</v>
       </c>
       <c r="F94">
-        <v>74.89316558837891</v>
+        <v>60.865989685058587</v>
       </c>
       <c r="G94">
-        <v>0.053432335022639</v>
+        <v>4.7558506323384299E-2</v>
       </c>
       <c r="H94">
-        <v>87.01786906023442</v>
+        <v>76.043972129672269</v>
       </c>
       <c r="I94">
-        <v>-0.633555440647131</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>0.54487457519360127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -3223,25 +3279,25 @@
         <v>4</v>
       </c>
       <c r="D95">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E95">
-        <v>2750.854736328125</v>
+        <v>15260.4951171875</v>
       </c>
       <c r="F95">
-        <v>43.00136947631836</v>
+        <v>101.0828857421875</v>
       </c>
       <c r="G95">
-        <v>0.0326900950089169</v>
+        <v>0.1761882148562223</v>
       </c>
       <c r="H95">
-        <v>50.58248705184267</v>
+        <v>122.95047241468281</v>
       </c>
       <c r="I95">
-        <v>-1.738485338134073</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>-0.33464809037303528</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -3255,19 +3311,1469 @@
         <v>18</v>
       </c>
       <c r="E96">
-        <v>15505.197265625</v>
+        <v>4137.982421875</v>
       </c>
       <c r="F96">
-        <v>96.63126373291016</v>
+        <v>50.533279418945313</v>
       </c>
       <c r="G96">
-        <v>0.1010453356855625</v>
+        <v>6.2157833954614099E-2</v>
       </c>
       <c r="H96">
-        <v>121.9918280796724</v>
+        <v>62.684308844421963</v>
       </c>
       <c r="I96">
-        <v>-0.6212813551770076</v>
+        <v>-4.12368439564961E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>76</v>
+      </c>
+      <c r="E97">
+        <v>87584.3984375</v>
+      </c>
+      <c r="F97">
+        <v>261.240478515625</v>
+      </c>
+      <c r="G97">
+        <v>0.2091627445222238</v>
+      </c>
+      <c r="H97">
+        <v>295.91933754427629</v>
+      </c>
+      <c r="I97">
+        <v>-3.5567327596749059</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>29</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>49</v>
+      </c>
+      <c r="E98">
+        <v>14005.4111328125</v>
+      </c>
+      <c r="F98">
+        <v>93.276069641113281</v>
+      </c>
+      <c r="G98">
+        <v>7.08072926185917E-2</v>
+      </c>
+      <c r="H98">
+        <v>118.14882668089849</v>
+      </c>
+      <c r="I98">
+        <v>0.38437594695763</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99">
+        <v>25</v>
+      </c>
+      <c r="E99">
+        <v>5962.66259765625</v>
+      </c>
+      <c r="F99">
+        <v>61.062347412109382</v>
+      </c>
+      <c r="G99">
+        <v>4.84785873283885E-2</v>
+      </c>
+      <c r="H99">
+        <v>76.81058715127493</v>
+      </c>
+      <c r="I99">
+        <v>0.53430006373331784</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <v>4</v>
+      </c>
+      <c r="E100">
+        <v>13170.267578125</v>
+      </c>
+      <c r="F100">
+        <v>98.637374877929673</v>
+      </c>
+      <c r="G100">
+        <v>0.1866340672176145</v>
+      </c>
+      <c r="H100">
+        <v>114.5081172641582</v>
+      </c>
+      <c r="I100">
+        <v>-0.1433951054206874</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" t="s">
+        <v>29</v>
+      </c>
+      <c r="C101">
+        <v>5</v>
+      </c>
+      <c r="D101">
+        <v>34</v>
+      </c>
+      <c r="E101">
+        <v>3643.86181640625</v>
+      </c>
+      <c r="F101">
+        <v>47.464714050292969</v>
+      </c>
+      <c r="G101">
+        <v>5.8426267906618798E-2</v>
+      </c>
+      <c r="H101">
+        <v>58.817481162076703</v>
+      </c>
+      <c r="I101">
+        <v>8.2900410416205397E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" t="s">
+        <v>30</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>81</v>
+      </c>
+      <c r="E102">
+        <v>84122.4375</v>
+      </c>
+      <c r="F102">
+        <v>254.61549377441409</v>
+      </c>
+      <c r="G102">
+        <v>0.20356080865471601</v>
+      </c>
+      <c r="H102">
+        <v>290.00887062100497</v>
+      </c>
+      <c r="I102">
+        <v>-3.3757009306143759</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" t="s">
+        <v>30</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>46</v>
+      </c>
+      <c r="E103">
+        <v>13650.4384765625</v>
+      </c>
+      <c r="F103">
+        <v>94.981025695800781</v>
+      </c>
+      <c r="G103">
+        <v>7.0691385815459001E-2</v>
+      </c>
+      <c r="H103">
+        <v>116.6208943770351</v>
+      </c>
+      <c r="I103">
+        <v>0.40001919710217188</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" t="s">
+        <v>30</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104">
+        <v>30</v>
+      </c>
+      <c r="E104">
+        <v>5499.17724609375</v>
+      </c>
+      <c r="F104">
+        <v>58.467662811279297</v>
+      </c>
+      <c r="G104">
+        <v>4.5926720981189301E-2</v>
+      </c>
+      <c r="H104">
+        <v>73.680814286420897</v>
+      </c>
+      <c r="I104">
+        <v>0.57074951509911631</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" t="s">
+        <v>30</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>4</v>
+      </c>
+      <c r="E105">
+        <v>13659.052734375</v>
+      </c>
+      <c r="F105">
+        <v>97.974426269531236</v>
+      </c>
+      <c r="G105">
+        <v>0.17579670418647581</v>
+      </c>
+      <c r="H105">
+        <v>116.32157886056051</v>
+      </c>
+      <c r="I105">
+        <v>-0.1810768382163003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" t="s">
+        <v>30</v>
+      </c>
+      <c r="C106">
+        <v>5</v>
+      </c>
+      <c r="D106">
+        <v>29</v>
+      </c>
+      <c r="E106">
+        <v>3870.295654296875</v>
+      </c>
+      <c r="F106">
+        <v>48.7203369140625</v>
+      </c>
+      <c r="G106">
+        <v>6.03767831784821E-2</v>
+      </c>
+      <c r="H106">
+        <v>59.89344509679848</v>
+      </c>
+      <c r="I106">
+        <v>2.2203938069210401E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>31</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>71</v>
+      </c>
+      <c r="E107">
+        <v>83486.5234375</v>
+      </c>
+      <c r="F107">
+        <v>253.3350830078125</v>
+      </c>
+      <c r="G107">
+        <v>0.202468893816073</v>
+      </c>
+      <c r="H107">
+        <v>288.90332161701559</v>
+      </c>
+      <c r="I107">
+        <v>-3.341180245131981</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" t="s">
+        <v>31</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>42</v>
+      </c>
+      <c r="E108">
+        <v>11944.0625</v>
+      </c>
+      <c r="F108">
+        <v>84.91729736328125</v>
+      </c>
+      <c r="G108">
+        <v>6.4614227455340706E-2</v>
+      </c>
+      <c r="H108">
+        <v>108.57994975118319</v>
+      </c>
+      <c r="I108">
+        <v>0.4732849059559307</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" t="s">
+        <v>31</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109">
+        <v>25</v>
+      </c>
+      <c r="E109">
+        <v>5898.130859375</v>
+      </c>
+      <c r="F109">
+        <v>61.452175140380859</v>
+      </c>
+      <c r="G109">
+        <v>4.8642120350403897E-2</v>
+      </c>
+      <c r="H109">
+        <v>76.088268841104863</v>
+      </c>
+      <c r="I109">
+        <v>0.53819114322003481</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" t="s">
+        <v>31</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+      <c r="D110">
+        <v>4</v>
+      </c>
+      <c r="E110">
+        <v>15780.0302734375</v>
+      </c>
+      <c r="F110">
+        <v>101.9337844848633</v>
+      </c>
+      <c r="G110">
+        <v>0.17519340208734879</v>
+      </c>
+      <c r="H110">
+        <v>124.5897262161742</v>
+      </c>
+      <c r="I110">
+        <v>-0.37217724063487528</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s">
+        <v>31</v>
+      </c>
+      <c r="C111">
+        <v>5</v>
+      </c>
+      <c r="D111">
+        <v>11</v>
+      </c>
+      <c r="E111">
+        <v>3880.313720703125</v>
+      </c>
+      <c r="F111">
+        <v>49.427356719970703</v>
+      </c>
+      <c r="G111">
+        <v>6.0304479292889297E-2</v>
+      </c>
+      <c r="H111">
+        <v>61.556375144123898</v>
+      </c>
+      <c r="I111">
+        <v>2.94032466862107E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" t="s">
+        <v>32</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>80</v>
+      </c>
+      <c r="E112">
+        <v>86335.515625</v>
+      </c>
+      <c r="F112">
+        <v>258.84164428710938</v>
+      </c>
+      <c r="G112">
+        <v>0.207124134476768</v>
+      </c>
+      <c r="H112">
+        <v>293.79163318220378</v>
+      </c>
+      <c r="I112">
+        <v>-3.4891932730675479</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" t="s">
+        <v>32</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <v>98</v>
+      </c>
+      <c r="E113">
+        <v>10755.283203125</v>
+      </c>
+      <c r="F113">
+        <v>78.986236572265625</v>
+      </c>
+      <c r="G113">
+        <v>6.07827990389374E-2</v>
+      </c>
+      <c r="H113">
+        <v>103.623372197892</v>
+      </c>
+      <c r="I113">
+        <v>0.5277998010135011</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" t="s">
+        <v>32</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+      <c r="D114">
+        <v>48</v>
+      </c>
+      <c r="E114">
+        <v>5072.26513671875</v>
+      </c>
+      <c r="F114">
+        <v>56.824470520019531</v>
+      </c>
+      <c r="G114">
+        <v>4.4593850654875401E-2</v>
+      </c>
+      <c r="H114">
+        <v>70.868192884852576</v>
+      </c>
+      <c r="I114">
+        <v>0.60418327879702949</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" t="s">
+        <v>32</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <v>4</v>
+      </c>
+      <c r="E115">
+        <v>13408.126953125</v>
+      </c>
+      <c r="F115">
+        <v>97.424629211425781</v>
+      </c>
+      <c r="G115">
+        <v>0.17489175284867101</v>
+      </c>
+      <c r="H115">
+        <v>115.4173983482105</v>
+      </c>
+      <c r="I115">
+        <v>-0.16014005816485211</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" t="s">
+        <v>32</v>
+      </c>
+      <c r="C116">
+        <v>5</v>
+      </c>
+      <c r="D116">
+        <v>16</v>
+      </c>
+      <c r="E116">
+        <v>3597.878173828125</v>
+      </c>
+      <c r="F116">
+        <v>46.983749389648438</v>
+      </c>
+      <c r="G116">
+        <v>5.8716439067389103E-2</v>
+      </c>
+      <c r="H116">
+        <v>57.47907097286722</v>
+      </c>
+      <c r="I116">
+        <v>9.0290290177669097E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" t="s">
+        <v>33</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>75</v>
+      </c>
+      <c r="E117">
+        <v>86087.375</v>
+      </c>
+      <c r="F117">
+        <v>258.38507080078119</v>
+      </c>
+      <c r="G117">
+        <v>0.2067419652222347</v>
+      </c>
+      <c r="H117">
+        <v>293.3701801133937</v>
+      </c>
+      <c r="I117">
+        <v>-3.476617665500517</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" t="s">
+        <v>33</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>54</v>
+      </c>
+      <c r="E118">
+        <v>12432.373046875</v>
+      </c>
+      <c r="F118">
+        <v>86.713180541992188</v>
+      </c>
+      <c r="G118">
+        <v>6.6172389394700104E-2</v>
+      </c>
+      <c r="H118">
+        <v>110.75543294681979</v>
+      </c>
+      <c r="I118">
+        <v>0.45172847902220598</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+      <c r="D119">
+        <v>35</v>
+      </c>
+      <c r="E119">
+        <v>5379.4560546875</v>
+      </c>
+      <c r="F119">
+        <v>58.459308624267578</v>
+      </c>
+      <c r="G119">
+        <v>4.5885935828515398E-2</v>
+      </c>
+      <c r="H119">
+        <v>72.960467567917036</v>
+      </c>
+      <c r="I119">
+        <v>0.57992800928333932</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" t="s">
+        <v>33</v>
+      </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
+      <c r="D120">
+        <v>4</v>
+      </c>
+      <c r="E120">
+        <v>22145.5</v>
+      </c>
+      <c r="F120">
+        <v>117.17010498046881</v>
+      </c>
+      <c r="G120">
+        <v>0.19321346127504549</v>
+      </c>
+      <c r="H120">
+        <v>147.38523920559251</v>
+      </c>
+      <c r="I120">
+        <v>-0.92829641701870635</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" t="s">
+        <v>33</v>
+      </c>
+      <c r="C121">
+        <v>5</v>
+      </c>
+      <c r="D121">
+        <v>10</v>
+      </c>
+      <c r="E121">
+        <v>3923.290771484375</v>
+      </c>
+      <c r="F121">
+        <v>48.776420593261719</v>
+      </c>
+      <c r="G121">
+        <v>6.0066468747522903E-2</v>
+      </c>
+      <c r="H121">
+        <v>61.07516546282389</v>
+      </c>
+      <c r="I121">
+        <v>1.29943072035905E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" t="s">
+        <v>34</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>88</v>
+      </c>
+      <c r="E122">
+        <v>81892.3984375</v>
+      </c>
+      <c r="F122">
+        <v>250.30160522460929</v>
+      </c>
+      <c r="G122">
+        <v>0.1999212493018078</v>
+      </c>
+      <c r="H122">
+        <v>286.13362093641712</v>
+      </c>
+      <c r="I122">
+        <v>-3.258636591476427</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" t="s">
+        <v>34</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123">
+        <v>53</v>
+      </c>
+      <c r="E123">
+        <v>12219.423828125</v>
+      </c>
+      <c r="F123">
+        <v>83.313331604003906</v>
+      </c>
+      <c r="G123">
+        <v>6.4078924671584006E-2</v>
+      </c>
+      <c r="H123">
+        <v>109.3037719760901</v>
+      </c>
+      <c r="I123">
+        <v>0.45997018187398192</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" t="s">
+        <v>34</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124">
+        <v>27</v>
+      </c>
+      <c r="E124">
+        <v>5640.7236328125</v>
+      </c>
+      <c r="F124">
+        <v>59.289649963378913</v>
+      </c>
+      <c r="G124">
+        <v>4.6638446850450703E-2</v>
+      </c>
+      <c r="H124">
+        <v>74.557201455988093</v>
+      </c>
+      <c r="I124">
+        <v>0.55947208625930067</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" t="s">
+        <v>34</v>
+      </c>
+      <c r="C125">
+        <v>4</v>
+      </c>
+      <c r="D125">
+        <v>4</v>
+      </c>
+      <c r="E125">
+        <v>13306.2587890625</v>
+      </c>
+      <c r="F125">
+        <v>97.741561889648438</v>
+      </c>
+      <c r="G125">
+        <v>0.1781905519446404</v>
+      </c>
+      <c r="H125">
+        <v>114.9794556519423</v>
+      </c>
+      <c r="I125">
+        <v>-0.15399888355517311</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" t="s">
+        <v>34</v>
+      </c>
+      <c r="C126">
+        <v>5</v>
+      </c>
+      <c r="D126">
+        <v>28</v>
+      </c>
+      <c r="E126">
+        <v>3418.715087890625</v>
+      </c>
+      <c r="F126">
+        <v>45.816856384277337</v>
+      </c>
+      <c r="G126">
+        <v>5.7330108254436699E-2</v>
+      </c>
+      <c r="H126">
+        <v>55.926418133754687</v>
+      </c>
+      <c r="I126">
+        <v>0.134918927340584</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" t="s">
+        <v>35</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>77</v>
+      </c>
+      <c r="E127">
+        <v>86419.765625</v>
+      </c>
+      <c r="F127">
+        <v>259.0281982421875</v>
+      </c>
+      <c r="G127">
+        <v>0.2072879871066203</v>
+      </c>
+      <c r="H127">
+        <v>293.93920511286979</v>
+      </c>
+      <c r="I127">
+        <v>-3.4945069007615408</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" t="s">
+        <v>35</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+      <c r="D128">
+        <v>76</v>
+      </c>
+      <c r="E128">
+        <v>12039.33984375</v>
+      </c>
+      <c r="F128">
+        <v>81.631889343261719</v>
+      </c>
+      <c r="G128">
+        <v>6.3050880469723E-2</v>
+      </c>
+      <c r="H128">
+        <v>108.284835852378</v>
+      </c>
+      <c r="I128">
+        <v>0.46755813297923648</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" t="s">
+        <v>35</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+      <c r="D129">
+        <v>24</v>
+      </c>
+      <c r="E129">
+        <v>5754.41552734375</v>
+      </c>
+      <c r="F129">
+        <v>58.572772979736328</v>
+      </c>
+      <c r="G129">
+        <v>4.5651224459263999E-2</v>
+      </c>
+      <c r="H129">
+        <v>75.728781974356011</v>
+      </c>
+      <c r="I129">
+        <v>0.55222899522024105</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" t="s">
+        <v>35</v>
+      </c>
+      <c r="C130">
+        <v>4</v>
+      </c>
+      <c r="D130">
+        <v>17</v>
+      </c>
+      <c r="E130">
+        <v>17045.255859375</v>
+      </c>
+      <c r="F130">
+        <v>113.22524261474609</v>
+      </c>
+      <c r="G130">
+        <v>0.2193433241423384</v>
+      </c>
+      <c r="H130">
+        <v>130.43943705273631</v>
+      </c>
+      <c r="I130">
+        <v>-0.49335192576084769</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" t="s">
+        <v>35</v>
+      </c>
+      <c r="C131">
+        <v>5</v>
+      </c>
+      <c r="D131">
+        <v>16</v>
+      </c>
+      <c r="E131">
+        <v>3408.5751953125</v>
+      </c>
+      <c r="F131">
+        <v>45.569343566894531</v>
+      </c>
+      <c r="G131">
+        <v>5.6440289248932199E-2</v>
+      </c>
+      <c r="H131">
+        <v>56.230305850113687</v>
+      </c>
+      <c r="I131">
+        <v>0.13903992857455319</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" t="s">
+        <v>36</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>78</v>
+      </c>
+      <c r="E132">
+        <v>86021.078125</v>
+      </c>
+      <c r="F132">
+        <v>258.28729248046881</v>
+      </c>
+      <c r="G132">
+        <v>0.20666593298909411</v>
+      </c>
+      <c r="H132">
+        <v>293.26102914298713</v>
+      </c>
+      <c r="I132">
+        <v>-3.4740697430325769</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" t="s">
+        <v>36</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+      <c r="D133">
+        <v>62</v>
+      </c>
+      <c r="E133">
+        <v>13050.40625</v>
+      </c>
+      <c r="F133">
+        <v>84.175811767578125</v>
+      </c>
+      <c r="G133">
+        <v>6.4876886403607198E-2</v>
+      </c>
+      <c r="H133">
+        <v>113.6613760415016</v>
+      </c>
+      <c r="I133">
+        <v>0.4249804476063348</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" t="s">
+        <v>36</v>
+      </c>
+      <c r="C134">
+        <v>3</v>
+      </c>
+      <c r="D134">
+        <v>24</v>
+      </c>
+      <c r="E134">
+        <v>6181.93505859375</v>
+      </c>
+      <c r="F134">
+        <v>61.279953002929688</v>
+      </c>
+      <c r="G134">
+        <v>4.8184380711217299E-2</v>
+      </c>
+      <c r="H134">
+        <v>78.297699755711022</v>
+      </c>
+      <c r="I134">
+        <v>0.51827508303241532</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" t="s">
+        <v>36</v>
+      </c>
+      <c r="C135">
+        <v>4</v>
+      </c>
+      <c r="D135">
+        <v>4</v>
+      </c>
+      <c r="E135">
+        <v>16790.962890625</v>
+      </c>
+      <c r="F135">
+        <v>103.91368103027339</v>
+      </c>
+      <c r="G135">
+        <v>0.17638227655627969</v>
+      </c>
+      <c r="H135">
+        <v>128.5246650072952</v>
+      </c>
+      <c r="I135">
+        <v>-0.46180607599719969</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" t="s">
+        <v>36</v>
+      </c>
+      <c r="C136">
+        <v>5</v>
+      </c>
+      <c r="D136">
+        <v>18</v>
+      </c>
+      <c r="E136">
+        <v>3274.45556640625</v>
+      </c>
+      <c r="F136">
+        <v>44.800010681152337</v>
+      </c>
+      <c r="G136">
+        <v>5.5746605463259297E-2</v>
+      </c>
+      <c r="H136">
+        <v>55.120989031012527</v>
+      </c>
+      <c r="I136">
+        <v>0.17320249978149629</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" t="s">
+        <v>37</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>65</v>
+      </c>
+      <c r="E137">
+        <v>84357.09375</v>
+      </c>
+      <c r="F137">
+        <v>255.0281982421875</v>
+      </c>
+      <c r="G137">
+        <v>0.20390180852179349</v>
+      </c>
+      <c r="H137">
+        <v>290.41041002498611</v>
+      </c>
+      <c r="I137">
+        <v>-3.387475588761363</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" t="s">
+        <v>37</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+      <c r="D138">
+        <v>48</v>
+      </c>
+      <c r="E138">
+        <v>13339.91796875</v>
+      </c>
+      <c r="F138">
+        <v>91.235466003417955</v>
+      </c>
+      <c r="G138">
+        <v>6.8774266486628502E-2</v>
+      </c>
+      <c r="H138">
+        <v>115.10238387677499</v>
+      </c>
+      <c r="I138">
+        <v>0.41282031444842648</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139" t="s">
+        <v>37</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
+      </c>
+      <c r="D139">
+        <v>26</v>
+      </c>
+      <c r="E139">
+        <v>6038.8310546875</v>
+      </c>
+      <c r="F139">
+        <v>62.239765167236328</v>
+      </c>
+      <c r="G139">
+        <v>4.92778310309573E-2</v>
+      </c>
+      <c r="H139">
+        <v>76.989226904031739</v>
+      </c>
+      <c r="I139">
+        <v>0.52724814188372493</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" t="s">
+        <v>37</v>
+      </c>
+      <c r="C140">
+        <v>4</v>
+      </c>
+      <c r="D140">
+        <v>4</v>
+      </c>
+      <c r="E140">
+        <v>20920.89453125</v>
+      </c>
+      <c r="F140">
+        <v>114.0218200683594</v>
+      </c>
+      <c r="G140">
+        <v>0.18905563793648111</v>
+      </c>
+      <c r="H140">
+        <v>143.0665906247969</v>
+      </c>
+      <c r="I140">
+        <v>-0.82303417528745892</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" t="s">
+        <v>37</v>
+      </c>
+      <c r="C141">
+        <v>5</v>
+      </c>
+      <c r="D141">
+        <v>24</v>
+      </c>
+      <c r="E141">
+        <v>3904.5205078125</v>
+      </c>
+      <c r="F141">
+        <v>48.888397216796882</v>
+      </c>
+      <c r="G141">
+        <v>6.1061933052890802E-2</v>
+      </c>
+      <c r="H141">
+        <v>59.795823801117329</v>
+      </c>
+      <c r="I141">
+        <v>1.23193171070429E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" t="s">
+        <v>38</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>72</v>
+      </c>
+      <c r="E142">
+        <v>86619.546875</v>
+      </c>
+      <c r="F142">
+        <v>259.41522216796881</v>
+      </c>
+      <c r="G142">
+        <v>0.20761844894549869</v>
+      </c>
+      <c r="H142">
+        <v>294.28396956849662</v>
+      </c>
+      <c r="I142">
+        <v>-3.5061442631479842</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" t="s">
+        <v>38</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+      <c r="D143">
+        <v>53</v>
+      </c>
+      <c r="E143">
+        <v>12952.697265625</v>
+      </c>
+      <c r="F143">
+        <v>87.998031616210938</v>
+      </c>
+      <c r="G143">
+        <v>6.7113647948808905E-2</v>
+      </c>
+      <c r="H143">
+        <v>113.1866755990891</v>
+      </c>
+      <c r="I143">
+        <v>0.42910624715407991</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" t="s">
+        <v>38</v>
+      </c>
+      <c r="C144">
+        <v>3</v>
+      </c>
+      <c r="D144">
+        <v>31</v>
+      </c>
+      <c r="E144">
+        <v>6177.14599609375</v>
+      </c>
+      <c r="F144">
+        <v>62.637042999267578</v>
+      </c>
+      <c r="G144">
+        <v>4.9704855162281902E-2</v>
+      </c>
+      <c r="H144">
+        <v>78.026027392255671</v>
+      </c>
+      <c r="I144">
+        <v>0.51679891159065494</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" t="s">
+        <v>38</v>
+      </c>
+      <c r="C145">
+        <v>4</v>
+      </c>
+      <c r="D145">
+        <v>4</v>
+      </c>
+      <c r="E145">
+        <v>19934</v>
+      </c>
+      <c r="F145">
+        <v>111.041374206543</v>
+      </c>
+      <c r="G145">
+        <v>0.18353367649961719</v>
+      </c>
+      <c r="H145">
+        <v>140.3151222629848</v>
+      </c>
+      <c r="I145">
+        <v>-0.74473928211679097</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146" t="s">
+        <v>38</v>
+      </c>
+      <c r="C146">
+        <v>5</v>
+      </c>
+      <c r="D146">
+        <v>12</v>
+      </c>
+      <c r="E146">
+        <v>4014.67431640625</v>
+      </c>
+      <c r="F146">
+        <v>49.764118194580078</v>
+      </c>
+      <c r="G146">
+        <v>6.2268625065810601E-2</v>
+      </c>
+      <c r="H146">
+        <v>60.982715221372089</v>
+      </c>
+      <c r="I146">
+        <v>-1.3822473508666101E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3276,14 +4782,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3306,861 +4812,1301 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>445814.3364501953</v>
+        <v>35685.786425781247</v>
       </c>
       <c r="D2">
-        <v>447.9946468353272</v>
+        <v>124.9282783508301</v>
       </c>
       <c r="E2">
-        <v>0.3547110105713533</v>
+        <v>0.117779621779807</v>
       </c>
       <c r="F2">
-        <v>463.6661561732986</v>
+        <v>144.77111713119001</v>
       </c>
       <c r="G2">
-        <v>-22.6113483561033</v>
+        <v>-1.05609500876643</v>
       </c>
       <c r="H2">
-        <v>67.8</v>
+        <v>54.2</v>
       </c>
       <c r="I2">
-        <v>620227.699675309</v>
+        <v>61783.370671099663</v>
       </c>
       <c r="J2">
-        <v>529.8001653102524</v>
+        <v>127.3363887450797</v>
       </c>
       <c r="K2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L2">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="M2">
-        <v>1371.245239257812</v>
+        <v>3810.57763671875</v>
       </c>
       <c r="N2">
-        <v>29.43545341491699</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>48.665904998779297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>384937.0354492188</v>
+        <v>28691.080859375001</v>
       </c>
       <c r="D3">
-        <v>408.5328147888184</v>
+        <v>116.5107437133789</v>
       </c>
       <c r="E3">
-        <v>0.3221283716441499</v>
+        <v>0.1054918302594248</v>
       </c>
       <c r="F3">
-        <v>433.6800993894415</v>
+        <v>136.63383136809509</v>
       </c>
       <c r="G3">
-        <v>-19.56478713505461</v>
+        <v>-0.65411309942204021</v>
       </c>
       <c r="H3">
-        <v>66.40000000000001</v>
+        <v>61.8</v>
       </c>
       <c r="I3">
-        <v>554005.6872322974</v>
+        <v>41579.600698963011</v>
       </c>
       <c r="J3">
-        <v>471.2091685878551</v>
+        <v>100.5247388764479</v>
       </c>
       <c r="K3">
         <v>4</v>
       </c>
       <c r="L3">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M3">
-        <v>2076.7119140625</v>
+        <v>3725.675048828125</v>
       </c>
       <c r="N3">
-        <v>36.11266708374024</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>47.985088348388672</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>26553.073974609379</v>
+      </c>
+      <c r="D4">
+        <v>109.33239517211911</v>
+      </c>
+      <c r="E4">
+        <v>0.1011468862002582</v>
+      </c>
+      <c r="F4">
+        <v>130.1029608600777</v>
+      </c>
+      <c r="G4">
+        <v>-0.55199350679419978</v>
+      </c>
+      <c r="H4">
+        <v>59.6</v>
+      </c>
+      <c r="I4">
+        <v>41413.199651671057</v>
+      </c>
+      <c r="J4">
+        <v>99.251470140089339</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>23</v>
+      </c>
+      <c r="M4">
+        <v>3580.9697265625</v>
+      </c>
+      <c r="N4">
+        <v>46.670093536376953</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>57488.015917968747</v>
+      </c>
+      <c r="D5">
+        <v>157.76667633056641</v>
+      </c>
+      <c r="E5">
+        <v>0.1522244816896946</v>
+      </c>
+      <c r="F5">
+        <v>177.41732747995101</v>
+      </c>
+      <c r="G5">
+        <v>-2.2725908923256939</v>
+      </c>
+      <c r="H5">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="I5">
+        <v>105970.3376340838</v>
+      </c>
+      <c r="J5">
+        <v>178.37553233548681</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5">
+        <v>4712.1240234375</v>
+      </c>
+      <c r="N5">
+        <v>56.141639709472663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>180278.28427734369</v>
+      </c>
+      <c r="D6">
+        <v>233.03593749999999</v>
+      </c>
+      <c r="E6">
+        <v>0.21338394365705279</v>
+      </c>
+      <c r="F6">
+        <v>263.74636221067522</v>
+      </c>
+      <c r="G6">
+        <v>-8.6864312072336052</v>
+      </c>
+      <c r="H6">
+        <v>33.4</v>
+      </c>
+      <c r="I6">
+        <v>380557.50763489428</v>
+      </c>
+      <c r="J6">
+        <v>348.94927295724301</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>5213.78662109375</v>
+      </c>
+      <c r="N6">
+        <v>59.541847229003913</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>101898.90390624999</v>
+      </c>
+      <c r="D7">
+        <v>171.78965301513671</v>
+      </c>
+      <c r="E7">
+        <v>0.1520329520359589</v>
+      </c>
+      <c r="F7">
+        <v>206.21939025152861</v>
+      </c>
+      <c r="G7">
+        <v>-4.4783158596241517</v>
+      </c>
+      <c r="H7">
+        <v>45.6</v>
+      </c>
+      <c r="I7">
+        <v>208964.52565071109</v>
+      </c>
+      <c r="J7">
+        <v>229.04040940391019</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>49</v>
+      </c>
+      <c r="M7">
+        <v>3621.72314453125</v>
+      </c>
+      <c r="N7">
+        <v>46.998710632324219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>65825.260058593747</v>
+      </c>
+      <c r="D8">
+        <v>150.12521133422851</v>
+      </c>
+      <c r="E8">
+        <v>0.15106915796400139</v>
+      </c>
+      <c r="F8">
+        <v>186.12486060083251</v>
+      </c>
+      <c r="G8">
+        <v>-2.7223902382401359</v>
+      </c>
+      <c r="H8">
+        <v>46.2</v>
+      </c>
+      <c r="I8">
+        <v>123225.83984101791</v>
+      </c>
+      <c r="J8">
+        <v>158.51419409056979</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>22</v>
+      </c>
+      <c r="M8">
+        <v>4324.62451171875</v>
+      </c>
+      <c r="N8">
+        <v>52.194000244140632</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>28548.966113281251</v>
+      </c>
+      <c r="D9">
+        <v>120.0849678039551</v>
+      </c>
+      <c r="E9">
+        <v>0.12475338391521031</v>
+      </c>
+      <c r="F9">
+        <v>141.67185433068391</v>
+      </c>
+      <c r="G9">
+        <v>-0.77870383555376999</v>
+      </c>
+      <c r="H9">
+        <v>51</v>
+      </c>
+      <c r="I9">
+        <v>41665.92409583761</v>
+      </c>
+      <c r="J9">
+        <v>95.971987161014098</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>4899.40673828125</v>
+      </c>
+      <c r="N9">
+        <v>55.988296508789063</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>24858.289941406249</v>
+      </c>
+      <c r="D10">
+        <v>111.55619735717769</v>
+      </c>
+      <c r="E10">
+        <v>0.1118649091666462</v>
+      </c>
+      <c r="F10">
+        <v>135.51519379039649</v>
+      </c>
+      <c r="G10">
+        <v>-0.61152082532504948</v>
+      </c>
+      <c r="H10">
+        <v>39.6</v>
+      </c>
+      <c r="I10">
+        <v>33325.51772651184</v>
+      </c>
+      <c r="J10">
+        <v>81.522179785112399</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>13</v>
+      </c>
+      <c r="M10">
+        <v>5256.7919921875</v>
+      </c>
+      <c r="N10">
+        <v>58.059108734130859</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
+        <v>25993.59897460938</v>
+      </c>
+      <c r="D11">
+        <v>113.9008171081543</v>
+      </c>
+      <c r="E11">
+        <v>0.1144160440936037</v>
+      </c>
+      <c r="F11">
+        <v>137.1092970593094</v>
+      </c>
+      <c r="G11">
+        <v>-0.67205265740201747</v>
+      </c>
+      <c r="H11">
+        <v>35.6</v>
+      </c>
+      <c r="I11">
+        <v>34358.470658176673</v>
+      </c>
+      <c r="J11">
+        <v>85.059542784391624</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <v>3923.290771484375</v>
+      </c>
+      <c r="N11">
+        <v>48.776420593261719</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>23833.81381835938</v>
+      </c>
+      <c r="D12">
+        <v>107.8121459960937</v>
+      </c>
+      <c r="E12">
+        <v>0.10922179521732819</v>
+      </c>
+      <c r="F12">
+        <v>128.23593351720521</v>
+      </c>
+      <c r="G12">
+        <v>-0.48541199224884007</v>
+      </c>
+      <c r="H12">
+        <v>49.2</v>
+      </c>
+      <c r="I12">
+        <v>35169.92478928178</v>
+      </c>
+      <c r="J12">
+        <v>86.672630912622665</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>16</v>
+      </c>
+      <c r="M12">
+        <v>3597.878173828125</v>
+      </c>
+      <c r="N12">
+        <v>46.983749389648438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13">
+        <v>25712.251562500001</v>
+      </c>
+      <c r="D13">
+        <v>114.2827293395996</v>
+      </c>
+      <c r="E13">
+        <v>0.1144142954057502</v>
+      </c>
+      <c r="F13">
+        <v>137.07288704634141</v>
+      </c>
+      <c r="G13">
+        <v>-0.65162439812192552</v>
+      </c>
+      <c r="H13">
+        <v>33.4</v>
+      </c>
+      <c r="I13">
+        <v>33458.443867667847</v>
+      </c>
+      <c r="J13">
+        <v>82.652011819401253</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>24</v>
+      </c>
+      <c r="M13">
+        <v>3904.5205078125</v>
+      </c>
+      <c r="N13">
+        <v>48.888397216796882</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>28375.727343750001</v>
+      </c>
+      <c r="D14">
+        <v>116.8743293762207</v>
+      </c>
+      <c r="E14">
+        <v>0.1170641184073062</v>
+      </c>
+      <c r="F14">
+        <v>143.36421522507129</v>
+      </c>
+      <c r="G14">
+        <v>-0.81315843947587607</v>
+      </c>
+      <c r="H14">
+        <v>38</v>
+      </c>
+      <c r="I14">
+        <v>37862.236665150143</v>
+      </c>
+      <c r="J14">
+        <v>88.659431057202809</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>20</v>
+      </c>
+      <c r="M14">
+        <v>4625.2666015625</v>
+      </c>
+      <c r="N14">
+        <v>54.161415100097663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>47743.889355468753</v>
+      </c>
+      <c r="D15">
+        <v>146.4880081176758</v>
+      </c>
+      <c r="E15">
+        <v>0.14102635227848931</v>
+      </c>
+      <c r="F15">
+        <v>165.61691790657241</v>
+      </c>
+      <c r="G15">
+        <v>-1.7649386233985671</v>
+      </c>
+      <c r="H15">
+        <v>24.6</v>
+      </c>
+      <c r="I15">
+        <v>84693.011044509214</v>
+      </c>
+      <c r="J15">
+        <v>156.5380168991349</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>18</v>
+      </c>
+      <c r="M15">
+        <v>4137.982421875</v>
+      </c>
+      <c r="N15">
+        <v>50.533279418945313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>24873.3203125</v>
+      </c>
+      <c r="D16">
+        <v>112.33619689941411</v>
+      </c>
+      <c r="E16">
+        <v>0.1147017919186875</v>
+      </c>
+      <c r="F16">
+        <v>132.84086996053699</v>
+      </c>
+      <c r="G16">
+        <v>-0.53971028879768812</v>
+      </c>
+      <c r="H16">
+        <v>37.6</v>
+      </c>
+      <c r="I16">
+        <v>35341.388965654347</v>
+      </c>
+      <c r="J16">
+        <v>85.966197118125109</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>34</v>
+      </c>
+      <c r="M16">
+        <v>3643.86181640625</v>
+      </c>
+      <c r="N16">
+        <v>47.464714050292969</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>24933.470410156249</v>
+      </c>
+      <c r="D17">
+        <v>111.6054893493652</v>
+      </c>
+      <c r="E17">
+        <v>0.11835474108537559</v>
+      </c>
+      <c r="F17">
+        <v>132.92451316849071</v>
+      </c>
+      <c r="G17">
+        <v>-0.5658063539496716</v>
+      </c>
+      <c r="H17">
+        <v>42</v>
+      </c>
+      <c r="I17">
+        <v>34785.788374412128</v>
+      </c>
+      <c r="J17">
+        <v>86.324586518861537</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>16</v>
+      </c>
+      <c r="M17">
+        <v>3408.5751953125</v>
+      </c>
+      <c r="N17">
+        <v>45.569343566894531</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18">
+        <v>25939.612890625001</v>
+      </c>
+      <c r="D18">
+        <v>114.17115783691411</v>
+      </c>
+      <c r="E18">
+        <v>0.1140478507244035</v>
+      </c>
+      <c r="F18">
+        <v>137.35890200883961</v>
+      </c>
+      <c r="G18">
+        <v>-0.66376017200574133</v>
+      </c>
+      <c r="H18">
+        <v>34.4</v>
+      </c>
+      <c r="I18">
+        <v>34489.272901989847</v>
+      </c>
+      <c r="J18">
+        <v>84.549834495299663</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>12</v>
+      </c>
+      <c r="M18">
+        <v>4014.67431640625</v>
+      </c>
+      <c r="N18">
+        <v>49.764118194580078</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <v>24197.81215820312</v>
+      </c>
+      <c r="D19">
+        <v>110.2131393432617</v>
+      </c>
+      <c r="E19">
+        <v>0.1102446246004111</v>
+      </c>
+      <c r="F19">
+        <v>131.94352831392041</v>
+      </c>
+      <c r="G19">
+        <v>-0.53449563798093602</v>
+      </c>
+      <c r="H19">
+        <v>30.6</v>
+      </c>
+      <c r="I19">
+        <v>33480.75490525012</v>
+      </c>
+      <c r="J19">
+        <v>82.560373509006865</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19">
         <v>11</v>
       </c>
-      <c r="C4">
-        <v>309984.8243652344</v>
-      </c>
-      <c r="D4">
-        <v>337.0226348876953</v>
-      </c>
-      <c r="E4">
-        <v>0.2517601405148805</v>
-      </c>
-      <c r="F4">
-        <v>395.0462060762271</v>
-      </c>
-      <c r="G4">
-        <v>-15.58170095636166</v>
-      </c>
-      <c r="H4">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="I4">
-        <v>414006.7287939356</v>
-      </c>
-      <c r="J4">
-        <v>380.928675562996</v>
-      </c>
-      <c r="K4">
+      <c r="M19">
+        <v>3880.313720703125</v>
+      </c>
+      <c r="N19">
+        <v>49.427356719970703</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>24160.280322265629</v>
+      </c>
+      <c r="D20">
+        <v>110.9517890930176</v>
+      </c>
+      <c r="E20">
+        <v>0.1112704805632645</v>
+      </c>
+      <c r="F20">
+        <v>131.30512064836401</v>
+      </c>
+      <c r="G20">
+        <v>-0.51276102371203547</v>
+      </c>
+      <c r="H20">
+        <v>38</v>
+      </c>
+      <c r="I20">
+        <v>33823.487016153464</v>
+      </c>
+      <c r="J20">
+        <v>83.201674298034433</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>29</v>
+      </c>
+      <c r="M20">
+        <v>3870.295654296875</v>
+      </c>
+      <c r="N20">
+        <v>48.7203369140625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <v>25063.767578125</v>
+      </c>
+      <c r="D21">
+        <v>110.49134979248051</v>
+      </c>
+      <c r="E21">
+        <v>0.1103712164246915</v>
+      </c>
+      <c r="F21">
+        <v>133.77315179570149</v>
+      </c>
+      <c r="G21">
+        <v>-0.56388355772190601</v>
+      </c>
+      <c r="H21">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="I21">
+        <v>34495.838785806569</v>
+      </c>
+      <c r="J21">
+        <v>85.61034918620328</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>18</v>
+      </c>
+      <c r="M21">
+        <v>3274.45556640625</v>
+      </c>
+      <c r="N21">
+        <v>44.800010681152337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>33632.633447265624</v>
+      </c>
+      <c r="D22">
+        <v>119.53964691162111</v>
+      </c>
+      <c r="E22">
+        <v>0.1175970654590752</v>
+      </c>
+      <c r="F22">
+        <v>148.211200646788</v>
+      </c>
+      <c r="G22">
+        <v>-1.0180094789206959</v>
+      </c>
+      <c r="H22">
+        <v>38</v>
+      </c>
+      <c r="I22">
+        <v>52378.556388874087</v>
+      </c>
+      <c r="J22">
+        <v>101.89127223584801</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <v>15</v>
+      </c>
+      <c r="M22">
+        <v>3553.909423828125</v>
+      </c>
+      <c r="N22">
+        <v>46.766437530517578</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23">
+        <v>23295.503955078129</v>
+      </c>
+      <c r="D23">
+        <v>107.2926010131836</v>
+      </c>
+      <c r="E23">
+        <v>0.10923185620458389</v>
+      </c>
+      <c r="F23">
+        <v>128.18009363083851</v>
+      </c>
+      <c r="G23">
+        <v>-0.4516548559115468</v>
+      </c>
+      <c r="H23">
+        <v>40</v>
+      </c>
+      <c r="I23">
+        <v>33025.893692857673</v>
+      </c>
+      <c r="J23">
+        <v>82.464164160029767</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="L23">
+        <v>28</v>
+      </c>
+      <c r="M23">
+        <v>3418.715087890625</v>
+      </c>
+      <c r="N23">
+        <v>45.816856384277337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>31288.5400390625</v>
+      </c>
+      <c r="D24">
+        <v>111.4091255187988</v>
+      </c>
+      <c r="E24">
+        <v>0.10217626016686659</v>
+      </c>
+      <c r="F24">
+        <v>135.6590994598015</v>
+      </c>
+      <c r="G24">
+        <v>-0.81589948340686258</v>
+      </c>
+      <c r="H24">
+        <v>57.8</v>
+      </c>
+      <c r="I24">
+        <v>53641.486737300489</v>
+      </c>
+      <c r="J24">
+        <v>108.4879590788349</v>
+      </c>
+      <c r="K24">
         <v>4</v>
       </c>
-      <c r="L4">
-        <v>57</v>
-      </c>
-      <c r="M4">
-        <v>1305.447998046875</v>
-      </c>
-      <c r="N4">
-        <v>28.98831939697266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>421641.1524414063</v>
-      </c>
-      <c r="D5">
-        <v>416.7392852783203</v>
-      </c>
-      <c r="E5">
-        <v>0.320801191666912</v>
-      </c>
-      <c r="F5">
-        <v>453.4374585891114</v>
-      </c>
-      <c r="G5">
-        <v>-21.06913288021386</v>
-      </c>
-      <c r="H5">
-        <v>71.59999999999999</v>
-      </c>
-      <c r="I5">
-        <v>569385.7105534256</v>
-      </c>
-      <c r="J5">
-        <v>484.5752681222825</v>
-      </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
-      <c r="L5">
-        <v>69</v>
-      </c>
-      <c r="M5">
-        <v>1004.91015625</v>
-      </c>
-      <c r="N5">
-        <v>23.89373016357422</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="L24">
+        <v>22</v>
+      </c>
+      <c r="M24">
+        <v>3662.671142578125</v>
+      </c>
+      <c r="N24">
+        <v>46.640106201171882</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>56600.462500000001</v>
+      </c>
+      <c r="D25">
+        <v>155.94213333129881</v>
+      </c>
+      <c r="E25">
+        <v>0.1499693594373798</v>
+      </c>
+      <c r="F25">
+        <v>174.6664458549505</v>
+      </c>
+      <c r="G25">
+        <v>-2.1889542867654539</v>
+      </c>
+      <c r="H25">
+        <v>38.6</v>
+      </c>
+      <c r="I25">
+        <v>104311.3013572394</v>
+      </c>
+      <c r="J25">
+        <v>178.43719540433631</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
+      <c r="L25">
+        <v>23</v>
+      </c>
+      <c r="M25">
+        <v>3756.8994140625</v>
+      </c>
+      <c r="N25">
+        <v>47.672214508056641</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>67285.988964843753</v>
+      </c>
+      <c r="D26">
+        <v>188.65048980712891</v>
+      </c>
+      <c r="E26">
+        <v>0.17215887502533661</v>
+      </c>
+      <c r="F26">
+        <v>210.24139519426379</v>
+      </c>
+      <c r="G26">
+        <v>-2.6460175754538628</v>
+      </c>
+      <c r="H26">
+        <v>28.2</v>
+      </c>
+      <c r="I26">
+        <v>84176.776491705023</v>
+      </c>
+      <c r="J26">
+        <v>161.09734498572621</v>
+      </c>
+      <c r="K26">
+        <v>5</v>
+      </c>
+      <c r="L26">
+        <v>15</v>
+      </c>
+      <c r="M26">
+        <v>5733.232421875</v>
+      </c>
+      <c r="N26">
+        <v>60.571426391601563</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>32832.225195312501</v>
+      </c>
+      <c r="D27">
+        <v>120.0105735778809</v>
+      </c>
+      <c r="E27">
+        <v>0.11230218050069669</v>
+      </c>
+      <c r="F27">
+        <v>138.3683655702593</v>
+      </c>
+      <c r="G27">
+        <v>-0.90360751916183535</v>
+      </c>
+      <c r="H27">
+        <v>61.6</v>
+      </c>
+      <c r="I27">
+        <v>57188.546628335753</v>
+      </c>
+      <c r="J27">
+        <v>124.17845545289509</v>
+      </c>
+      <c r="K27">
+        <v>5</v>
+      </c>
+      <c r="L27">
+        <v>24</v>
+      </c>
+      <c r="M27">
+        <v>3976.59521484375</v>
+      </c>
+      <c r="N27">
+        <v>49.427791595458977</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
-        <v>47202.42158203125</v>
-      </c>
-      <c r="D6">
-        <v>121.3063117980957</v>
-      </c>
-      <c r="E6">
-        <v>0.09840811116080225</v>
-      </c>
-      <c r="F6">
-        <v>169.354707781898</v>
-      </c>
-      <c r="G6">
-        <v>-2.291292313458071</v>
-      </c>
-      <c r="H6">
-        <v>45.6</v>
-      </c>
-      <c r="I6">
-        <v>75158.1544654074</v>
-      </c>
-      <c r="J6">
-        <v>84.2174526688315</v>
-      </c>
-      <c r="K6">
-        <v>4</v>
-      </c>
-      <c r="L6">
-        <v>27</v>
-      </c>
-      <c r="M6">
-        <v>2469.447265625</v>
-      </c>
-      <c r="N6">
-        <v>39.10672378540039</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>111606.0735351562</v>
-      </c>
-      <c r="D7">
-        <v>160.8840866088867</v>
-      </c>
-      <c r="E7">
-        <v>0.1285515021342823</v>
-      </c>
-      <c r="F7">
-        <v>227.6167182193516</v>
-      </c>
-      <c r="G7">
-        <v>-5.618793123453435</v>
-      </c>
-      <c r="H7">
-        <v>45.4</v>
-      </c>
-      <c r="I7">
-        <v>217522.7940384388</v>
-      </c>
-      <c r="J7">
-        <v>165.1108328685306</v>
-      </c>
-      <c r="K7">
-        <v>4</v>
-      </c>
-      <c r="L7">
-        <v>27</v>
-      </c>
-      <c r="M7">
-        <v>2467.89208984375</v>
-      </c>
-      <c r="N7">
-        <v>39.13005828857422</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8">
-        <v>18840.51684570312</v>
-      </c>
-      <c r="D8">
-        <v>104.6862510681152</v>
-      </c>
-      <c r="E8">
-        <v>0.0846393267637524</v>
-      </c>
-      <c r="F8">
-        <v>123.0009946623156</v>
-      </c>
-      <c r="G8">
-        <v>-0.8629215605999297</v>
-      </c>
-      <c r="H8">
-        <v>44.8</v>
-      </c>
-      <c r="I8">
-        <v>15964.75975054288</v>
-      </c>
-      <c r="J8">
-        <v>52.6330494424809</v>
-      </c>
-      <c r="K8">
-        <v>4</v>
-      </c>
-      <c r="L8">
-        <v>26</v>
-      </c>
-      <c r="M8">
-        <v>2778.355712890625</v>
-      </c>
-      <c r="N8">
-        <v>42.75711441040039</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9">
-        <v>17933.59860839844</v>
-      </c>
-      <c r="D9">
-        <v>100.424861907959</v>
-      </c>
-      <c r="E9">
-        <v>0.08311536104963402</v>
-      </c>
-      <c r="F9">
-        <v>119.9105187053638</v>
-      </c>
-      <c r="G9">
-        <v>-0.6175215167670768</v>
-      </c>
-      <c r="H9">
-        <v>44.8</v>
-      </c>
-      <c r="I9">
-        <v>14256.3571621024</v>
-      </c>
-      <c r="J9">
-        <v>50.46428173417329</v>
-      </c>
-      <c r="K9">
-        <v>4</v>
-      </c>
-      <c r="L9">
-        <v>27</v>
-      </c>
-      <c r="M9">
-        <v>1646.283081054688</v>
-      </c>
-      <c r="N9">
-        <v>32.65594100952148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>130182.355859375</v>
-      </c>
-      <c r="D10">
-        <v>172.2268836975098</v>
-      </c>
-      <c r="E10">
-        <v>0.1362066191476427</v>
-      </c>
-      <c r="F10">
-        <v>238.9504131851478</v>
-      </c>
-      <c r="G10">
-        <v>-6.793107823238676</v>
-      </c>
-      <c r="H10">
-        <v>43.2</v>
-      </c>
-      <c r="I10">
-        <v>260630.5502816604</v>
-      </c>
-      <c r="J10">
-        <v>192.9895361969216</v>
-      </c>
-      <c r="K10">
-        <v>4</v>
-      </c>
-      <c r="L10">
-        <v>26</v>
-      </c>
-      <c r="M10">
-        <v>4169.966796875</v>
-      </c>
-      <c r="N10">
-        <v>51.42121505737305</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11">
-        <v>246809.2547851563</v>
-      </c>
-      <c r="D11">
-        <v>266.9677154541016</v>
-      </c>
-      <c r="E11">
-        <v>0.222767368880031</v>
-      </c>
-      <c r="F11">
-        <v>301.8580135277089</v>
-      </c>
-      <c r="G11">
-        <v>-12.51907580956288</v>
-      </c>
-      <c r="H11">
-        <v>43.6</v>
-      </c>
-      <c r="I11">
-        <v>520620.2009749325</v>
-      </c>
-      <c r="J11">
-        <v>401.2618159472414</v>
-      </c>
-      <c r="K11">
-        <v>4</v>
-      </c>
-      <c r="L11">
-        <v>27</v>
-      </c>
-      <c r="M11">
-        <v>2625.994140625</v>
-      </c>
-      <c r="N11">
-        <v>41.51750183105469</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12">
-        <v>17498.14970703125</v>
-      </c>
-      <c r="D12">
-        <v>99.67825088500976</v>
-      </c>
-      <c r="E12">
-        <v>0.08248791424981709</v>
-      </c>
-      <c r="F12">
-        <v>119.4344247730213</v>
-      </c>
-      <c r="G12">
-        <v>-0.7198044682347777</v>
-      </c>
-      <c r="H12">
-        <v>45.8</v>
-      </c>
-      <c r="I12">
-        <v>13787.67015495442</v>
-      </c>
-      <c r="J12">
-        <v>46.46869884430344</v>
-      </c>
-      <c r="K12">
-        <v>4</v>
-      </c>
-      <c r="L12">
-        <v>27</v>
-      </c>
-      <c r="M12">
-        <v>2596.2138671875</v>
-      </c>
-      <c r="N12">
-        <v>41.06904220581055</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C28">
+        <v>26464.337988281251</v>
+      </c>
+      <c r="D28">
+        <v>111.981909942627</v>
+      </c>
+      <c r="E28">
+        <v>0.1066932072720873</v>
+      </c>
+      <c r="F28">
+        <v>132.13181545486299</v>
+      </c>
+      <c r="G28">
+        <v>-0.58660530307493708</v>
+      </c>
+      <c r="H28">
+        <v>52.2</v>
+      </c>
+      <c r="I28">
+        <v>41291.776628419517</v>
+      </c>
+      <c r="J28">
+        <v>97.499483834253809</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
+      </c>
+      <c r="L28">
         <v>25</v>
       </c>
-      <c r="C13">
-        <v>16628.84294433594</v>
-      </c>
-      <c r="D13">
-        <v>97.24133071899413</v>
-      </c>
-      <c r="E13">
-        <v>0.08035129831182028</v>
-      </c>
-      <c r="F13">
-        <v>116.7669093434155</v>
-      </c>
-      <c r="G13">
-        <v>-0.5425573014176612</v>
-      </c>
-      <c r="H13">
-        <v>45.8</v>
-      </c>
-      <c r="I13">
-        <v>13083.18872938863</v>
-      </c>
-      <c r="J13">
-        <v>47.02640862083005</v>
-      </c>
-      <c r="K13">
-        <v>4</v>
-      </c>
-      <c r="L13">
-        <v>30</v>
-      </c>
-      <c r="M13">
-        <v>1857.997436523437</v>
-      </c>
-      <c r="N13">
-        <v>34.0372428894043</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14">
-        <v>17874.70756835938</v>
-      </c>
-      <c r="D14">
-        <v>101.3168479919434</v>
-      </c>
-      <c r="E14">
-        <v>0.08407860852518058</v>
-      </c>
-      <c r="F14">
-        <v>121.5076758113571</v>
-      </c>
-      <c r="G14">
-        <v>-0.8044185733771698</v>
-      </c>
-      <c r="H14">
-        <v>45.4</v>
-      </c>
-      <c r="I14">
-        <v>13356.3156546119</v>
-      </c>
-      <c r="J14">
-        <v>45.37959605254039</v>
-      </c>
-      <c r="K14">
-        <v>4</v>
-      </c>
-      <c r="L14">
-        <v>26</v>
-      </c>
-      <c r="M14">
-        <v>2750.854736328125</v>
-      </c>
-      <c r="N14">
-        <v>43.00136947631836</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15">
-        <v>17309.0966796875</v>
-      </c>
-      <c r="D15">
-        <v>99.65888366699218</v>
-      </c>
-      <c r="E15">
-        <v>0.08291185445240096</v>
-      </c>
-      <c r="F15">
-        <v>118.4446996862811</v>
-      </c>
-      <c r="G15">
-        <v>-0.6244068895949388</v>
-      </c>
-      <c r="H15">
-        <v>46.4</v>
-      </c>
-      <c r="I15">
-        <v>13809.75730634846</v>
-      </c>
-      <c r="J15">
-        <v>48.63033534958917</v>
-      </c>
-      <c r="K15">
-        <v>4</v>
-      </c>
-      <c r="L15">
-        <v>29</v>
-      </c>
-      <c r="M15">
-        <v>2051.1845703125</v>
-      </c>
-      <c r="N15">
-        <v>36.03989410400391</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16">
-        <v>18186.54780273437</v>
-      </c>
-      <c r="D16">
-        <v>102.2561447143555</v>
-      </c>
-      <c r="E16">
-        <v>0.08455213786268848</v>
-      </c>
-      <c r="F16">
-        <v>122.7196047188543</v>
-      </c>
-      <c r="G16">
-        <v>-0.9416200330933536</v>
-      </c>
-      <c r="H16">
-        <v>43.6</v>
-      </c>
-      <c r="I16">
-        <v>13697.03630805321</v>
-      </c>
-      <c r="J16">
-        <v>45.6953950419681</v>
-      </c>
-      <c r="K16">
-        <v>4</v>
-      </c>
-      <c r="L16">
-        <v>27</v>
-      </c>
-      <c r="M16">
-        <v>3312.825439453125</v>
-      </c>
-      <c r="N16">
-        <v>45.48360443115234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17">
-        <v>17305.3357421875</v>
-      </c>
-      <c r="D17">
-        <v>100.2679992675781</v>
-      </c>
-      <c r="E17">
-        <v>0.0834621354236819</v>
-      </c>
-      <c r="F17">
-        <v>119.2331128663682</v>
-      </c>
-      <c r="G17">
-        <v>-0.6865496615227942</v>
-      </c>
-      <c r="H17">
-        <v>44.2</v>
-      </c>
-      <c r="I17">
-        <v>13532.1334376976</v>
-      </c>
-      <c r="J17">
-        <v>48.02863083821813</v>
-      </c>
-      <c r="K17">
-        <v>4</v>
-      </c>
-      <c r="L17">
-        <v>27</v>
-      </c>
-      <c r="M17">
-        <v>2329.98046875</v>
-      </c>
-      <c r="N17">
-        <v>38.41191101074219</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="M28">
+        <v>3787.716796875</v>
+      </c>
+      <c r="N28">
+        <v>48.383140563964851</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
         <v>17</v>
       </c>
-      <c r="C18">
-        <v>188098.4690429688</v>
-      </c>
-      <c r="D18">
-        <v>216.6726196289063</v>
-      </c>
-      <c r="E18">
-        <v>0.1737535516920082</v>
-      </c>
-      <c r="F18">
-        <v>274.3724539398993</v>
-      </c>
-      <c r="G18">
-        <v>-9.456339869305289</v>
-      </c>
-      <c r="H18">
-        <v>44.2</v>
-      </c>
-      <c r="I18">
-        <v>387279.3718838411</v>
-      </c>
-      <c r="J18">
-        <v>285.4214994789709</v>
-      </c>
-      <c r="K18">
-        <v>4</v>
-      </c>
-      <c r="L18">
-        <v>26</v>
-      </c>
-      <c r="M18">
-        <v>2813.86328125</v>
-      </c>
-      <c r="N18">
-        <v>43.11941528320312</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19">
-        <v>16554.37016601563</v>
-      </c>
-      <c r="D19">
-        <v>97.22619018554687</v>
-      </c>
-      <c r="E19">
-        <v>0.0805489379555808</v>
-      </c>
-      <c r="F19">
-        <v>116.614765522297</v>
-      </c>
-      <c r="G19">
-        <v>-0.6262101272837313</v>
-      </c>
-      <c r="H19">
-        <v>43.2</v>
-      </c>
-      <c r="I19">
-        <v>13084.77940362192</v>
-      </c>
-      <c r="J19">
-        <v>46.21080464633214</v>
-      </c>
-      <c r="K19">
-        <v>4</v>
-      </c>
-      <c r="L19">
-        <v>25</v>
-      </c>
-      <c r="M19">
-        <v>2313.165771484375</v>
-      </c>
-      <c r="N19">
-        <v>38.63784790039063</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20">
-        <v>278512.8047607422</v>
-      </c>
-      <c r="D20">
-        <v>314.910107421875</v>
-      </c>
-      <c r="E20">
-        <v>0.2332742300131548</v>
-      </c>
-      <c r="F20">
-        <v>376.3183003137893</v>
-      </c>
-      <c r="G20">
-        <v>-13.9144606641385</v>
-      </c>
-      <c r="H20">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="I20">
-        <v>372507.0857634379</v>
-      </c>
-      <c r="J20">
-        <v>358.5167649346088</v>
-      </c>
-      <c r="K20">
-        <v>4</v>
-      </c>
-      <c r="L20">
-        <v>76</v>
-      </c>
-      <c r="M20">
-        <v>1259.363647460938</v>
-      </c>
-      <c r="N20">
-        <v>26.47322845458984</v>
+      <c r="C29">
+        <v>28141.69887695312</v>
+      </c>
+      <c r="D29">
+        <v>117.309684753418</v>
+      </c>
+      <c r="E29">
+        <v>0.1164513166523613</v>
+      </c>
+      <c r="F29">
+        <v>139.5398623336049</v>
+      </c>
+      <c r="G29">
+        <v>-0.73693147082445642</v>
+      </c>
+      <c r="H29">
+        <v>51.4</v>
+      </c>
+      <c r="I29">
+        <v>41408.162637066947</v>
+      </c>
+      <c r="J29">
+        <v>96.694435796459217</v>
+      </c>
+      <c r="K29">
+        <v>5</v>
+      </c>
+      <c r="L29">
+        <v>16</v>
+      </c>
+      <c r="M29">
+        <v>4034.126708984375</v>
+      </c>
+      <c r="N29">
+        <v>50.717117309570313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30">
+        <v>35199.489941406253</v>
+      </c>
+      <c r="D30">
+        <v>130.96417465209959</v>
+      </c>
+      <c r="E30">
+        <v>0.13196268722890631</v>
+      </c>
+      <c r="F30">
+        <v>150.81378655042241</v>
+      </c>
+      <c r="G30">
+        <v>-1.12150838826652</v>
+      </c>
+      <c r="H30">
+        <v>44.6</v>
+      </c>
+      <c r="I30">
+        <v>57054.928836235769</v>
+      </c>
+      <c r="J30">
+        <v>119.9341914682151</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="L30">
+        <v>9</v>
+      </c>
+      <c r="M30">
+        <v>5086.3681640625</v>
+      </c>
+      <c r="N30">
+        <v>56.780910491943359</v>
       </c>
     </row>
   </sheetData>

--- a/models/training_results_with_epoch.xlsx
+++ b/models/training_results_with_epoch.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Skripsi\Code\models\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902C2948-E093-4862-8592-0D9D8D5C8E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="PerFold" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,7 +44,7 @@
     <t>Val_R2</t>
   </si>
   <si>
-    <t>ACES</t>
+    <t>ADRO</t>
   </si>
   <si>
     <t>Open_LAG</t>
@@ -164,8 +158,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,21 +222,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -280,7 +266,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -314,7 +300,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -349,10 +334,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -525,24 +509,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,7 +545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -585,22 +559,22 @@
         <v>100</v>
       </c>
       <c r="E2">
-        <v>134820.375</v>
+        <v>13244.58203125</v>
       </c>
       <c r="F2">
-        <v>339.59469604492188</v>
+        <v>94.26763916015624</v>
       </c>
       <c r="G2">
-        <v>0.2754963641992183</v>
+        <v>0.1497542726865895</v>
       </c>
       <c r="H2">
-        <v>367.05035345697752</v>
+        <v>115.0368873074632</v>
       </c>
       <c r="I2">
-        <v>-5.9942480116816172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.4039003090240525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -611,25 +585,25 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>14982.7568359375</v>
+        <v>3924.5009765625</v>
       </c>
       <c r="F3">
-        <v>96.806785583496094</v>
+        <v>46.21036148071289</v>
       </c>
       <c r="G3">
-        <v>7.3761844795823303E-2</v>
+        <v>0.1180686806099806</v>
       </c>
       <c r="H3">
-        <v>122.1237802650173</v>
+        <v>62.59663533304472</v>
       </c>
       <c r="I3">
-        <v>0.3410202178077118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.003259520668164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -640,25 +614,25 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E4">
-        <v>5958.15283203125</v>
+        <v>8918.8671875</v>
       </c>
       <c r="F4">
-        <v>61.055866241455078</v>
+        <v>56.53035736083984</v>
       </c>
       <c r="G4">
-        <v>4.8417311631900398E-2</v>
+        <v>0.083539420018983</v>
       </c>
       <c r="H4">
-        <v>76.737063086779699</v>
+        <v>91.97087827097796</v>
       </c>
       <c r="I4">
-        <v>0.5340850107720887</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.5567850250912665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -669,25 +643,25 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>4423.24609375</v>
+        <v>1212366.5</v>
       </c>
       <c r="F5">
-        <v>53.167728424072273</v>
+        <v>1076.806274414062</v>
       </c>
       <c r="G5">
-        <v>0.1022500383468487</v>
+        <v>0.7134307315699316</v>
       </c>
       <c r="H5">
-        <v>65.06121344388545</v>
+        <v>1101.0222776155</v>
       </c>
       <c r="I5">
-        <v>0.60467162146122666</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-29.11092915596901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -698,25 +672,25 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="E6">
-        <v>3976.59521484375</v>
+        <v>146228.671875</v>
       </c>
       <c r="F6">
-        <v>49.427791595458977</v>
+        <v>281.6713256835937</v>
       </c>
       <c r="G6">
-        <v>6.1585343529692901E-2</v>
+        <v>0.1258523154973978</v>
       </c>
       <c r="H6">
-        <v>60.869417598636488</v>
+        <v>382.3793538492028</v>
       </c>
       <c r="I6">
-        <v>-3.5664341685865998E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.1340607730446823</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -727,25 +701,25 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E7">
-        <v>100396.8671875</v>
+        <v>13855.00390625</v>
       </c>
       <c r="F7">
-        <v>280.51123046875</v>
+        <v>98.02194213867188</v>
       </c>
       <c r="G7">
-        <v>0.2248101807204691</v>
+        <v>0.1574185526092076</v>
       </c>
       <c r="H7">
-        <v>316.82587807049782</v>
+        <v>117.6695848682293</v>
       </c>
       <c r="I7">
-        <v>-4.2233780692881693</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.4682622209264776</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -756,25 +730,25 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E8">
-        <v>29856.794921875</v>
+        <v>3120.37060546875</v>
       </c>
       <c r="F8">
-        <v>146.51512145996091</v>
+        <v>41.18591690063477</v>
       </c>
       <c r="G8">
-        <v>0.1045265141144</v>
+        <v>0.1030023855158922</v>
       </c>
       <c r="H8">
-        <v>172.5764790437303</v>
+        <v>54.9784025737908</v>
       </c>
       <c r="I8">
-        <v>-0.3037666199591354</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.2081599901169234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -785,25 +759,25 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="E9">
-        <v>5634.041015625</v>
+        <v>7495.1962890625</v>
       </c>
       <c r="F9">
-        <v>59.071552276611328</v>
+        <v>52.55439758300781</v>
       </c>
       <c r="G9">
-        <v>4.67444965209989E-2</v>
+        <v>0.0785053852474366</v>
       </c>
       <c r="H9">
-        <v>74.856529368638107</v>
+        <v>83.4354978092274</v>
       </c>
       <c r="I9">
-        <v>0.56054570961362438</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.6324552557971738</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -814,25 +788,25 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>3725.675048828125</v>
+        <v>648123.375</v>
       </c>
       <c r="F10">
-        <v>47.985088348388672</v>
+        <v>778.7572021484375</v>
       </c>
       <c r="G10">
-        <v>9.1024817355169096E-2</v>
+        <v>0.5123648922441872</v>
       </c>
       <c r="H10">
-        <v>59.208930574009088</v>
+        <v>805.0330041835149</v>
       </c>
       <c r="I10">
-        <v>0.66580926293981657</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-15.09983434112772</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -843,25 +817,25 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="E11">
-        <v>3842.026123046875</v>
+        <v>122100.0546875</v>
       </c>
       <c r="F11">
-        <v>48.470726013183601</v>
+        <v>263.8988647460937</v>
       </c>
       <c r="G11">
-        <v>6.0353142586086997E-2</v>
+        <v>0.1185733934210404</v>
       </c>
       <c r="H11">
-        <v>59.701339783600389</v>
+        <v>349.3754179343541</v>
       </c>
       <c r="I11">
-        <v>3.0224219583662702E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.276637061928074</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -872,25 +846,25 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E12">
-        <v>475520.875</v>
+        <v>18041.962890625</v>
       </c>
       <c r="F12">
-        <v>578.64324951171875</v>
+        <v>115.1800155639648</v>
       </c>
       <c r="G12">
-        <v>0.45984664598487829</v>
+        <v>0.1847585329586056</v>
       </c>
       <c r="H12">
-        <v>689.50837220812082</v>
+        <v>134.2594383939122</v>
       </c>
       <c r="I12">
-        <v>-23.73461997434018</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.9094624124878692</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -901,25 +875,25 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="E13">
-        <v>19787.08203125</v>
+        <v>4410.0439453125</v>
       </c>
       <c r="F13">
-        <v>116.06048583984381</v>
+        <v>51.33213424682617</v>
       </c>
       <c r="G13">
-        <v>8.5439688712577094E-2</v>
+        <v>0.1276746104719683</v>
       </c>
       <c r="H13">
-        <v>140.65349254722449</v>
+        <v>66.28074145302934</v>
       </c>
       <c r="I13">
-        <v>0.13395167668541499</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.1203269147936861</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -930,25 +904,25 @@
         <v>3</v>
       </c>
       <c r="D14">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="E14">
-        <v>6013.52783203125</v>
+        <v>7604.62353515625</v>
       </c>
       <c r="F14">
-        <v>61.472869873046882</v>
+        <v>52.00767517089844</v>
       </c>
       <c r="G14">
-        <v>4.8716305881945803E-2</v>
+        <v>0.0771819213468931</v>
       </c>
       <c r="H14">
-        <v>77.198895093837336</v>
+        <v>84.06841930575796</v>
       </c>
       <c r="I14">
-        <v>0.53039493679465033</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.6269927771960409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -959,25 +933,25 @@
         <v>4</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>4551.3115234375</v>
+        <v>1320107.75</v>
       </c>
       <c r="F15">
-        <v>55.77294921875</v>
+        <v>1130.518920898438</v>
       </c>
       <c r="G15">
-        <v>0.1073352985976057</v>
+        <v>0.7520821487924482</v>
       </c>
       <c r="H15">
-        <v>65.956712944511779</v>
+        <v>1148.816391531906</v>
       </c>
       <c r="I15">
-        <v>0.59375238433786548</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-31.79050461178268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -988,25 +962,25 @@
         <v>5</v>
       </c>
       <c r="D16">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E16">
-        <v>3621.72314453125</v>
+        <v>342773.875</v>
       </c>
       <c r="F16">
-        <v>46.998710632324219</v>
+        <v>437.111083984375</v>
       </c>
       <c r="G16">
-        <v>5.8826821002787702E-2</v>
+        <v>0.1962757534060397</v>
       </c>
       <c r="H16">
-        <v>57.779478463948386</v>
+        <v>585.4637357873215</v>
       </c>
       <c r="I16">
-        <v>8.4941678401494594E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-1.029100551453969</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1017,25 +991,25 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="E17">
-        <v>136964.640625</v>
+        <v>14096.291015625</v>
       </c>
       <c r="F17">
-        <v>342.83877563476563</v>
+        <v>98.38352966308594</v>
       </c>
       <c r="G17">
-        <v>0.27828177725835118</v>
+        <v>0.1564137445842706</v>
       </c>
       <c r="H17">
-        <v>370.04683275767007</v>
+        <v>118.6851172703796</v>
       </c>
       <c r="I17">
-        <v>-6.124950625467914</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.4939959337450565</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1046,25 +1020,25 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="E18">
-        <v>15325.1279296875</v>
+        <v>4369.36181640625</v>
       </c>
       <c r="F18">
-        <v>95.667251586914063</v>
+        <v>52.91778564453125</v>
       </c>
       <c r="G18">
-        <v>7.3302242048068997E-2</v>
+        <v>0.1253629026379392</v>
       </c>
       <c r="H18">
-        <v>123.7821076866236</v>
+        <v>66.03783489527342</v>
       </c>
       <c r="I18">
-        <v>0.32815706840813791</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.1098361998560855</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1075,25 +1049,25 @@
         <v>3</v>
       </c>
       <c r="D19">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E19">
-        <v>5944.65283203125</v>
+        <v>12138.7509765625</v>
       </c>
       <c r="F19">
-        <v>61.67474365234375</v>
+        <v>69.44911956787109</v>
       </c>
       <c r="G19">
-        <v>4.8310559259388902E-2</v>
+        <v>0.1011711576730682</v>
       </c>
       <c r="H19">
-        <v>77.050157484802341</v>
+        <v>108.9401635321166</v>
       </c>
       <c r="I19">
-        <v>0.53825055924991683</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.3795760801236656</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1104,25 +1078,25 @@
         <v>4</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="E20">
-        <v>12676.66015625</v>
+        <v>363278.09375</v>
       </c>
       <c r="F20">
-        <v>97.859191894531236</v>
+        <v>568.8429565429688</v>
       </c>
       <c r="G20">
-        <v>0.18984900650585881</v>
+        <v>0.369762800255231</v>
       </c>
       <c r="H20">
-        <v>112.34422095402689</v>
+        <v>602.7154884768747</v>
       </c>
       <c r="I20">
-        <v>-9.9388674356003001E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-8.023193334722055</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1133,25 +1107,25 @@
         <v>5</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E21">
-        <v>5086.3681640625</v>
+        <v>181987.734375</v>
       </c>
       <c r="F21">
-        <v>56.780910491943359</v>
+        <v>334.7237854003906</v>
       </c>
       <c r="G21">
-        <v>7.0069851072863606E-2</v>
+        <v>0.1526499722246629</v>
       </c>
       <c r="H21">
-        <v>70.845613868989318</v>
+        <v>426.567172325096</v>
       </c>
       <c r="I21">
-        <v>-0.24961026916674051</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.0778776630690235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1162,25 +1136,25 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E22">
-        <v>145811.875</v>
+        <v>13338.419921875</v>
       </c>
       <c r="F22">
-        <v>349.72607421875</v>
+        <v>95.11325073242188</v>
       </c>
       <c r="G22">
-        <v>0.28313423546277849</v>
+        <v>0.152073457645217</v>
       </c>
       <c r="H22">
-        <v>381.83159769129628</v>
+        <v>115.4481256363376</v>
       </c>
       <c r="I22">
-        <v>-6.5927785392312099</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.4137193409453149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1191,25 +1165,25 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="E23">
-        <v>17073.0859375</v>
+        <v>3913.98388671875</v>
       </c>
       <c r="F23">
-        <v>103.1474533081055</v>
+        <v>47.86849594116211</v>
       </c>
       <c r="G23">
-        <v>7.8116504658210503E-2</v>
+        <v>0.1177022273034302</v>
       </c>
       <c r="H23">
-        <v>130.5789027503765</v>
+        <v>62.48978469147815</v>
       </c>
       <c r="I23">
-        <v>0.25052684347238668</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.00596145636824</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1220,25 +1194,25 @@
         <v>3</v>
       </c>
       <c r="D24">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="E24">
-        <v>6155.15087890625</v>
+        <v>7663.17626953125</v>
       </c>
       <c r="F24">
-        <v>62.028812408447273</v>
+        <v>53.40924835205078</v>
       </c>
       <c r="G24">
-        <v>4.9277557669185901E-2</v>
+        <v>0.08002024585309089</v>
       </c>
       <c r="H24">
-        <v>78.059970073372128</v>
+        <v>84.68373847812015</v>
       </c>
       <c r="I24">
-        <v>0.51881240810664453</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.6225453997547994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1249,25 +1223,25 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E25">
-        <v>5578.24267578125</v>
+        <v>557781.625</v>
       </c>
       <c r="F25">
-        <v>61.073146820068359</v>
+        <v>717.7891235351562</v>
       </c>
       <c r="G25">
-        <v>0.1173478903803713</v>
+        <v>0.4706221110323372</v>
       </c>
       <c r="H25">
-        <v>73.689952745570764</v>
+        <v>746.8025645073864</v>
       </c>
       <c r="I25">
-        <v>0.50381619089779883</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-12.85691164997065</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1278,25 +1252,25 @@
         <v>5</v>
       </c>
       <c r="D26">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="E26">
-        <v>3810.57763671875</v>
+        <v>113242.1328125</v>
       </c>
       <c r="F26">
-        <v>48.665904998779297</v>
+        <v>251.8615112304688</v>
       </c>
       <c r="G26">
-        <v>6.1021920728488999E-2</v>
+        <v>0.1130701063720515</v>
       </c>
       <c r="H26">
-        <v>59.695162395334599</v>
+        <v>336.4343825792145</v>
       </c>
       <c r="I26">
-        <v>3.91480529222284E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.3289580126285047</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1307,25 +1281,25 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E27">
-        <v>126805.53125</v>
+        <v>14316.048828125</v>
       </c>
       <c r="F27">
-        <v>301.89151000976563</v>
+        <v>100.035026550293</v>
       </c>
       <c r="G27">
-        <v>0.239630958882038</v>
+        <v>0.1605935735407425</v>
       </c>
       <c r="H27">
-        <v>356.06327769350298</v>
+        <v>119.6003024380985</v>
       </c>
       <c r="I27">
-        <v>-5.5967873874804477</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.5174746780194265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1336,25 +1310,25 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="E28">
-        <v>16161.5673828125</v>
+        <v>3283.640625</v>
       </c>
       <c r="F28">
-        <v>98.499328613281236</v>
+        <v>41.0859260559082</v>
       </c>
       <c r="G28">
-        <v>7.5160480566829793E-2</v>
+        <v>0.1051244947921938</v>
       </c>
       <c r="H28">
-        <v>127.0291973265834</v>
+        <v>57.04832916888427</v>
       </c>
       <c r="I28">
-        <v>0.2903386673038757</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.166373871279878</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1365,25 +1339,25 @@
         <v>3</v>
       </c>
       <c r="D29">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="E29">
-        <v>5930.94287109375</v>
+        <v>8073.67236328125</v>
       </c>
       <c r="F29">
-        <v>60.965488433837891</v>
+        <v>53.58689880371094</v>
       </c>
       <c r="G29">
-        <v>4.83779530504772E-2</v>
+        <v>0.0794695947675586</v>
       </c>
       <c r="H29">
-        <v>76.524989003164208</v>
+        <v>87.21345388159627</v>
       </c>
       <c r="I29">
-        <v>0.53612206149637787</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.600632216583795</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1394,25 +1368,25 @@
         <v>4</v>
       </c>
       <c r="D30">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E30">
-        <v>3662.671142578125</v>
+        <v>647996.875</v>
       </c>
       <c r="F30">
-        <v>46.640106201171882</v>
+        <v>764.4179077148438</v>
       </c>
       <c r="G30">
-        <v>8.6401452443615204E-2</v>
+        <v>0.4987280001922194</v>
       </c>
       <c r="H30">
-        <v>58.707279553218072</v>
+        <v>804.9607822278305</v>
       </c>
       <c r="I30">
-        <v>0.67147430776307226</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-15.09594221047156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1423,25 +1397,25 @@
         <v>5</v>
       </c>
       <c r="D31">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="E31">
-        <v>3881.987548828125</v>
+        <v>140549.203125</v>
       </c>
       <c r="F31">
-        <v>49.0491943359375</v>
+        <v>277.0344848632812</v>
       </c>
       <c r="G31">
-        <v>6.1310455891372899E-2</v>
+        <v>0.1236150024768324</v>
       </c>
       <c r="H31">
-        <v>59.970753722538738</v>
+        <v>374.8686472448009</v>
       </c>
       <c r="I31">
-        <v>1.93549338828089E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.167555604245624</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1452,25 +1426,25 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E32">
-        <v>99938.2890625</v>
+        <v>13921.9384765625</v>
       </c>
       <c r="F32">
-        <v>283.709228515625</v>
+        <v>97.90781402587891</v>
       </c>
       <c r="G32">
-        <v>0.2281653764598382</v>
+        <v>0.1565833070905131</v>
       </c>
       <c r="H32">
-        <v>316.09190217969189</v>
+        <v>117.9492032205888</v>
       </c>
       <c r="I32">
-        <v>-4.1977243736085121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.4755203505135288</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1481,25 +1455,25 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="E33">
-        <v>14842.9814453125</v>
+        <v>3158.03662109375</v>
       </c>
       <c r="F33">
-        <v>94.2540283203125</v>
+        <v>41.56772232055664</v>
       </c>
       <c r="G33">
-        <v>7.196812853581E-2</v>
+        <v>0.100714814218689</v>
       </c>
       <c r="H33">
-        <v>121.64752979789979</v>
+        <v>56.15236802668588</v>
       </c>
       <c r="I33">
-        <v>0.34766283608098281</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.1979995198916207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1510,25 +1484,25 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E34">
-        <v>8450.876953125</v>
+        <v>8326.1201171875</v>
       </c>
       <c r="F34">
-        <v>73.456298828125</v>
+        <v>54.26575088500977</v>
       </c>
       <c r="G34">
-        <v>5.7335216180655901E-2</v>
+        <v>0.08074372146164149</v>
       </c>
       <c r="H34">
-        <v>91.8238627577187</v>
+        <v>88.92261114684044</v>
       </c>
       <c r="I34">
-        <v>0.3442104466287203</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.5857942044018239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1539,25 +1513,25 @@
         <v>4</v>
       </c>
       <c r="D35">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="E35">
-        <v>5301.82568359375</v>
+        <v>1781695.875</v>
       </c>
       <c r="F35">
-        <v>60.106853485107422</v>
+        <v>1322.113159179688</v>
       </c>
       <c r="G35">
-        <v>0.11514462985297599</v>
+        <v>0.8855750791368355</v>
       </c>
       <c r="H35">
-        <v>71.723513607773725</v>
+        <v>1334.76926127029</v>
       </c>
       <c r="I35">
-        <v>0.52864876631117874</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-43.25393512312898</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -1568,25 +1542,25 @@
         <v>5</v>
       </c>
       <c r="D36">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E36">
-        <v>3787.716796875</v>
+        <v>193420.53125</v>
       </c>
       <c r="F36">
-        <v>48.383140563964851</v>
+        <v>328.1384582519531</v>
       </c>
       <c r="G36">
-        <v>6.0852685331156398E-2</v>
+        <v>0.1462172897769694</v>
       </c>
       <c r="H36">
-        <v>59.372268931230728</v>
+        <v>439.7529228020172</v>
       </c>
       <c r="I36">
-        <v>4.4175809212944901E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.1456876407652867</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1597,25 +1571,25 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E37">
-        <v>101737.1875</v>
+        <v>14372.703125</v>
       </c>
       <c r="F37">
-        <v>286.64959716796881</v>
+        <v>99.46248626708984</v>
       </c>
       <c r="G37">
-        <v>0.23061836579457529</v>
+        <v>0.1579728859077971</v>
       </c>
       <c r="H37">
-        <v>318.92275471959118</v>
+        <v>119.8439337776254</v>
       </c>
       <c r="I37">
-        <v>-4.2904797814183384</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.5232772797364001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -1626,25 +1600,25 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="E38">
-        <v>14081.0458984375</v>
+        <v>4228.27880859375</v>
       </c>
       <c r="F38">
-        <v>88.961326599121094</v>
+        <v>52.15508651733398</v>
       </c>
       <c r="G38">
-        <v>6.8557828423311803E-2</v>
+        <v>0.1221463699732979</v>
       </c>
       <c r="H38">
-        <v>118.4215588371006</v>
+        <v>64.89845292253216</v>
       </c>
       <c r="I38">
-        <v>0.38079660090492079</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.0738389285018468</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -1655,25 +1629,25 @@
         <v>3</v>
       </c>
       <c r="D39">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E39">
-        <v>6195.73388671875</v>
+        <v>8322.748046875</v>
       </c>
       <c r="F39">
-        <v>61.170211791992188</v>
+        <v>55.99771118164063</v>
       </c>
       <c r="G39">
-        <v>4.7444964361445498E-2</v>
+        <v>0.0832607929071099</v>
       </c>
       <c r="H39">
-        <v>78.600289982850711</v>
+        <v>88.76491266458119</v>
       </c>
       <c r="I39">
-        <v>0.52034126427742811</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.5869556385115509</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -1684,25 +1658,25 @@
         <v>4</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="E40">
-        <v>14660.400390625</v>
+        <v>456300.96875</v>
       </c>
       <c r="F40">
-        <v>99.0501708984375</v>
+        <v>641.7939453125</v>
       </c>
       <c r="G40">
-        <v>0.17270347672196179</v>
+        <v>0.4184514754430934</v>
       </c>
       <c r="H40">
-        <v>119.8331323175881</v>
+        <v>675.4557429368542</v>
       </c>
       <c r="I40">
-        <v>-0.28035083205151318</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-10.33603826224016</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -1713,25 +1687,25 @@
         <v>5</v>
       </c>
       <c r="D41">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="E41">
-        <v>4034.126708984375</v>
+        <v>148556.921875</v>
       </c>
       <c r="F41">
-        <v>50.717117309570313</v>
+        <v>293.6627502441406</v>
       </c>
       <c r="G41">
-        <v>6.2931947960512394E-2</v>
+        <v>0.1323821131613767</v>
       </c>
       <c r="H41">
-        <v>61.921575810893799</v>
+        <v>385.3674210261463</v>
       </c>
       <c r="I41">
-        <v>-1.49646058347804E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.1198628389743532</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -1742,25 +1716,25 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E42">
-        <v>99651.84375</v>
+        <v>13067.947265625</v>
       </c>
       <c r="F42">
-        <v>280.58895874023438</v>
+        <v>93.85549926757812</v>
       </c>
       <c r="G42">
-        <v>0.22508603168229999</v>
+        <v>0.1498519060319758</v>
       </c>
       <c r="H42">
-        <v>315.65045634409569</v>
+        <v>114.2692954571326</v>
       </c>
       <c r="I42">
-        <v>-4.1852272818508469</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.3851249583831485</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1771,25 +1745,25 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E43">
-        <v>19832.294921875</v>
+        <v>4161.42138671875</v>
       </c>
       <c r="F43">
-        <v>110.94541168212891</v>
+        <v>49.46764373779297</v>
       </c>
       <c r="G43">
-        <v>8.4792063888022795E-2</v>
+        <v>0.1226278358646443</v>
       </c>
       <c r="H43">
-        <v>140.82590925287101</v>
+        <v>64.3678959327144</v>
       </c>
       <c r="I43">
-        <v>0.1311694475832412</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.0568559593479033</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1800,25 +1774,25 @@
         <v>3</v>
       </c>
       <c r="D44">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="E44">
-        <v>5814.5849609375</v>
+        <v>7449.84423828125</v>
       </c>
       <c r="F44">
-        <v>60.254482269287109</v>
+        <v>53.01898574829102</v>
       </c>
       <c r="G44">
-        <v>4.7445203793625303E-2</v>
+        <v>0.07904648364344299</v>
       </c>
       <c r="H44">
-        <v>75.925088803817331</v>
+        <v>83.26717118840719</v>
       </c>
       <c r="I44">
-        <v>0.54671242826786326</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.6344351595937361</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -1829,25 +1803,25 @@
         <v>4</v>
       </c>
       <c r="D45">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="E45">
-        <v>3885.676513671875</v>
+        <v>551039.625</v>
       </c>
       <c r="F45">
-        <v>48.203029632568359</v>
+        <v>707.1371459960938</v>
       </c>
       <c r="G45">
-        <v>9.0345752003456806E-2</v>
+        <v>0.461698316959606</v>
       </c>
       <c r="H45">
-        <v>60.528509693213842</v>
+        <v>742.3036883584264</v>
       </c>
       <c r="I45">
-        <v>0.65162093895816064</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-12.68721273933748</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -1858,25 +1832,25 @@
         <v>5</v>
       </c>
       <c r="D46">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E46">
-        <v>3580.9697265625</v>
+        <v>228753.609375</v>
       </c>
       <c r="F46">
-        <v>46.670093536376953</v>
+        <v>363.7479248046875</v>
       </c>
       <c r="G46">
-        <v>5.8065379633885902E-2</v>
+        <v>0.1633085569118534</v>
       </c>
       <c r="H46">
-        <v>57.58484020639041</v>
+        <v>478.1957269704928</v>
       </c>
       <c r="I46">
-        <v>9.5756933070582806E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.355344187374139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -1887,25 +1861,25 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E47">
-        <v>860998</v>
+        <v>87642.390625</v>
       </c>
       <c r="F47">
-        <v>856.58697509765625</v>
+        <v>279.2057189941406</v>
       </c>
       <c r="G47">
-        <v>0.70043643228414565</v>
+        <v>0.4520996532358195</v>
       </c>
       <c r="H47">
-        <v>927.81111394748518</v>
+        <v>295.6422642012566</v>
       </c>
       <c r="I47">
-        <v>-43.802995682543283</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-8.276797659385142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -1916,25 +1890,25 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="E48">
-        <v>14942.2021484375</v>
+        <v>3190.403564453125</v>
       </c>
       <c r="F48">
-        <v>88.52294921875</v>
+        <v>41.86094284057617</v>
       </c>
       <c r="G48">
-        <v>6.9291646544156899E-2</v>
+        <v>0.1057636836524072</v>
       </c>
       <c r="H48">
-        <v>121.7348492356434</v>
+        <v>55.98874208712303</v>
       </c>
       <c r="I48">
-        <v>0.3417786610980082</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.1901986832579093</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -1945,25 +1919,25 @@
         <v>3</v>
       </c>
       <c r="D49">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="E49">
-        <v>6613.0380859375</v>
+        <v>7909.53564453125</v>
       </c>
       <c r="F49">
-        <v>63.179969787597663</v>
+        <v>55.58462142944336</v>
       </c>
       <c r="G49">
-        <v>4.8861250095947599E-2</v>
+        <v>0.0832091798825164</v>
       </c>
       <c r="H49">
-        <v>81.224031581590495</v>
+        <v>86.05641363654024</v>
       </c>
       <c r="I49">
-        <v>0.48787808620834477</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.6103692915508616</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1974,25 +1948,25 @@
         <v>4</v>
       </c>
       <c r="D50">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="E50">
-        <v>13624.39453125</v>
+        <v>463133.6875</v>
       </c>
       <c r="F50">
-        <v>97.347946166992202</v>
+        <v>648.6007080078125</v>
       </c>
       <c r="G50">
-        <v>0.17198830292002501</v>
+        <v>0.423475591676007</v>
       </c>
       <c r="H50">
-        <v>116.2449096508858</v>
+        <v>680.5190650731957</v>
       </c>
       <c r="I50">
-        <v>-0.17684440462604789</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-10.5040487462977</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -2003,25 +1977,25 @@
         <v>5</v>
       </c>
       <c r="D51">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="E51">
-        <v>5213.78662109375</v>
+        <v>147474.6875</v>
       </c>
       <c r="F51">
-        <v>59.541847229003913</v>
+        <v>282.2631530761719</v>
       </c>
       <c r="G51">
-        <v>7.6342086440988902E-2</v>
+        <v>0.1254491875979864</v>
       </c>
       <c r="H51">
-        <v>71.716906637771274</v>
+        <v>383.9699888241099</v>
       </c>
       <c r="I51">
-        <v>-0.28197269630504701</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.1263434671782537</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -2032,25 +2006,25 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E52">
-        <v>286015.65625</v>
+        <v>14598.3203125</v>
       </c>
       <c r="F52">
-        <v>430.29898071289063</v>
+        <v>99.7637939453125</v>
       </c>
       <c r="G52">
-        <v>0.3387821375173935</v>
+        <v>0.1579255363783982</v>
       </c>
       <c r="H52">
-        <v>534.75917017103791</v>
+        <v>120.7656032801738</v>
       </c>
       <c r="I52">
-        <v>-13.88272820552835</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.5475647790140775</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -2061,25 +2035,25 @@
         <v>2</v>
       </c>
       <c r="D53">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="E53">
-        <v>15606.2568359375</v>
+        <v>4169.19287109375</v>
       </c>
       <c r="F53">
-        <v>95.861885070800781</v>
+        <v>51.07997512817383</v>
       </c>
       <c r="G53">
-        <v>7.3150210288961404E-2</v>
+        <v>0.1209478492751477</v>
       </c>
       <c r="H53">
-        <v>124.7924130582049</v>
+        <v>64.40923694925824</v>
       </c>
       <c r="I53">
-        <v>0.31445890063495358</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.0587694094797776</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -2090,25 +2064,25 @@
         <v>3</v>
       </c>
       <c r="D54">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E54">
-        <v>5785.1083984375</v>
+        <v>8137.8388671875</v>
       </c>
       <c r="F54">
-        <v>60.785198211669922</v>
+        <v>53.50756454467773</v>
       </c>
       <c r="G54">
-        <v>4.7618642667632501E-2</v>
+        <v>0.07929956325144399</v>
       </c>
       <c r="H54">
-        <v>75.909320721626216</v>
+        <v>87.84922454853564</v>
       </c>
       <c r="I54">
-        <v>0.5501201952160053</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.595635146588116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -2119,25 +2093,25 @@
         <v>4</v>
       </c>
       <c r="D55">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="E55">
-        <v>17394.654296875</v>
+        <v>802242.0625</v>
       </c>
       <c r="F55">
-        <v>111.4859924316406</v>
+        <v>862.3854370117188</v>
       </c>
       <c r="G55">
-        <v>0.23165199730989289</v>
+        <v>0.5665343050014368</v>
       </c>
       <c r="H55">
-        <v>130.6529011284201</v>
+        <v>895.6567961738925</v>
       </c>
       <c r="I55">
-        <v>-0.50872360951054452</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-18.92729668404941</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -2148,25 +2122,25 @@
         <v>5</v>
       </c>
       <c r="D56">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="E56">
-        <v>4324.62451171875</v>
+        <v>171689.125</v>
       </c>
       <c r="F56">
-        <v>52.194000244140632</v>
+        <v>309.184326171875</v>
       </c>
       <c r="G56">
-        <v>6.41428020361266E-2</v>
+        <v>0.1379080523240037</v>
       </c>
       <c r="H56">
-        <v>64.510497924873249</v>
+        <v>414.3209526977552</v>
       </c>
       <c r="I56">
-        <v>-8.5078472012743295E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.0168721976730243</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -2177,25 +2151,25 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="E57">
-        <v>242942.328125</v>
+        <v>15802.4306640625</v>
       </c>
       <c r="F57">
-        <v>472.45236206054688</v>
+        <v>106.5433654785156</v>
       </c>
       <c r="G57">
-        <v>0.38807803090741277</v>
+        <v>0.1715806676922549</v>
       </c>
       <c r="H57">
-        <v>492.72057959787702</v>
+        <v>125.64976662176</v>
       </c>
       <c r="I57">
-        <v>-11.64158999727111</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.6751788453575345</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -2206,25 +2180,25 @@
         <v>2</v>
       </c>
       <c r="D58">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="E58">
-        <v>17381.025390625</v>
+        <v>4088.483154296875</v>
       </c>
       <c r="F58">
-        <v>101.8374862670898</v>
+        <v>49.86845779418945</v>
       </c>
       <c r="G58">
-        <v>7.9100667567673602E-2</v>
+        <v>0.1213197654126059</v>
       </c>
       <c r="H58">
-        <v>131.67907740856751</v>
+        <v>63.8642293460212</v>
       </c>
       <c r="I58">
-        <v>0.2363277126681107</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.0385201113326965</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -2235,25 +2209,25 @@
         <v>3</v>
       </c>
       <c r="D59">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="E59">
-        <v>5908.5068359375</v>
+        <v>7468.7568359375</v>
       </c>
       <c r="F59">
-        <v>60.818603515625</v>
+        <v>51.65164184570312</v>
       </c>
       <c r="G59">
-        <v>4.8159800012813198E-2</v>
+        <v>0.0766053327268388</v>
       </c>
       <c r="H59">
-        <v>76.39027557156173</v>
+        <v>83.10896425015957</v>
       </c>
       <c r="I59">
-        <v>0.53820292567667172</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.634671844091637</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -2264,25 +2238,25 @@
         <v>4</v>
       </c>
       <c r="D60">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E60">
-        <v>13013.552734375</v>
+        <v>836731.5</v>
       </c>
       <c r="F60">
-        <v>96.930000305175781</v>
+        <v>889.156494140625</v>
       </c>
       <c r="G60">
-        <v>0.1749899254374572</v>
+        <v>0.5866870063152574</v>
       </c>
       <c r="H60">
-        <v>113.72168868934359</v>
+        <v>914.7015615141941</v>
       </c>
       <c r="I60">
-        <v>-0.12825953525392539</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-19.78419847168578</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -2293,25 +2267,25 @@
         <v>5</v>
       </c>
       <c r="D61">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E61">
-        <v>3756.8994140625</v>
+        <v>620380.5625</v>
       </c>
       <c r="F61">
-        <v>47.672214508056641</v>
+        <v>592.7683715820312</v>
       </c>
       <c r="G61">
-        <v>5.9518373261542197E-2</v>
+        <v>0.2656412894218837</v>
       </c>
       <c r="H61">
-        <v>58.820608007402399</v>
+        <v>787.6295121069855</v>
       </c>
       <c r="I61">
-        <v>5.0547460352981501E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-2.672930141903109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -2322,25 +2296,25 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="E62">
-        <v>189087.875</v>
+        <v>14223.2275390625</v>
       </c>
       <c r="F62">
-        <v>408.78829956054688</v>
+        <v>99.5657196044922</v>
       </c>
       <c r="G62">
-        <v>0.3334336327278109</v>
+        <v>0.1596337343440865</v>
       </c>
       <c r="H62">
-        <v>434.76387345843932</v>
+        <v>119.2129513353778</v>
       </c>
       <c r="I62">
-        <v>-8.8399172132397155</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.5076024680308584</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -2351,25 +2325,25 @@
         <v>2</v>
       </c>
       <c r="D63">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E63">
-        <v>122442.484375</v>
+        <v>3025.489013671875</v>
       </c>
       <c r="F63">
-        <v>312.1055908203125</v>
+        <v>40.07379150390625</v>
       </c>
       <c r="G63">
-        <v>0.2177334197690653</v>
+        <v>0.1012479088715922</v>
       </c>
       <c r="H63">
-        <v>349.67859380185121</v>
+        <v>54.54106244434983</v>
       </c>
       <c r="I63">
-        <v>-4.3535555085287756</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.232057308234768</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -2380,25 +2354,25 @@
         <v>3</v>
       </c>
       <c r="D64">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E64">
-        <v>6666.89404296875</v>
+        <v>8170.16162109375</v>
       </c>
       <c r="F64">
-        <v>65.397674560546875</v>
+        <v>55.29310607910156</v>
       </c>
       <c r="G64">
-        <v>5.1670767520209403E-2</v>
+        <v>0.0825932212717566</v>
       </c>
       <c r="H64">
-        <v>81.306043171974338</v>
+        <v>87.3429992587904</v>
       </c>
       <c r="I64">
-        <v>0.47940175401709828</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.5981264719560472</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -2409,25 +2383,25 @@
         <v>4</v>
       </c>
       <c r="D65">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="E65">
-        <v>12499.458984375</v>
+        <v>554842.125</v>
       </c>
       <c r="F65">
-        <v>96.389457702636719</v>
+        <v>705.2232055664062</v>
       </c>
       <c r="G65">
-        <v>0.1839544909482459</v>
+        <v>0.459371952352428</v>
       </c>
       <c r="H65">
-        <v>111.20635233284381</v>
+        <v>744.8499924243489</v>
       </c>
       <c r="I65">
-        <v>-7.8688141928937694E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-12.78267029297892</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -2438,25 +2412,25 @@
         <v>5</v>
       </c>
       <c r="D66">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E66">
-        <v>5733.232421875</v>
+        <v>182039.8125</v>
       </c>
       <c r="F66">
-        <v>60.571426391601563</v>
+        <v>316.7022399902344</v>
       </c>
       <c r="G66">
-        <v>7.4002064161351494E-2</v>
+        <v>0.1409231644611193</v>
       </c>
       <c r="H66">
-        <v>74.252113206210325</v>
+        <v>426.6303153495277</v>
       </c>
       <c r="I66">
-        <v>-0.4373287675889842</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.07814100559986439</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2467,25 +2441,25 @@
         <v>1</v>
       </c>
       <c r="D67">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E67">
-        <v>246869.28125</v>
+        <v>14206.2822265625</v>
       </c>
       <c r="F67">
-        <v>475.22933959960938</v>
+        <v>100.021354675293</v>
       </c>
       <c r="G67">
-        <v>0.39006517490815062</v>
+        <v>0.1612535452676468</v>
       </c>
       <c r="H67">
-        <v>496.66743995436798</v>
+        <v>119.1571774966148</v>
       </c>
       <c r="I67">
-        <v>-11.8437429941447</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.5052920530494852</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -2496,25 +2470,25 @@
         <v>2</v>
       </c>
       <c r="D68">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="E68">
-        <v>16177.7177734375</v>
+        <v>3121.62939453125</v>
       </c>
       <c r="F68">
-        <v>95.255294799804673</v>
+        <v>40.29271697998047</v>
       </c>
       <c r="G68">
-        <v>7.38165296586617E-2</v>
+        <v>0.0987934942676542</v>
       </c>
       <c r="H68">
-        <v>127.00445214741509</v>
+        <v>55.7850886802979</v>
       </c>
       <c r="I68">
-        <v>0.2890100068314248</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.207351575008937</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -2525,25 +2499,25 @@
         <v>3</v>
       </c>
       <c r="D69">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="E69">
-        <v>6586.63525390625</v>
+        <v>7953.29052734375</v>
       </c>
       <c r="F69">
-        <v>65.308143615722656</v>
+        <v>53.80508804321289</v>
       </c>
       <c r="G69">
-        <v>5.1890087995002103E-2</v>
+        <v>0.0794586251604576</v>
       </c>
       <c r="H69">
-        <v>80.907740241116201</v>
+        <v>86.69037035267405</v>
       </c>
       <c r="I69">
-        <v>0.48592379622180831</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.6058028493724872</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -2554,25 +2528,25 @@
         <v>4</v>
       </c>
       <c r="D70">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E70">
-        <v>13094.3212890625</v>
+        <v>786341.625</v>
       </c>
       <c r="F70">
-        <v>96.898963928222656</v>
+        <v>846.055908203125</v>
       </c>
       <c r="G70">
-        <v>0.1736225800134033</v>
+        <v>0.5536860100954807</v>
       </c>
       <c r="H70">
-        <v>114.06967186277279</v>
+        <v>886.7288449408858</v>
       </c>
       <c r="I70">
-        <v>-0.1358939973369005</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-18.53308436304911</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -2583,25 +2557,25 @@
         <v>5</v>
       </c>
       <c r="D71">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="E71">
-        <v>4712.1240234375</v>
+        <v>284038.28125</v>
       </c>
       <c r="F71">
-        <v>56.141639709472663</v>
+        <v>378.9862976074219</v>
       </c>
       <c r="G71">
-        <v>7.1728035873255103E-2</v>
+        <v>0.1668282221139005</v>
       </c>
       <c r="H71">
-        <v>68.43733319408274</v>
+        <v>532.9132200822569</v>
       </c>
       <c r="I71">
-        <v>-0.1582512732001054</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.6821534054864888</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -2612,25 +2586,25 @@
         <v>1</v>
       </c>
       <c r="D72">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="E72">
-        <v>102645.9609375</v>
+        <v>17759.845703125</v>
       </c>
       <c r="F72">
-        <v>288.4423828125</v>
+        <v>113.79248046875</v>
       </c>
       <c r="G72">
-        <v>0.23217838188976681</v>
+        <v>0.1823136118338387</v>
       </c>
       <c r="H72">
-        <v>320.35702588595439</v>
+        <v>133.1917099819099</v>
       </c>
       <c r="I72">
-        <v>-4.34089710971221</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.8793954213056266</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -2641,25 +2615,25 @@
         <v>2</v>
       </c>
       <c r="D73">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="E73">
-        <v>15250.1953125</v>
+        <v>3354.867431640625</v>
       </c>
       <c r="F73">
-        <v>92.275222778320327</v>
+        <v>42.77275466918945</v>
       </c>
       <c r="G73">
-        <v>7.1377732606245303E-2</v>
+        <v>0.10949275509713</v>
       </c>
       <c r="H73">
-        <v>123.21468209423961</v>
+        <v>57.60811417852695</v>
       </c>
       <c r="I73">
-        <v>0.32927386473681169</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.1483100894333676</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -2670,25 +2644,25 @@
         <v>3</v>
       </c>
       <c r="D74">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="E74">
-        <v>6255.650390625</v>
+        <v>8145.6904296875</v>
       </c>
       <c r="F74">
-        <v>63.229824066162109</v>
+        <v>55.60565948486328</v>
       </c>
       <c r="G74">
-        <v>5.0022689733647097E-2</v>
+        <v>0.0845391704944698</v>
       </c>
       <c r="H74">
-        <v>78.706803711798003</v>
+        <v>87.220081521464</v>
       </c>
       <c r="I74">
-        <v>0.51146650669534965</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.599362711726206</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -2699,25 +2673,25 @@
         <v>4</v>
       </c>
       <c r="D75">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E75">
-        <v>13693.6171875</v>
+        <v>574382.625</v>
       </c>
       <c r="F75">
-        <v>100.48911285400391</v>
+        <v>719.1249389648438</v>
       </c>
       <c r="G75">
-        <v>0.20087494472617201</v>
+        <v>0.4687912473198222</v>
       </c>
       <c r="H75">
-        <v>116.4645704626125</v>
+        <v>757.8332355751467</v>
       </c>
       <c r="I75">
-        <v>-0.19073982864684111</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-13.26939192131876</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -2728,25 +2702,25 @@
         <v>5</v>
       </c>
       <c r="D76">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="E76">
-        <v>4899.40673828125</v>
+        <v>178594.890625</v>
       </c>
       <c r="F76">
-        <v>55.988296508789063</v>
+        <v>319.9248352050781</v>
       </c>
       <c r="G76">
-        <v>6.9313170620219994E-2</v>
+        <v>0.1438926846247125</v>
       </c>
       <c r="H76">
-        <v>69.616189498815061</v>
+        <v>422.5795160732304</v>
       </c>
       <c r="I76">
-        <v>-0.2026226108419599</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.0576781966474242</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -2757,25 +2731,25 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="E77">
-        <v>94855.2265625</v>
+        <v>11443.232421875</v>
       </c>
       <c r="F77">
-        <v>269.11614990234369</v>
+        <v>86.62290954589844</v>
       </c>
       <c r="G77">
-        <v>0.21494662410916829</v>
+        <v>0.1380391921982527</v>
       </c>
       <c r="H77">
-        <v>307.94854908572319</v>
+        <v>106.9724064572829</v>
       </c>
       <c r="I77">
-        <v>-3.932846520976216</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.2109733447297989</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -2786,25 +2760,25 @@
         <v>2</v>
       </c>
       <c r="D78">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="E78">
-        <v>15114.03515625</v>
+        <v>2778.181884765625</v>
       </c>
       <c r="F78">
-        <v>86.73321533203125</v>
+        <v>38.24588012695312</v>
       </c>
       <c r="G78">
-        <v>6.8521820379021894E-2</v>
+        <v>0.09525039498261979</v>
       </c>
       <c r="H78">
-        <v>122.4659273157602</v>
+        <v>51.59447647330973</v>
       </c>
       <c r="I78">
-        <v>0.33436838476324021</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.2950730105474329</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -2815,25 +2789,25 @@
         <v>3</v>
       </c>
       <c r="D79">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E79">
-        <v>5258.9482421875</v>
+        <v>6996.55615234375</v>
       </c>
       <c r="F79">
-        <v>58.374568939208977</v>
+        <v>51.91007614135742</v>
       </c>
       <c r="G79">
-        <v>4.5419564229371497E-2</v>
+        <v>0.0785915087795008</v>
       </c>
       <c r="H79">
-        <v>72.452004054158863</v>
+        <v>80.08078297276289</v>
       </c>
       <c r="I79">
-        <v>0.59178067242442334</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.6594132688283157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -2844,25 +2818,25 @@
         <v>4</v>
       </c>
       <c r="D80">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="E80">
-        <v>22025.16015625</v>
+        <v>277236.75</v>
       </c>
       <c r="F80">
-        <v>115.9862976074219</v>
+        <v>485.6703491210938</v>
       </c>
       <c r="G80">
-        <v>0.19039283420313599</v>
+        <v>0.3127143499623125</v>
       </c>
       <c r="H80">
-        <v>146.85406826442869</v>
+        <v>526.528837705381</v>
       </c>
       <c r="I80">
-        <v>-0.90123335941684357</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-5.884199534262055</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -2873,25 +2847,25 @@
         <v>5</v>
       </c>
       <c r="D81">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E81">
-        <v>4625.2666015625</v>
+        <v>126982.3125</v>
       </c>
       <c r="F81">
-        <v>54.161415100097663</v>
+        <v>273.9138793945312</v>
       </c>
       <c r="G81">
-        <v>6.6039749115833504E-2</v>
+        <v>0.123928399435992</v>
       </c>
       <c r="H81">
-        <v>67.100527405285291</v>
+        <v>356.0570122777822</v>
       </c>
       <c r="I81">
-        <v>-0.15786137417398449</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.2468312355137296</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -2902,25 +2876,25 @@
         <v>1</v>
       </c>
       <c r="D82">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="E82">
-        <v>83884.5703125</v>
+        <v>14376.095703125</v>
       </c>
       <c r="F82">
-        <v>253.9118957519531</v>
+        <v>101.0649719238281</v>
       </c>
       <c r="G82">
-        <v>0.20292627016752851</v>
+        <v>0.1635285635616933</v>
       </c>
       <c r="H82">
-        <v>289.59169750227022</v>
+        <v>119.8561360607447</v>
       </c>
       <c r="I82">
-        <v>-3.3618443413083892</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.5236730164951214</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -2931,25 +2905,25 @@
         <v>2</v>
       </c>
       <c r="D83">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E83">
-        <v>14545.1640625</v>
+        <v>3969.239501953125</v>
       </c>
       <c r="F83">
-        <v>86.636985778808594</v>
+        <v>50.90125274658203</v>
       </c>
       <c r="G83">
-        <v>6.7638689241482003E-2</v>
+        <v>0.1211916835124724</v>
       </c>
       <c r="H83">
-        <v>120.10788694611161</v>
+        <v>62.88909346468613</v>
       </c>
       <c r="I83">
-        <v>0.35936412907141829</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.008150490410983299</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -2960,25 +2934,25 @@
         <v>3</v>
       </c>
       <c r="D84">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E84">
-        <v>5615.50146484375</v>
+        <v>7317.53271484375</v>
       </c>
       <c r="F84">
-        <v>59.6956787109375</v>
+        <v>51.97793197631836</v>
       </c>
       <c r="G84">
-        <v>4.72461528089047E-2</v>
+        <v>0.0781667595114596</v>
       </c>
       <c r="H84">
-        <v>74.564226243246367</v>
+        <v>82.19577989279111</v>
       </c>
       <c r="I84">
-        <v>0.56119983547193475</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.6424283827502563</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -2989,25 +2963,25 @@
         <v>4</v>
       </c>
       <c r="D85">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E85">
-        <v>14989.421875</v>
+        <v>1033766.625</v>
       </c>
       <c r="F85">
-        <v>99.477317810058594</v>
+        <v>996.1077270507812</v>
       </c>
       <c r="G85">
-        <v>0.17065535566270451</v>
+        <v>0.660519263352327</v>
       </c>
       <c r="H85">
-        <v>121.9227613585572</v>
+        <v>1016.727941093299</v>
       </c>
       <c r="I85">
-        <v>-0.29856857734543057</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-24.67622344652625</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -3018,25 +2992,25 @@
         <v>5</v>
       </c>
       <c r="D86">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E86">
-        <v>5256.7919921875</v>
+        <v>149720.921875</v>
       </c>
       <c r="F86">
-        <v>58.059108734130859</v>
+        <v>285.7183227539062</v>
       </c>
       <c r="G86">
-        <v>7.0858077952611107E-2</v>
+        <v>0.1273403823956906</v>
       </c>
       <c r="H86">
-        <v>71.389396901797255</v>
+        <v>386.4278180207803</v>
       </c>
       <c r="I86">
-        <v>-0.31775517251478108</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.1114289576638776</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -3047,25 +3021,25 @@
         <v>1</v>
       </c>
       <c r="D87">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="E87">
-        <v>126775.1640625</v>
+        <v>12540.271484375</v>
       </c>
       <c r="F87">
-        <v>297.38247680664063</v>
+        <v>93.27218627929688</v>
       </c>
       <c r="G87">
-        <v>0.23525333615962049</v>
+        <v>0.1519414655324013</v>
       </c>
       <c r="H87">
-        <v>356.01663456365583</v>
+        <v>111.953621815759</v>
       </c>
       <c r="I87">
-        <v>-5.5938820605273483</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.32864301323667</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -3076,25 +3050,25 @@
         <v>2</v>
       </c>
       <c r="D88">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E88">
-        <v>14797.6767578125</v>
+        <v>3963.161376953125</v>
       </c>
       <c r="F88">
-        <v>87.418304443359375</v>
+        <v>48.36641311645508</v>
       </c>
       <c r="G88">
-        <v>6.9245179368342194E-2</v>
+        <v>0.1186503642247477</v>
       </c>
       <c r="H88">
-        <v>120.9688835745407</v>
+        <v>62.94276225651642</v>
       </c>
       <c r="I88">
-        <v>0.34766366642165453</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.0065796080152116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -3105,25 +3079,25 @@
         <v>3</v>
       </c>
       <c r="D89">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E89">
-        <v>5998.2060546875</v>
+        <v>6919.291015625</v>
       </c>
       <c r="F89">
-        <v>61.725322723388672</v>
+        <v>51.21274948120117</v>
       </c>
       <c r="G89">
-        <v>4.8989166825965401E-2</v>
+        <v>0.07726589903321709</v>
       </c>
       <c r="H89">
-        <v>76.83993624481009</v>
+        <v>79.99852164912426</v>
       </c>
       <c r="I89">
-        <v>0.53076730308822218</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.6615143401069378</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -3134,25 +3108,25 @@
         <v>4</v>
       </c>
       <c r="D90">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="E90">
-        <v>17038.2109375</v>
+        <v>476366.28125</v>
       </c>
       <c r="F90">
-        <v>104.4056930541992</v>
+        <v>656.30078125</v>
       </c>
       <c r="G90">
-        <v>0.1768186098866445</v>
+        <v>0.4281496813623322</v>
       </c>
       <c r="H90">
-        <v>129.47087028298321</v>
+        <v>690.1287930984641</v>
       </c>
       <c r="I90">
-        <v>-0.4783285481971612</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-10.83540375034112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -3163,25 +3137,25 @@
         <v>5</v>
       </c>
       <c r="D91">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E91">
-        <v>3553.909423828125</v>
+        <v>148944.015625</v>
       </c>
       <c r="F91">
-        <v>46.766437530517578</v>
+        <v>282.75244140625</v>
       </c>
       <c r="G91">
-        <v>5.7679035054803499E-2</v>
+        <v>0.1256631769071694</v>
       </c>
       <c r="H91">
-        <v>57.759678567950239</v>
+        <v>385.8867140194134</v>
       </c>
       <c r="I91">
-        <v>0.1037322446111537</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.1177046288513982</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -3192,25 +3166,25 @@
         <v>1</v>
       </c>
       <c r="D92">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E92">
-        <v>198984.03125</v>
+        <v>11473.5625</v>
       </c>
       <c r="F92">
-        <v>423.771728515625</v>
+        <v>86.22301483154297</v>
       </c>
       <c r="G92">
-        <v>0.34688225632094932</v>
+        <v>0.1375413473052064</v>
       </c>
       <c r="H92">
-        <v>446.04589943006658</v>
+        <v>107.0888897298501</v>
       </c>
       <c r="I92">
-        <v>-9.3571455980567766</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.2156604486102711</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -3221,25 +3195,25 @@
         <v>2</v>
       </c>
       <c r="D93">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E93">
-        <v>14502.837890625</v>
+        <v>4019.853759765625</v>
       </c>
       <c r="F93">
-        <v>96.1861572265625</v>
+        <v>50.23584747314453</v>
       </c>
       <c r="G93">
-        <v>7.2344949937276207E-2</v>
+        <v>0.1206886686162156</v>
       </c>
       <c r="H93">
-        <v>120.3599367140182</v>
+        <v>63.38103433878933</v>
       </c>
       <c r="I93">
-        <v>0.36346284019987229</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.021113256472813</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -3250,25 +3224,25 @@
         <v>3</v>
       </c>
       <c r="D94">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="E94">
-        <v>5834.10009765625</v>
+        <v>6786.02685546875</v>
       </c>
       <c r="F94">
-        <v>60.865989685058587</v>
+        <v>51.52444458007812</v>
       </c>
       <c r="G94">
-        <v>4.7558506323384299E-2</v>
+        <v>0.0786975367585217</v>
       </c>
       <c r="H94">
-        <v>76.043972129672269</v>
+        <v>78.62721829095197</v>
       </c>
       <c r="I94">
-        <v>0.54487457519360127</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.6707580118070794</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -3279,25 +3253,25 @@
         <v>4</v>
       </c>
       <c r="D95">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E95">
-        <v>15260.4951171875</v>
+        <v>472416.5625</v>
       </c>
       <c r="F95">
-        <v>101.0828857421875</v>
+        <v>651.6963500976562</v>
       </c>
       <c r="G95">
-        <v>0.1761882148562223</v>
+        <v>0.4245508971890779</v>
       </c>
       <c r="H95">
-        <v>122.95047241468281</v>
+        <v>687.3114717125719</v>
       </c>
       <c r="I95">
-        <v>-0.33464809037303528</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-10.73391182096198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -3308,25 +3282,25 @@
         <v>5</v>
       </c>
       <c r="D96">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E96">
-        <v>4137.982421875</v>
+        <v>152467.421875</v>
       </c>
       <c r="F96">
-        <v>50.533279418945313</v>
+        <v>289.8931579589844</v>
       </c>
       <c r="G96">
-        <v>6.2157833954614099E-2</v>
+        <v>0.1291192885857905</v>
       </c>
       <c r="H96">
-        <v>62.684308844421963</v>
+        <v>390.4349861446526</v>
       </c>
       <c r="I96">
-        <v>-4.12368439564961E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.0969187525270423</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -3337,25 +3311,25 @@
         <v>1</v>
       </c>
       <c r="D97">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="E97">
-        <v>87584.3984375</v>
+        <v>13524.634765625</v>
       </c>
       <c r="F97">
-        <v>261.240478515625</v>
+        <v>96.23985290527344</v>
       </c>
       <c r="G97">
-        <v>0.2091627445222238</v>
+        <v>0.1539032436434194</v>
       </c>
       <c r="H97">
-        <v>295.91933754427629</v>
+        <v>116.25514585425</v>
       </c>
       <c r="I97">
-        <v>-3.5567327596749059</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.4333588699382893</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -3366,25 +3340,25 @@
         <v>2</v>
       </c>
       <c r="D98">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E98">
-        <v>14005.4111328125</v>
+        <v>2881.595703125</v>
       </c>
       <c r="F98">
-        <v>93.276069641113281</v>
+        <v>38.99174880981445</v>
       </c>
       <c r="G98">
-        <v>7.08072926185917E-2</v>
+        <v>0.09786497909191789</v>
       </c>
       <c r="H98">
-        <v>118.14882668089849</v>
+        <v>52.62039829337903</v>
       </c>
       <c r="I98">
-        <v>0.38437594695763</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.2688128733501522</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -3395,25 +3369,25 @@
         <v>3</v>
       </c>
       <c r="D99">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E99">
-        <v>5962.66259765625</v>
+        <v>7090.54736328125</v>
       </c>
       <c r="F99">
-        <v>61.062347412109382</v>
+        <v>52.87139892578125</v>
       </c>
       <c r="G99">
-        <v>4.84785873283885E-2</v>
+        <v>0.0806801432181211</v>
       </c>
       <c r="H99">
-        <v>76.81058715127493</v>
+        <v>80.60869370422644</v>
       </c>
       <c r="I99">
-        <v>0.53430006373331784</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.6549228081306067</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -3424,25 +3398,25 @@
         <v>4</v>
       </c>
       <c r="D100">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E100">
-        <v>13170.267578125</v>
+        <v>496457.90625</v>
       </c>
       <c r="F100">
-        <v>98.637374877929673</v>
+        <v>675.2244873046875</v>
       </c>
       <c r="G100">
-        <v>0.1866340672176145</v>
+        <v>0.4420682400785941</v>
       </c>
       <c r="H100">
-        <v>114.5081172641582</v>
+        <v>704.5876894654695</v>
       </c>
       <c r="I100">
-        <v>-0.1433951054206874</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-11.3306761451717</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -3453,25 +3427,25 @@
         <v>5</v>
       </c>
       <c r="D101">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="E101">
-        <v>3643.86181640625</v>
+        <v>134029.59375</v>
       </c>
       <c r="F101">
-        <v>47.464714050292969</v>
+        <v>270.882080078125</v>
       </c>
       <c r="G101">
-        <v>5.8426267906618798E-2</v>
+        <v>0.1211069141871345</v>
       </c>
       <c r="H101">
-        <v>58.817481162076703</v>
+        <v>366.0696796732018</v>
       </c>
       <c r="I101">
-        <v>8.2900410416205397E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.2061638680570585</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -3482,25 +3456,25 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E102">
-        <v>84122.4375</v>
+        <v>11449.0830078125</v>
       </c>
       <c r="F102">
-        <v>254.61549377441409</v>
+        <v>86.63817596435547</v>
       </c>
       <c r="G102">
-        <v>0.20356080865471601</v>
+        <v>0.1379228513342267</v>
       </c>
       <c r="H102">
-        <v>290.00887062100497</v>
+        <v>106.98926536725</v>
       </c>
       <c r="I102">
-        <v>-3.3757009306143759</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.2124840911185148</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -3511,25 +3485,25 @@
         <v>2</v>
       </c>
       <c r="D103">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E103">
-        <v>13650.4384765625</v>
+        <v>2989.56396484375</v>
       </c>
       <c r="F103">
-        <v>94.981025695800781</v>
+        <v>40.20781707763672</v>
       </c>
       <c r="G103">
-        <v>7.0691385815459001E-2</v>
+        <v>0.0997574562315878</v>
       </c>
       <c r="H103">
-        <v>116.6208943770351</v>
+        <v>52.89134343675357</v>
       </c>
       <c r="I103">
-        <v>0.40001919710217188</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.241592652859792</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -3540,25 +3514,25 @@
         <v>3</v>
       </c>
       <c r="D104">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E104">
-        <v>5499.17724609375</v>
+        <v>7252.58984375</v>
       </c>
       <c r="F104">
-        <v>58.467662811279297</v>
+        <v>53.97492599487305</v>
       </c>
       <c r="G104">
-        <v>4.5926720981189301E-2</v>
+        <v>0.08318599841951831</v>
       </c>
       <c r="H104">
-        <v>73.680814286420897</v>
+        <v>81.49098024492838</v>
       </c>
       <c r="I104">
-        <v>0.57074951509911631</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.6471700365938777</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -3569,25 +3543,25 @@
         <v>4</v>
       </c>
       <c r="D105">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E105">
-        <v>13659.052734375</v>
+        <v>755687.5</v>
       </c>
       <c r="F105">
-        <v>97.974426269531236</v>
+        <v>845.475830078125</v>
       </c>
       <c r="G105">
-        <v>0.17579670418647581</v>
+        <v>0.5580066085012746</v>
       </c>
       <c r="H105">
-        <v>116.32157886056051</v>
+        <v>869.2794136053476</v>
       </c>
       <c r="I105">
-        <v>-0.1810768382163003</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-17.77091193890326</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -3598,25 +3572,25 @@
         <v>5</v>
       </c>
       <c r="D106">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E106">
-        <v>3870.295654296875</v>
+        <v>139417.53125</v>
       </c>
       <c r="F106">
-        <v>48.7203369140625</v>
+        <v>276.665283203125</v>
       </c>
       <c r="G106">
-        <v>6.03767831784821E-2</v>
+        <v>0.1234444585526697</v>
       </c>
       <c r="H106">
-        <v>59.89344509679848</v>
+        <v>373.0478106848949</v>
       </c>
       <c r="I106">
-        <v>2.2203938069210401E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.1729862716289059</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -3627,25 +3601,25 @@
         <v>1</v>
       </c>
       <c r="D107">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E107">
-        <v>83486.5234375</v>
+        <v>10598.326171875</v>
       </c>
       <c r="F107">
-        <v>253.3350830078125</v>
+        <v>81.45613861083984</v>
       </c>
       <c r="G107">
-        <v>0.202468893816073</v>
+        <v>0.1300085400765144</v>
       </c>
       <c r="H107">
-        <v>288.90332161701559</v>
+        <v>102.9350980757961</v>
       </c>
       <c r="I107">
-        <v>-3.341180245131981</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.1225134709409778</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -3656,25 +3630,25 @@
         <v>2</v>
       </c>
       <c r="D108">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E108">
-        <v>11944.0625</v>
+        <v>2817.332275390625</v>
       </c>
       <c r="F108">
-        <v>84.91729736328125</v>
+        <v>38.5756721496582</v>
       </c>
       <c r="G108">
-        <v>6.4614227455340706E-2</v>
+        <v>0.096675124821585</v>
       </c>
       <c r="H108">
-        <v>108.57994975118319</v>
+        <v>52.0267928671666</v>
       </c>
       <c r="I108">
-        <v>0.4732849059559307</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.2851205863915718</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -3685,25 +3659,25 @@
         <v>3</v>
       </c>
       <c r="D109">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E109">
-        <v>5898.130859375</v>
+        <v>7260.11767578125</v>
       </c>
       <c r="F109">
-        <v>61.452175140380859</v>
+        <v>52.41477966308594</v>
       </c>
       <c r="G109">
-        <v>4.8642120350403897E-2</v>
+        <v>0.07903168730637369</v>
       </c>
       <c r="H109">
-        <v>76.088268841104863</v>
+        <v>82.18908180597924</v>
       </c>
       <c r="I109">
-        <v>0.53819114322003481</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.6437040058217389</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
         <v>9</v>
       </c>
@@ -3714,25 +3688,25 @@
         <v>4</v>
       </c>
       <c r="D110">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="E110">
-        <v>15780.0302734375</v>
+        <v>397259.15625</v>
       </c>
       <c r="F110">
-        <v>101.9337844848633</v>
+        <v>596.4088745117188</v>
       </c>
       <c r="G110">
-        <v>0.17519340208734879</v>
+        <v>0.3881005023856429</v>
       </c>
       <c r="H110">
-        <v>124.5897262161742</v>
+        <v>630.2828780982584</v>
       </c>
       <c r="I110">
-        <v>-0.37217724063487528</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-8.865798529701008</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -3743,25 +3717,25 @@
         <v>5</v>
       </c>
       <c r="D111">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E111">
-        <v>3880.313720703125</v>
+        <v>139274.765625</v>
       </c>
       <c r="F111">
-        <v>49.427356719970703</v>
+        <v>280.1679382324219</v>
       </c>
       <c r="G111">
-        <v>6.0304479292889297E-2</v>
+        <v>0.1254678050692288</v>
       </c>
       <c r="H111">
-        <v>61.556375144123898</v>
+        <v>373.0737776099222</v>
       </c>
       <c r="I111">
-        <v>2.94032466862107E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.1745711808066409</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>9</v>
       </c>
@@ -3772,25 +3746,25 @@
         <v>1</v>
       </c>
       <c r="D112">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E112">
-        <v>86335.515625</v>
+        <v>12361.4736328125</v>
       </c>
       <c r="F112">
-        <v>258.84164428710938</v>
+        <v>91.22210693359376</v>
       </c>
       <c r="G112">
-        <v>0.207124134476768</v>
+        <v>0.145680289350833</v>
       </c>
       <c r="H112">
-        <v>293.79163318220378</v>
+        <v>111.1470394850008</v>
       </c>
       <c r="I112">
-        <v>-3.4891932730675479</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.3100005816385302</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>9</v>
       </c>
@@ -3801,25 +3775,25 @@
         <v>2</v>
       </c>
       <c r="D113">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="E113">
-        <v>10755.283203125</v>
+        <v>3551.248046875</v>
       </c>
       <c r="F113">
-        <v>78.986236572265625</v>
+        <v>45.21559524536133</v>
       </c>
       <c r="G113">
-        <v>6.07827990389374E-2</v>
+        <v>0.1104481495036011</v>
       </c>
       <c r="H113">
-        <v>103.623372197892</v>
+        <v>59.55779501925625</v>
       </c>
       <c r="I113">
-        <v>0.5277998010135011</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.0980970198760784</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -3830,25 +3804,25 @@
         <v>3</v>
       </c>
       <c r="D114">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E114">
-        <v>5072.26513671875</v>
+        <v>8139.17724609375</v>
       </c>
       <c r="F114">
-        <v>56.824470520019531</v>
+        <v>57.16025161743164</v>
       </c>
       <c r="G114">
-        <v>4.4593850654875401E-2</v>
+        <v>0.0873192803063365</v>
       </c>
       <c r="H114">
-        <v>70.868192884852576</v>
+        <v>87.35776419786238</v>
       </c>
       <c r="I114">
-        <v>0.60418327879702949</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.5986982872868706</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>9</v>
       </c>
@@ -3859,25 +3833,25 @@
         <v>4</v>
       </c>
       <c r="D115">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E115">
-        <v>13408.126953125</v>
+        <v>460504.75</v>
       </c>
       <c r="F115">
-        <v>97.424629211425781</v>
+        <v>648.0381469726562</v>
       </c>
       <c r="G115">
-        <v>0.17489175284867101</v>
+        <v>0.423516375503</v>
       </c>
       <c r="H115">
-        <v>115.4173983482105</v>
+        <v>678.5614620763768</v>
       </c>
       <c r="I115">
-        <v>-0.16014005816485211</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-10.44043442416221</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -3888,25 +3862,25 @@
         <v>5</v>
       </c>
       <c r="D116">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E116">
-        <v>3597.878173828125</v>
+        <v>146968.03125</v>
       </c>
       <c r="F116">
-        <v>46.983749389648438</v>
+        <v>284.7383728027344</v>
       </c>
       <c r="G116">
-        <v>5.8716439067389103E-2</v>
+        <v>0.1270179735687175</v>
       </c>
       <c r="H116">
-        <v>57.47907097286722</v>
+        <v>383.2146405806772</v>
       </c>
       <c r="I116">
-        <v>9.0290290177669097E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.1288363793855773</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -3917,25 +3891,25 @@
         <v>1</v>
       </c>
       <c r="D117">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="E117">
-        <v>86087.375</v>
+        <v>12849.53125</v>
       </c>
       <c r="F117">
-        <v>258.38507080078119</v>
+        <v>92.85163879394533</v>
       </c>
       <c r="G117">
-        <v>0.2067419652222347</v>
+        <v>0.1476774943659171</v>
       </c>
       <c r="H117">
-        <v>293.3701801133937</v>
+        <v>113.321555798505</v>
       </c>
       <c r="I117">
-        <v>-3.476617665500517</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.3616787811238209</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -3946,25 +3920,25 @@
         <v>2</v>
       </c>
       <c r="D118">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="E118">
-        <v>12432.373046875</v>
+        <v>2927.558837890625</v>
       </c>
       <c r="F118">
-        <v>86.713180541992188</v>
+        <v>39.46227645874024</v>
       </c>
       <c r="G118">
-        <v>6.6172389394700104E-2</v>
+        <v>0.0997090608244644</v>
       </c>
       <c r="H118">
-        <v>110.75543294681979</v>
+        <v>53.25861218130069</v>
       </c>
       <c r="I118">
-        <v>0.45172847902220598</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.2570756047253167</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
         <v>9</v>
       </c>
@@ -3975,25 +3949,25 @@
         <v>3</v>
       </c>
       <c r="D119">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="E119">
-        <v>5379.4560546875</v>
+        <v>6550.39111328125</v>
       </c>
       <c r="F119">
-        <v>58.459308624267578</v>
+        <v>50.71213531494141</v>
       </c>
       <c r="G119">
-        <v>4.5885935828515398E-2</v>
+        <v>0.07736339955902979</v>
       </c>
       <c r="H119">
-        <v>72.960467567917036</v>
+        <v>77.15957243728973</v>
       </c>
       <c r="I119">
-        <v>0.57992800928333932</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.6824904903582093</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
         <v>9</v>
       </c>
@@ -4004,25 +3978,25 @@
         <v>4</v>
       </c>
       <c r="D120">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E120">
-        <v>22145.5</v>
+        <v>565731.6875</v>
       </c>
       <c r="F120">
-        <v>117.17010498046881</v>
+        <v>723.9963989257812</v>
       </c>
       <c r="G120">
-        <v>0.19321346127504549</v>
+        <v>0.475051156747816</v>
       </c>
       <c r="H120">
-        <v>147.38523920559251</v>
+        <v>752.1184554095918</v>
       </c>
       <c r="I120">
-        <v>-0.92829641701870635</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-13.05363036405999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -4033,25 +4007,25 @@
         <v>5</v>
       </c>
       <c r="D121">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E121">
-        <v>3923.290771484375</v>
+        <v>122625.3828125</v>
       </c>
       <c r="F121">
-        <v>48.776420593261719</v>
+        <v>259.5602722167969</v>
       </c>
       <c r="G121">
-        <v>6.0066468747522903E-2</v>
+        <v>0.115907626112847</v>
       </c>
       <c r="H121">
-        <v>61.07516546282389</v>
+        <v>349.8753966605952</v>
       </c>
       <c r="I121">
-        <v>1.29943072035905E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.2726419231319241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
         <v>9</v>
       </c>
@@ -4062,25 +4036,25 @@
         <v>1</v>
       </c>
       <c r="D122">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="E122">
-        <v>81892.3984375</v>
+        <v>13789.986328125</v>
       </c>
       <c r="F122">
-        <v>250.30160522460929</v>
+        <v>97.8691864013672</v>
       </c>
       <c r="G122">
-        <v>0.1999212493018078</v>
+        <v>0.157409651901659</v>
       </c>
       <c r="H122">
-        <v>286.13362093641712</v>
+        <v>117.3872942891018</v>
       </c>
       <c r="I122">
-        <v>-3.258636591476427</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.4615735398819527</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
         <v>9</v>
       </c>
@@ -4091,25 +4065,25 @@
         <v>2</v>
       </c>
       <c r="D123">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="E123">
-        <v>12219.423828125</v>
+        <v>3144.64453125</v>
       </c>
       <c r="F123">
-        <v>83.313331604003906</v>
+        <v>41.15015029907227</v>
       </c>
       <c r="G123">
-        <v>6.4078924671584006E-2</v>
+        <v>0.1025932505805384</v>
       </c>
       <c r="H123">
-        <v>109.3037719760901</v>
+        <v>55.84318333971305</v>
       </c>
       <c r="I123">
-        <v>0.45997018187398192</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.201685207994591</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -4120,25 +4094,25 @@
         <v>3</v>
       </c>
       <c r="D124">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="E124">
-        <v>5640.7236328125</v>
+        <v>6744.384765625</v>
       </c>
       <c r="F124">
-        <v>59.289649963378913</v>
+        <v>49.92962265014648</v>
       </c>
       <c r="G124">
-        <v>4.6638446850450703E-2</v>
+        <v>0.074607646896944</v>
       </c>
       <c r="H124">
-        <v>74.557201455988093</v>
+        <v>78.26887744091022</v>
       </c>
       <c r="I124">
-        <v>0.55947208625930067</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.6733119160446637</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
         <v>9</v>
       </c>
@@ -4149,25 +4123,25 @@
         <v>4</v>
       </c>
       <c r="D125">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="E125">
-        <v>13306.2587890625</v>
+        <v>355675.25</v>
       </c>
       <c r="F125">
-        <v>97.741561889648438</v>
+        <v>549.7274780273438</v>
       </c>
       <c r="G125">
-        <v>0.1781905519446404</v>
+        <v>0.354310315046471</v>
       </c>
       <c r="H125">
-        <v>114.9794556519423</v>
+        <v>596.3690993275926</v>
       </c>
       <c r="I125">
-        <v>-0.15399888355517311</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-7.834343707526719</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>9</v>
       </c>
@@ -4178,25 +4152,25 @@
         <v>5</v>
       </c>
       <c r="D126">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E126">
-        <v>3418.715087890625</v>
+        <v>130194.78125</v>
       </c>
       <c r="F126">
-        <v>45.816856384277337</v>
+        <v>264.5292053222656</v>
       </c>
       <c r="G126">
-        <v>5.7330108254436699E-2</v>
+        <v>0.1178961969801666</v>
       </c>
       <c r="H126">
-        <v>55.926418133754687</v>
+        <v>360.7371869917972</v>
       </c>
       <c r="I126">
-        <v>0.134918927340584</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.2285128921761161</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>9</v>
       </c>
@@ -4207,25 +4181,25 @@
         <v>1</v>
       </c>
       <c r="D127">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E127">
-        <v>86419.765625</v>
+        <v>11023.7919921875</v>
       </c>
       <c r="F127">
-        <v>259.0281982421875</v>
+        <v>84.06378936767578</v>
       </c>
       <c r="G127">
-        <v>0.2072879871066203</v>
+        <v>0.1325886304316622</v>
       </c>
       <c r="H127">
-        <v>293.93920511286979</v>
+        <v>104.9829692602191</v>
       </c>
       <c r="I127">
-        <v>-3.4945069007615408</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.1674583463548368</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -4236,25 +4210,25 @@
         <v>2</v>
       </c>
       <c r="D128">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="E128">
-        <v>12039.33984375</v>
+        <v>2692.53125</v>
       </c>
       <c r="F128">
-        <v>81.631889343261719</v>
+        <v>37.82160186767578</v>
       </c>
       <c r="G128">
-        <v>6.3050880469723E-2</v>
+        <v>0.0938675218052305</v>
       </c>
       <c r="H128">
-        <v>108.284835852378</v>
+        <v>50.46521900300759</v>
       </c>
       <c r="I128">
-        <v>0.46755813297923648</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.3168888464203556</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>9</v>
       </c>
@@ -4265,25 +4239,25 @@
         <v>3</v>
       </c>
       <c r="D129">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E129">
-        <v>5754.41552734375</v>
+        <v>7064.62548828125</v>
       </c>
       <c r="F129">
-        <v>58.572772979736328</v>
+        <v>50.79271697998047</v>
       </c>
       <c r="G129">
-        <v>4.5651224459263999E-2</v>
+        <v>0.0764265366290043</v>
       </c>
       <c r="H129">
-        <v>75.728781974356011</v>
+        <v>80.77755751692486</v>
       </c>
       <c r="I129">
-        <v>0.55222899522024105</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.6547389576729709</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -4294,25 +4268,25 @@
         <v>4</v>
       </c>
       <c r="D130">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E130">
-        <v>17045.255859375</v>
+        <v>477044.5</v>
       </c>
       <c r="F130">
-        <v>113.22524261474609</v>
+        <v>653.4506225585938</v>
       </c>
       <c r="G130">
-        <v>0.2193433241423384</v>
+        <v>0.4253157973886984</v>
       </c>
       <c r="H130">
-        <v>130.43943705273631</v>
+        <v>690.6778866753239</v>
       </c>
       <c r="I130">
-        <v>-0.49335192576084769</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-10.84821426903619</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>9</v>
       </c>
@@ -4323,25 +4297,25 @@
         <v>5</v>
       </c>
       <c r="D131">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E131">
-        <v>3408.5751953125</v>
+        <v>117241.1640625</v>
       </c>
       <c r="F131">
-        <v>45.569343566894531</v>
+        <v>254.5556335449219</v>
       </c>
       <c r="G131">
-        <v>5.6440289248932199E-2</v>
+        <v>0.1139179648872789</v>
       </c>
       <c r="H131">
-        <v>56.230305850113687</v>
+        <v>342.3636567815262</v>
       </c>
       <c r="I131">
-        <v>0.13903992857455319</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.305486360694957</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>9</v>
       </c>
@@ -4352,25 +4326,25 @@
         <v>1</v>
       </c>
       <c r="D132">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E132">
-        <v>86021.078125</v>
+        <v>11040.7421875</v>
       </c>
       <c r="F132">
-        <v>258.28729248046881</v>
+        <v>84.22175598144531</v>
       </c>
       <c r="G132">
-        <v>0.20666593298909411</v>
+        <v>0.1332207316580758</v>
       </c>
       <c r="H132">
-        <v>293.26102914298713</v>
+        <v>105.066273817582</v>
       </c>
       <c r="I132">
-        <v>-3.4740697430325769</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.1691195783642594</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
         <v>9</v>
       </c>
@@ -4381,25 +4355,25 @@
         <v>2</v>
       </c>
       <c r="D133">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="E133">
-        <v>13050.40625</v>
+        <v>2826.549560546875</v>
       </c>
       <c r="F133">
-        <v>84.175811767578125</v>
+        <v>39.00207138061523</v>
       </c>
       <c r="G133">
-        <v>6.4876886403607198E-2</v>
+        <v>0.0969845177832602</v>
       </c>
       <c r="H133">
-        <v>113.6613760415016</v>
+        <v>51.75919609305772</v>
       </c>
       <c r="I133">
-        <v>0.4249804476063348</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.2828754567271687</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
         <v>9</v>
       </c>
@@ -4410,25 +4384,25 @@
         <v>3</v>
       </c>
       <c r="D134">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="E134">
-        <v>6181.93505859375</v>
+        <v>7103.66455078125</v>
       </c>
       <c r="F134">
-        <v>61.279953002929688</v>
+        <v>51.41776657104492</v>
       </c>
       <c r="G134">
-        <v>4.8184380711217299E-2</v>
+        <v>0.0775109284521884</v>
       </c>
       <c r="H134">
-        <v>78.297699755711022</v>
+        <v>80.42060042535644</v>
       </c>
       <c r="I134">
-        <v>0.51827508303241532</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.6554125765630651</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -4439,25 +4413,25 @@
         <v>4</v>
       </c>
       <c r="D135">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="E135">
-        <v>16790.962890625</v>
+        <v>429399.9375</v>
       </c>
       <c r="F135">
-        <v>103.91368103027339</v>
+        <v>622.3036499023438</v>
       </c>
       <c r="G135">
-        <v>0.17638227655627969</v>
+        <v>0.4056338719389565</v>
       </c>
       <c r="H135">
-        <v>128.5246650072952</v>
+        <v>655.2802472533649</v>
       </c>
       <c r="I135">
-        <v>-0.46180607599719969</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-9.664808876783637</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>9</v>
       </c>
@@ -4468,25 +4442,25 @@
         <v>5</v>
       </c>
       <c r="D136">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="E136">
-        <v>3274.45556640625</v>
+        <v>129226.078125</v>
       </c>
       <c r="F136">
-        <v>44.800010681152337</v>
+        <v>277.5005187988281</v>
       </c>
       <c r="G136">
-        <v>5.5746605463259297E-2</v>
+        <v>0.1263293974383774</v>
       </c>
       <c r="H136">
-        <v>55.120989031012527</v>
+        <v>359.1857998888491</v>
       </c>
       <c r="I136">
-        <v>0.17320249978149629</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.2335289589937829</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -4497,25 +4471,25 @@
         <v>1</v>
       </c>
       <c r="D137">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E137">
-        <v>84357.09375</v>
+        <v>11486.625</v>
       </c>
       <c r="F137">
-        <v>255.0281982421875</v>
+        <v>86.50559234619141</v>
       </c>
       <c r="G137">
-        <v>0.20390180852179349</v>
+        <v>0.1371174039903586</v>
       </c>
       <c r="H137">
-        <v>290.41041002498611</v>
+        <v>107.1514790335892</v>
       </c>
       <c r="I137">
-        <v>-3.387475588761363</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.2169990075082332</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
         <v>9</v>
       </c>
@@ -4526,25 +4500,25 @@
         <v>2</v>
       </c>
       <c r="D138">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E138">
-        <v>13339.91796875</v>
+        <v>3260.22412109375</v>
       </c>
       <c r="F138">
-        <v>91.235466003417955</v>
+        <v>42.76593399047852</v>
       </c>
       <c r="G138">
-        <v>6.8774266486628502E-2</v>
+        <v>0.1047803914368084</v>
       </c>
       <c r="H138">
-        <v>115.10238387677499</v>
+        <v>57.02996931292577</v>
       </c>
       <c r="I138">
-        <v>0.41282031444842648</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.1721114581236068</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -4555,25 +4529,25 @@
         <v>3</v>
       </c>
       <c r="D139">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E139">
-        <v>6038.8310546875</v>
+        <v>7471.39599609375</v>
       </c>
       <c r="F139">
-        <v>62.239765167236328</v>
+        <v>53.89161682128906</v>
       </c>
       <c r="G139">
-        <v>4.92778310309573E-2</v>
+        <v>0.08245036026335791</v>
       </c>
       <c r="H139">
-        <v>76.989226904031739</v>
+        <v>83.14845067376822</v>
       </c>
       <c r="I139">
-        <v>0.52724814188372493</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.6344725711594358</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -4584,25 +4558,25 @@
         <v>4</v>
       </c>
       <c r="D140">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E140">
-        <v>20920.89453125</v>
+        <v>1136151</v>
       </c>
       <c r="F140">
-        <v>114.0218200683594</v>
+        <v>1046.300659179688</v>
       </c>
       <c r="G140">
-        <v>0.18905563793648111</v>
+        <v>0.6947854091932062</v>
       </c>
       <c r="H140">
-        <v>143.0665906247969</v>
+        <v>1065.812480029373</v>
       </c>
       <c r="I140">
-        <v>-0.82303417528745892</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-27.2211009339137</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>9</v>
       </c>
@@ -4613,25 +4587,25 @@
         <v>5</v>
       </c>
       <c r="D141">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E141">
-        <v>3904.5205078125</v>
+        <v>145106.15625</v>
       </c>
       <c r="F141">
-        <v>48.888397216796882</v>
+        <v>282.6969604492188</v>
       </c>
       <c r="G141">
-        <v>6.1061933052890802E-2</v>
+        <v>0.1267373509662231</v>
       </c>
       <c r="H141">
-        <v>59.795823801117329</v>
+        <v>380.9016687875706</v>
       </c>
       <c r="I141">
-        <v>1.23193171070429E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.1406170142783503</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
         <v>9</v>
       </c>
@@ -4642,25 +4616,25 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="E142">
-        <v>86619.546875</v>
+        <v>12102.2109375</v>
       </c>
       <c r="F142">
-        <v>259.41522216796881</v>
+        <v>89.35620880126953</v>
       </c>
       <c r="G142">
-        <v>0.20761844894549869</v>
+        <v>0.1411459028656941</v>
       </c>
       <c r="H142">
-        <v>294.28396956849662</v>
+        <v>109.9829298329713</v>
       </c>
       <c r="I142">
-        <v>-3.5061442631479842</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.2822716827543206</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -4671,25 +4645,25 @@
         <v>2</v>
       </c>
       <c r="D143">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="E143">
-        <v>12952.697265625</v>
+        <v>2857.15869140625</v>
       </c>
       <c r="F143">
-        <v>87.998031616210938</v>
+        <v>38.91653442382812</v>
       </c>
       <c r="G143">
-        <v>6.7113647948808905E-2</v>
+        <v>0.0973347538986503</v>
       </c>
       <c r="H143">
-        <v>113.1866755990891</v>
+        <v>52.09400575009672</v>
       </c>
       <c r="I143">
-        <v>0.42910624715407991</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.2750869199056253</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
         <v>9</v>
       </c>
@@ -4700,25 +4674,25 @@
         <v>3</v>
       </c>
       <c r="D144">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E144">
-        <v>6177.14599609375</v>
+        <v>6920.34912109375</v>
       </c>
       <c r="F144">
-        <v>62.637042999267578</v>
+        <v>51.04093933105469</v>
       </c>
       <c r="G144">
-        <v>4.9704855162281902E-2</v>
+        <v>0.0769209465080954</v>
       </c>
       <c r="H144">
-        <v>78.026027392255671</v>
+        <v>79.59606365290601</v>
       </c>
       <c r="I144">
-        <v>0.51679891159065494</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.6633129111338452</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
         <v>9</v>
       </c>
@@ -4729,25 +4703,25 @@
         <v>4</v>
       </c>
       <c r="D145">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E145">
-        <v>19934</v>
+        <v>420658.40625</v>
       </c>
       <c r="F145">
-        <v>111.041374206543</v>
+        <v>616.0314331054688</v>
       </c>
       <c r="G145">
-        <v>0.18353367649961719</v>
+        <v>0.4015623169752693</v>
       </c>
       <c r="H145">
-        <v>140.3151222629848</v>
+        <v>648.5582960861522</v>
       </c>
       <c r="I145">
-        <v>-0.74473928211679097</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-9.449452621083374</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
         <v>9</v>
       </c>
@@ -4758,22 +4732,22 @@
         <v>5</v>
       </c>
       <c r="D146">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E146">
-        <v>4014.67431640625</v>
+        <v>165801.3125</v>
       </c>
       <c r="F146">
-        <v>49.764118194580078</v>
+        <v>306.791748046875</v>
       </c>
       <c r="G146">
-        <v>6.2268625065810601E-2</v>
+        <v>0.1373641200836384</v>
       </c>
       <c r="H146">
-        <v>60.982715221372089</v>
+        <v>407.146707959932</v>
       </c>
       <c r="I146">
-        <v>-1.3822473508666101E-2</v>
+        <v>0.0179239398929017</v>
       </c>
     </row>
   </sheetData>
@@ -4782,14 +4756,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4833,7 +4807,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -4841,43 +4815,43 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>35685.786425781247</v>
+        <v>139187.867578125</v>
       </c>
       <c r="D2">
-        <v>124.9282783508301</v>
+        <v>233.2083259582519</v>
       </c>
       <c r="E2">
-        <v>0.117779621779807</v>
+        <v>0.1866976296412254</v>
       </c>
       <c r="F2">
-        <v>144.77111713119001</v>
+        <v>269.1717191785073</v>
       </c>
       <c r="G2">
-        <v>-1.05609500876643</v>
+        <v>-2.462633224432884</v>
       </c>
       <c r="H2">
-        <v>54.2</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="I2">
-        <v>61783.370671099663</v>
+        <v>238395.5570125269</v>
       </c>
       <c r="J2">
-        <v>127.3363887450797</v>
+        <v>283.2469335233396</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="M2">
-        <v>3810.57763671875</v>
+        <v>3913.98388671875</v>
       </c>
       <c r="N2">
-        <v>48.665904998779297</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+        <v>47.86849594116211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -4885,43 +4859,43 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>28691.080859375001</v>
+        <v>158938.8000976563</v>
       </c>
       <c r="D3">
-        <v>116.5107437133789</v>
+        <v>246.8836647033691</v>
       </c>
       <c r="E3">
-        <v>0.1054918302594248</v>
+        <v>0.1939729218075528</v>
       </c>
       <c r="F3">
-        <v>136.63383136809509</v>
+        <v>282.0983814738233</v>
       </c>
       <c r="G3">
-        <v>-0.65411309942204021</v>
+        <v>-2.890168850842406</v>
       </c>
       <c r="H3">
-        <v>61.8</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="I3">
-        <v>41579.600698963011</v>
+        <v>277903.9840965926</v>
       </c>
       <c r="J3">
-        <v>100.5247388764479</v>
+        <v>310.4086889982332</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M3">
-        <v>3725.675048828125</v>
+        <v>3120.37060546875</v>
       </c>
       <c r="N3">
-        <v>47.985088348388672</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+        <v>41.18591690063477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4929,43 +4903,43 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>26553.073974609379</v>
+        <v>160894.489453125</v>
       </c>
       <c r="D4">
-        <v>109.33239517211911</v>
+        <v>253.4454399108887</v>
       </c>
       <c r="E4">
-        <v>0.1011468862002582</v>
+        <v>0.1953066198823045</v>
       </c>
       <c r="F4">
-        <v>130.1029608600777</v>
+        <v>296.4807555814347</v>
       </c>
       <c r="G4">
-        <v>-0.55199350679419978</v>
+        <v>-2.570020536969787</v>
       </c>
       <c r="H4">
-        <v>59.6</v>
+        <v>62.8</v>
       </c>
       <c r="I4">
-        <v>41413.199651671057</v>
+        <v>238107.7945454493</v>
       </c>
       <c r="J4">
-        <v>99.251470140089339</v>
+        <v>285.1532291411983</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M4">
-        <v>3580.9697265625</v>
+        <v>4161.42138671875</v>
       </c>
       <c r="N4">
-        <v>46.670093536376953</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+        <v>49.46764373779297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -4973,43 +4947,43 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>57488.015917968747</v>
+        <v>219132.2216796875</v>
       </c>
       <c r="D5">
-        <v>157.76667633056641</v>
+        <v>283.8322731018067</v>
       </c>
       <c r="E5">
-        <v>0.1522244816896946</v>
+        <v>0.2120039793810279</v>
       </c>
       <c r="F5">
-        <v>177.41732747995101</v>
+        <v>336.2549403105459</v>
       </c>
       <c r="G5">
-        <v>-2.2725908923256939</v>
+        <v>-3.781475079440732</v>
       </c>
       <c r="H5">
-        <v>38.799999999999997</v>
+        <v>47.2</v>
       </c>
       <c r="I5">
-        <v>105970.3376340838</v>
+        <v>338818.1892205265</v>
       </c>
       <c r="J5">
-        <v>178.37553233548681</v>
+        <v>343.2055430936943</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M5">
-        <v>4712.1240234375</v>
+        <v>3121.62939453125</v>
       </c>
       <c r="N5">
-        <v>56.141639709472663</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+        <v>40.29271697998047</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -5017,43 +4991,43 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>180278.28427734369</v>
+        <v>141870.1409667969</v>
       </c>
       <c r="D6">
-        <v>233.03593749999999</v>
+        <v>261.5030288696289</v>
       </c>
       <c r="E6">
-        <v>0.21338394365705279</v>
+        <v>0.2379994592089473</v>
       </c>
       <c r="F6">
-        <v>263.74636221067522</v>
+        <v>300.4352947644451</v>
       </c>
       <c r="G6">
-        <v>-8.6864312072336052</v>
+        <v>-3.570786992739164</v>
       </c>
       <c r="H6">
-        <v>33.4</v>
+        <v>58.6</v>
       </c>
       <c r="I6">
-        <v>380557.50763489428</v>
+        <v>189314.4471008205</v>
       </c>
       <c r="J6">
-        <v>348.94927295724301</v>
+        <v>245.5778988767005</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>5213.78662109375</v>
+        <v>3190.403564453125</v>
       </c>
       <c r="N6">
-        <v>59.541847229003913</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+        <v>41.86094284057617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -5061,43 +5035,43 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>101898.90390624999</v>
+        <v>338587.6510742187</v>
       </c>
       <c r="D7">
-        <v>171.78965301513671</v>
+        <v>357.2299659729004</v>
       </c>
       <c r="E7">
-        <v>0.1520329520359589</v>
+        <v>0.267594593395191</v>
       </c>
       <c r="F7">
-        <v>206.21939025152861</v>
+        <v>403.7777452943855</v>
       </c>
       <c r="G7">
-        <v>-4.4783158596241517</v>
+        <v>-6.644480342664433</v>
       </c>
       <c r="H7">
-        <v>45.6</v>
+        <v>38</v>
       </c>
       <c r="I7">
-        <v>208964.52565071109</v>
+        <v>567312.348910292</v>
       </c>
       <c r="J7">
-        <v>229.04040940391019</v>
+        <v>460.8902010171989</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="M7">
-        <v>3621.72314453125</v>
+        <v>4410.0439453125</v>
       </c>
       <c r="N7">
-        <v>46.998710632324219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+        <v>51.33213424682617</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -5105,43 +5079,43 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>65825.260058593747</v>
+        <v>200167.3079101563</v>
       </c>
       <c r="D8">
-        <v>150.12521133422851</v>
+        <v>275.1842193603516</v>
       </c>
       <c r="E8">
-        <v>0.15106915796400139</v>
+        <v>0.2125230612460861</v>
       </c>
       <c r="F8">
-        <v>186.12486060083251</v>
+        <v>316.6003627299231</v>
       </c>
       <c r="G8">
-        <v>-2.7223902382401359</v>
+        <v>-3.790973584725634</v>
       </c>
       <c r="H8">
-        <v>46.2</v>
+        <v>51.2</v>
       </c>
       <c r="I8">
-        <v>123225.83984101791</v>
+        <v>343886.4072095952</v>
       </c>
       <c r="J8">
-        <v>158.51419409056979</v>
+        <v>344.9988603243421</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M8">
-        <v>4324.62451171875</v>
+        <v>4169.19287109375</v>
       </c>
       <c r="N8">
-        <v>52.194000244140632</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+        <v>51.07997512817383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -5149,43 +5123,43 @@
         <v>24</v>
       </c>
       <c r="C9">
-        <v>28548.966113281251</v>
+        <v>156447.5838378906</v>
       </c>
       <c r="D9">
-        <v>120.0849678039551</v>
+        <v>250.2441337585449</v>
       </c>
       <c r="E9">
-        <v>0.12475338391521031</v>
+        <v>0.1978058938739946</v>
       </c>
       <c r="F9">
-        <v>141.67185433068391</v>
+        <v>291.6865314660556</v>
       </c>
       <c r="G9">
-        <v>-0.77870383555376999</v>
+        <v>-2.691758547622447</v>
       </c>
       <c r="H9">
-        <v>51</v>
+        <v>53.6</v>
       </c>
       <c r="I9">
-        <v>41665.92409583761</v>
+        <v>244859.8180302028</v>
       </c>
       <c r="J9">
-        <v>95.971987161014098</v>
+        <v>284.7157231956694</v>
       </c>
       <c r="K9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="M9">
-        <v>4899.40673828125</v>
+        <v>3354.867431640625</v>
       </c>
       <c r="N9">
-        <v>55.988296508789063</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+        <v>42.77275466918945</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5193,43 +5167,43 @@
         <v>26</v>
       </c>
       <c r="C10">
-        <v>24858.289941406249</v>
+        <v>241830.0829589844</v>
       </c>
       <c r="D10">
-        <v>111.55619735717769</v>
+        <v>297.1540412902832</v>
       </c>
       <c r="E10">
-        <v>0.1118649091666462</v>
+        <v>0.2301493304667286</v>
       </c>
       <c r="F10">
-        <v>135.51519379039649</v>
+        <v>333.6193537064602</v>
       </c>
       <c r="G10">
-        <v>-0.61152082532504948</v>
+        <v>-4.890837922603644</v>
       </c>
       <c r="H10">
-        <v>39.6</v>
+        <v>28.2</v>
       </c>
       <c r="I10">
-        <v>33325.51772651184</v>
+        <v>446921.9220306177</v>
       </c>
       <c r="J10">
-        <v>81.522179785112399</v>
+        <v>402.4517716651005</v>
       </c>
       <c r="K10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M10">
-        <v>5256.7919921875</v>
+        <v>3969.239501953125</v>
       </c>
       <c r="N10">
-        <v>58.059108734130859</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+        <v>50.90125274658203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5237,43 +5211,43 @@
         <v>33</v>
       </c>
       <c r="C11">
-        <v>25993.59897460938</v>
+        <v>142136.9103027344</v>
       </c>
       <c r="D11">
-        <v>113.9008171081543</v>
+        <v>233.316544342041</v>
       </c>
       <c r="E11">
-        <v>0.1144160440936037</v>
+        <v>0.1831417475220149</v>
       </c>
       <c r="F11">
-        <v>137.1092970593094</v>
+        <v>269.1467184974564</v>
       </c>
       <c r="G11">
-        <v>-0.67205265740201747</v>
+        <v>-2.440620225393673</v>
       </c>
       <c r="H11">
-        <v>35.6</v>
+        <v>41</v>
       </c>
       <c r="I11">
-        <v>34358.470658176673</v>
+        <v>242018.2891215574</v>
       </c>
       <c r="J11">
-        <v>85.059542784391624</v>
+        <v>288.1447943354291</v>
       </c>
       <c r="K11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="M11">
-        <v>3923.290771484375</v>
+        <v>2927.558837890625</v>
       </c>
       <c r="N11">
-        <v>48.776420593261719</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+        <v>39.46227645874024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5281,43 +5255,43 @@
         <v>32</v>
       </c>
       <c r="C12">
-        <v>23833.81381835938</v>
+        <v>126304.9360351562</v>
       </c>
       <c r="D12">
-        <v>107.8121459960937</v>
+        <v>225.2748947143555</v>
       </c>
       <c r="E12">
-        <v>0.10922179521732819</v>
+        <v>0.1787964136464976</v>
       </c>
       <c r="F12">
-        <v>128.23593351720521</v>
+        <v>263.9677402718347</v>
       </c>
       <c r="G12">
-        <v>-0.48541199224884007</v>
+        <v>-1.984960663850443</v>
       </c>
       <c r="H12">
-        <v>49.2</v>
+        <v>33.8</v>
       </c>
       <c r="I12">
-        <v>35169.92478928178</v>
+        <v>196297.7370266577</v>
       </c>
       <c r="J12">
-        <v>86.672630912622665</v>
+        <v>255.4010117183601</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="M12">
-        <v>3597.878173828125</v>
+        <v>3551.248046875</v>
       </c>
       <c r="N12">
-        <v>46.983749389648438</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+        <v>45.21559524536133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -5325,43 +5299,43 @@
         <v>37</v>
       </c>
       <c r="C13">
-        <v>25712.251562500001</v>
+        <v>260695.0802734375</v>
       </c>
       <c r="D13">
-        <v>114.2827293395996</v>
+        <v>302.4321525573731</v>
       </c>
       <c r="E13">
-        <v>0.1144142954057502</v>
+        <v>0.2291741831699909</v>
       </c>
       <c r="F13">
-        <v>137.07288704634141</v>
+        <v>338.8088095674453</v>
       </c>
       <c r="G13">
-        <v>-0.65162439812192552</v>
+        <v>-5.298179779572108</v>
       </c>
       <c r="H13">
-        <v>33.4</v>
+        <v>29.4</v>
       </c>
       <c r="I13">
-        <v>33458.443867667847</v>
+        <v>493022.2257571457</v>
       </c>
       <c r="J13">
-        <v>82.652011819401253</v>
+        <v>427.0693899489581</v>
       </c>
       <c r="K13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="M13">
-        <v>3904.5205078125</v>
+        <v>3260.22412109375</v>
       </c>
       <c r="N13">
-        <v>48.888397216796882</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+        <v>42.76593399047852</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -5369,43 +5343,43 @@
         <v>25</v>
       </c>
       <c r="C14">
-        <v>28375.727343750001</v>
+        <v>85087.40659179687</v>
       </c>
       <c r="D14">
-        <v>116.8743293762207</v>
+        <v>187.2726188659668</v>
       </c>
       <c r="E14">
-        <v>0.1170641184073062</v>
+        <v>0.1497047690717355</v>
       </c>
       <c r="F14">
-        <v>143.36421522507129</v>
+        <v>224.2467031773037</v>
       </c>
       <c r="G14">
-        <v>-0.81315843947587607</v>
+        <v>-0.978771072820475</v>
       </c>
       <c r="H14">
-        <v>38</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="I14">
-        <v>37862.236665150143</v>
+        <v>119345.0953083747</v>
       </c>
       <c r="J14">
-        <v>88.659431057202809</v>
+        <v>191.8399490888578</v>
       </c>
       <c r="K14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="M14">
-        <v>4625.2666015625</v>
+        <v>2778.181884765625</v>
       </c>
       <c r="N14">
-        <v>54.161415100097663</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+        <v>38.24588012695312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -5413,43 +5387,43 @@
         <v>28</v>
       </c>
       <c r="C15">
-        <v>47743.889355468753</v>
+        <v>129432.6854980469</v>
       </c>
       <c r="D15">
-        <v>146.4880081176758</v>
+        <v>225.9145629882813</v>
       </c>
       <c r="E15">
-        <v>0.14102635227848931</v>
+        <v>0.1781195476909624</v>
       </c>
       <c r="F15">
-        <v>165.61691790657241</v>
+        <v>265.3687200433632</v>
       </c>
       <c r="G15">
-        <v>-1.7649386233985671</v>
+        <v>-2.040601752342188</v>
       </c>
       <c r="H15">
-        <v>24.6</v>
+        <v>36.8</v>
       </c>
       <c r="I15">
-        <v>84693.011044509214</v>
+        <v>201775.5404543118</v>
       </c>
       <c r="J15">
-        <v>156.5380168991349</v>
+        <v>257.9593204162142</v>
       </c>
       <c r="K15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M15">
-        <v>4137.982421875</v>
+        <v>4019.853759765625</v>
       </c>
       <c r="N15">
-        <v>50.533279418945313</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+        <v>50.23584747314453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -5457,43 +5431,43 @@
         <v>29</v>
       </c>
       <c r="C16">
-        <v>24873.3203125</v>
+        <v>130796.8555664062</v>
       </c>
       <c r="D16">
-        <v>112.33619689941411</v>
+        <v>226.8419136047363</v>
       </c>
       <c r="E16">
-        <v>0.1147017919186875</v>
+        <v>0.1791247040438374</v>
       </c>
       <c r="F16">
-        <v>132.84086996053699</v>
+        <v>264.0283213981053</v>
       </c>
       <c r="G16">
-        <v>-0.53971028879768812</v>
+        <v>-2.126827093114433</v>
       </c>
       <c r="H16">
-        <v>37.6</v>
+        <v>41.2</v>
       </c>
       <c r="I16">
-        <v>35341.388965654347</v>
+        <v>211622.7733195779</v>
       </c>
       <c r="J16">
-        <v>85.966197118125109</v>
+        <v>267.2062832863788</v>
       </c>
       <c r="K16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M16">
-        <v>3643.86181640625</v>
+        <v>2881.595703125</v>
       </c>
       <c r="N16">
-        <v>47.464714050292969</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+        <v>38.99174880981445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -5501,43 +5475,43 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>24933.470410156249</v>
+        <v>123013.3225585937</v>
       </c>
       <c r="D17">
-        <v>111.6054893493652</v>
+        <v>216.1368728637695</v>
       </c>
       <c r="E17">
-        <v>0.11835474108537559</v>
+        <v>0.1684232902283749</v>
       </c>
       <c r="F17">
-        <v>132.92451316849071</v>
+        <v>253.8534578474003</v>
       </c>
       <c r="G17">
-        <v>-0.5658063539496716</v>
+        <v>-1.947711690120549</v>
       </c>
       <c r="H17">
-        <v>42</v>
+        <v>46.2</v>
       </c>
       <c r="I17">
-        <v>34785.788374412128</v>
+        <v>203613.7523254298</v>
       </c>
       <c r="J17">
-        <v>86.324586518861537</v>
+        <v>259.4694789295662</v>
       </c>
       <c r="K17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M17">
-        <v>3408.5751953125</v>
+        <v>2692.53125</v>
       </c>
       <c r="N17">
-        <v>45.569343566894531</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+        <v>37.82160186767578</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -5545,43 +5519,43 @@
         <v>38</v>
       </c>
       <c r="C18">
-        <v>25939.612890625001</v>
+        <v>121667.8875</v>
       </c>
       <c r="D18">
-        <v>114.17115783691411</v>
+        <v>220.4273727416992</v>
       </c>
       <c r="E18">
-        <v>0.1140478507244035</v>
+        <v>0.1708656080662695</v>
       </c>
       <c r="F18">
-        <v>137.35890200883961</v>
+        <v>259.4756006564116</v>
       </c>
       <c r="G18">
-        <v>-0.66376017200574133</v>
+        <v>-1.755080106581065</v>
       </c>
       <c r="H18">
-        <v>34.4</v>
+        <v>40.8</v>
       </c>
       <c r="I18">
-        <v>34489.272901989847</v>
+        <v>180714.3559801427</v>
       </c>
       <c r="J18">
-        <v>84.549834495299663</v>
+        <v>246.363033025091</v>
       </c>
       <c r="K18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>4014.67431640625</v>
+        <v>2857.15869140625</v>
       </c>
       <c r="N18">
-        <v>49.764118194580078</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+        <v>38.91653442382812</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -5589,43 +5563,43 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>24197.81215820312</v>
+        <v>111441.9395996094</v>
       </c>
       <c r="D19">
-        <v>110.2131393432617</v>
+        <v>209.8046806335449</v>
       </c>
       <c r="E19">
-        <v>0.1102446246004111</v>
+        <v>0.1638567319318689</v>
       </c>
       <c r="F19">
-        <v>131.94352831392041</v>
+        <v>248.1015256914245</v>
       </c>
       <c r="G19">
-        <v>-0.53449563798093602</v>
+        <v>-1.576983245524407</v>
       </c>
       <c r="H19">
-        <v>30.6</v>
+        <v>47</v>
       </c>
       <c r="I19">
-        <v>33480.75490525012</v>
+        <v>169770.977527968</v>
       </c>
       <c r="J19">
-        <v>82.560373509006865</v>
+        <v>237.1592783644246</v>
       </c>
       <c r="K19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="M19">
-        <v>3880.313720703125</v>
+        <v>2817.332275390625</v>
       </c>
       <c r="N19">
-        <v>49.427356719970703</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+        <v>38.5756721496582</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -5633,43 +5607,43 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>24160.280322265629</v>
+        <v>183359.2536132812</v>
       </c>
       <c r="D20">
-        <v>110.9517890930176</v>
+        <v>260.592406463623</v>
       </c>
       <c r="E20">
-        <v>0.1112704805632645</v>
+        <v>0.2004634746078554</v>
       </c>
       <c r="F20">
-        <v>131.30512064836401</v>
+        <v>296.739762667835</v>
       </c>
       <c r="G20">
-        <v>-0.51276102371203547</v>
+        <v>-3.384329413787839</v>
       </c>
       <c r="H20">
-        <v>38</v>
+        <v>48.6</v>
       </c>
       <c r="I20">
-        <v>33823.487016153464</v>
+        <v>325034.7617185961</v>
       </c>
       <c r="J20">
-        <v>83.201674298034433</v>
+        <v>340.5389777134112</v>
       </c>
       <c r="K20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>3870.295654296875</v>
+        <v>2989.56396484375</v>
       </c>
       <c r="N20">
-        <v>48.7203369140625</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+        <v>40.20781707763672</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -5677,43 +5651,43 @@
         <v>36</v>
       </c>
       <c r="C21">
-        <v>25063.767578125</v>
+        <v>115919.3943847656</v>
       </c>
       <c r="D21">
-        <v>110.49134979248051</v>
+        <v>214.8891525268555</v>
       </c>
       <c r="E21">
-        <v>0.1103712164246915</v>
+        <v>0.1679358894541716</v>
       </c>
       <c r="F21">
-        <v>133.77315179570149</v>
+        <v>250.342423495642</v>
       </c>
       <c r="G21">
-        <v>-0.56388355772190601</v>
+        <v>-1.732422292572776</v>
       </c>
       <c r="H21">
-        <v>37.200000000000003</v>
+        <v>52.2</v>
       </c>
       <c r="I21">
-        <v>34495.838785806569</v>
+        <v>183082.9764344828</v>
       </c>
       <c r="J21">
-        <v>85.61034918620328</v>
+        <v>247.305420340203</v>
       </c>
       <c r="K21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>3274.45556640625</v>
+        <v>2826.549560546875</v>
       </c>
       <c r="N21">
-        <v>44.800010681152337</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+        <v>39.00207138061523</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -5721,43 +5695,43 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>33632.633447265624</v>
+        <v>129746.6041503906</v>
       </c>
       <c r="D22">
-        <v>119.53964691162111</v>
+        <v>226.3809143066406</v>
       </c>
       <c r="E22">
-        <v>0.1175970654590752</v>
+        <v>0.1803341174119735</v>
       </c>
       <c r="F22">
-        <v>148.211200646788</v>
+        <v>266.1820825678554</v>
       </c>
       <c r="G22">
-        <v>-1.0180094789206959</v>
+        <v>-2.078281480526934</v>
       </c>
       <c r="H22">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I22">
-        <v>52378.556388874087</v>
+        <v>203198.8489785462</v>
       </c>
       <c r="J22">
-        <v>101.89127223584801</v>
+        <v>258.8917839269422</v>
       </c>
       <c r="K22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M22">
-        <v>3553.909423828125</v>
+        <v>3963.161376953125</v>
       </c>
       <c r="N22">
-        <v>46.766437530517578</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+        <v>48.36641311645508</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -5765,43 +5739,43 @@
         <v>34</v>
       </c>
       <c r="C23">
-        <v>23295.503955078129</v>
+        <v>101909.809375</v>
       </c>
       <c r="D23">
-        <v>107.2926010131836</v>
+        <v>200.6411285400391</v>
       </c>
       <c r="E23">
-        <v>0.10923185620458389</v>
+        <v>0.1613634122811558</v>
       </c>
       <c r="F23">
-        <v>128.18009363083851</v>
+        <v>241.721128277823</v>
       </c>
       <c r="G23">
-        <v>-0.4516548559115468</v>
+        <v>-1.43848144623866</v>
       </c>
       <c r="H23">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I23">
-        <v>33025.893692857673</v>
+        <v>151470.3415945497</v>
       </c>
       <c r="J23">
-        <v>82.464164160029767</v>
+        <v>214.8583067931739</v>
       </c>
       <c r="K23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="M23">
-        <v>3418.715087890625</v>
+        <v>3144.64453125</v>
       </c>
       <c r="N23">
-        <v>45.816856384277337</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+        <v>41.15015029907227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -5809,43 +5783,43 @@
         <v>15</v>
       </c>
       <c r="C24">
-        <v>31288.5400390625</v>
+        <v>162843.8879882813</v>
       </c>
       <c r="D24">
-        <v>111.4091255187988</v>
+        <v>247.2320487976074</v>
       </c>
       <c r="E24">
-        <v>0.10217626016686659</v>
+        <v>0.1935061331539094</v>
       </c>
       <c r="F24">
-        <v>135.6590994598015</v>
+        <v>288.7383029922421</v>
       </c>
       <c r="G24">
-        <v>-0.81589948340686258</v>
+        <v>-2.935771039276339</v>
       </c>
       <c r="H24">
-        <v>57.8</v>
+        <v>56.4</v>
       </c>
       <c r="I24">
-        <v>53641.486737300489</v>
+        <v>277193.2020127711</v>
       </c>
       <c r="J24">
-        <v>108.4879590788349</v>
+        <v>304.1508791929915</v>
       </c>
       <c r="K24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>3662.671142578125</v>
+        <v>3283.640625</v>
       </c>
       <c r="N24">
-        <v>46.640106201171882</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+        <v>41.0859260559082</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -5853,43 +5827,43 @@
         <v>21</v>
       </c>
       <c r="C25">
-        <v>56600.462500000001</v>
+        <v>296894.3466308594</v>
       </c>
       <c r="D25">
-        <v>155.94213333129881</v>
+        <v>337.9976661682129</v>
       </c>
       <c r="E25">
-        <v>0.1499693594373798</v>
+        <v>0.2443668123137681</v>
       </c>
       <c r="F25">
-        <v>174.6664458549505</v>
+        <v>394.990806767824</v>
       </c>
       <c r="G25">
-        <v>-2.1889542867654539</v>
+        <v>-4.507231145237497</v>
       </c>
       <c r="H25">
-        <v>38.6</v>
+        <v>43.6</v>
       </c>
       <c r="I25">
-        <v>104311.3013572394</v>
+        <v>401429.5065610249</v>
       </c>
       <c r="J25">
-        <v>178.43719540433631</v>
+        <v>383.1669824176801</v>
       </c>
       <c r="K25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M25">
-        <v>3756.8994140625</v>
+        <v>4088.483154296875</v>
       </c>
       <c r="N25">
-        <v>47.672214508056641</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+        <v>49.86845779418945</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -5897,43 +5871,43 @@
         <v>22</v>
       </c>
       <c r="C26">
-        <v>67285.988964843753</v>
+        <v>152460.1631347656</v>
       </c>
       <c r="D26">
-        <v>188.65048980712891</v>
+        <v>243.3716125488281</v>
       </c>
       <c r="E26">
-        <v>0.17215887502533661</v>
+        <v>0.1887539962601965</v>
       </c>
       <c r="F26">
-        <v>210.24139519426379</v>
+        <v>286.5154641624789</v>
       </c>
       <c r="G26">
-        <v>-2.6460175754538628</v>
+        <v>-2.507645997283766</v>
       </c>
       <c r="H26">
-        <v>28.2</v>
+        <v>59.6</v>
       </c>
       <c r="I26">
-        <v>84176.776491705023</v>
+        <v>237195.0545545104</v>
       </c>
       <c r="J26">
-        <v>161.09734498572621</v>
+        <v>281.099599064477</v>
       </c>
       <c r="K26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M26">
-        <v>5733.232421875</v>
+        <v>3025.489013671875</v>
       </c>
       <c r="N26">
-        <v>60.571426391601563</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+        <v>40.07379150390625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -5941,43 +5915,43 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>32832.225195312501</v>
+        <v>276936.6244140625</v>
       </c>
       <c r="D27">
-        <v>120.0105735778809</v>
+        <v>311.0971916198731</v>
       </c>
       <c r="E27">
-        <v>0.11230218050069669</v>
+        <v>0.2381290840765765</v>
       </c>
       <c r="F27">
-        <v>138.3683655702593</v>
+        <v>350.6012064752377</v>
       </c>
       <c r="G27">
-        <v>-0.90360751916183535</v>
+        <v>-5.76414482923779</v>
       </c>
       <c r="H27">
-        <v>61.6</v>
+        <v>50.2</v>
       </c>
       <c r="I27">
-        <v>57188.546628335753</v>
+        <v>526311.754558148</v>
       </c>
       <c r="J27">
-        <v>124.17845545289509</v>
+        <v>438.5090197947296</v>
       </c>
       <c r="K27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>3976.59521484375</v>
+        <v>3924.5009765625</v>
       </c>
       <c r="N27">
-        <v>49.427791595458977</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+        <v>46.21036148071289</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -5985,43 +5959,43 @@
         <v>16</v>
       </c>
       <c r="C28">
-        <v>26464.337988281251</v>
+        <v>400104.5002929688</v>
       </c>
       <c r="D28">
-        <v>111.981909942627</v>
+        <v>368.7985809326172</v>
       </c>
       <c r="E28">
-        <v>0.1066932072720873</v>
+        <v>0.2739668423369297</v>
       </c>
       <c r="F28">
-        <v>132.13181545486299</v>
+        <v>407.5092732932844</v>
       </c>
       <c r="G28">
-        <v>-0.58660530307493708</v>
+        <v>-8.618269878022868</v>
       </c>
       <c r="H28">
-        <v>52.2</v>
+        <v>59.8</v>
       </c>
       <c r="I28">
-        <v>41291.776628419517</v>
+        <v>776483.5405483601</v>
       </c>
       <c r="J28">
-        <v>97.499483834253809</v>
+        <v>545.402299746678</v>
       </c>
       <c r="K28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M28">
-        <v>3787.716796875</v>
+        <v>3158.03662109375</v>
       </c>
       <c r="N28">
-        <v>48.383140563964851</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+        <v>41.56772232055664</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -6029,43 +6003,43 @@
         <v>17</v>
       </c>
       <c r="C29">
-        <v>28141.69887695312</v>
+        <v>126356.3241210938</v>
       </c>
       <c r="D29">
-        <v>117.309684753418</v>
+        <v>228.614395904541</v>
       </c>
       <c r="E29">
-        <v>0.1164513166523613</v>
+        <v>0.182842727478535</v>
       </c>
       <c r="F29">
-        <v>139.5398623336049</v>
+        <v>266.8660926655479</v>
       </c>
       <c r="G29">
-        <v>-0.73693147082445642</v>
+        <v>-2.045267198598501</v>
       </c>
       <c r="H29">
-        <v>51.4</v>
+        <v>57.4</v>
       </c>
       <c r="I29">
-        <v>41408.162637066947</v>
+        <v>194128.7272430611</v>
       </c>
       <c r="J29">
-        <v>96.694435796459217</v>
+        <v>251.2783575680513</v>
       </c>
       <c r="K29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L29">
         <v>16</v>
       </c>
       <c r="M29">
-        <v>4034.126708984375</v>
+        <v>4228.27880859375</v>
       </c>
       <c r="N29">
-        <v>50.717117309570313</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+        <v>52.15508651733398</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -6073,40 +6047,40 @@
         <v>13</v>
       </c>
       <c r="C30">
-        <v>35199.489941406253</v>
+        <v>115174.0463867188</v>
       </c>
       <c r="D30">
-        <v>130.96417465209959</v>
+        <v>224.8634353637695</v>
       </c>
       <c r="E30">
-        <v>0.13196268722890631</v>
+        <v>0.1810721154750344</v>
       </c>
       <c r="F30">
-        <v>150.81378655042241</v>
+        <v>264.5891552999481</v>
       </c>
       <c r="G30">
-        <v>-1.12150838826652</v>
+        <v>-1.665065410253711</v>
       </c>
       <c r="H30">
-        <v>44.6</v>
+        <v>62.8</v>
       </c>
       <c r="I30">
-        <v>57054.928836235769</v>
+        <v>157424.863089094</v>
       </c>
       <c r="J30">
-        <v>119.9341914682151</v>
+        <v>223.6667666745398</v>
       </c>
       <c r="K30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M30">
-        <v>5086.3681640625</v>
+        <v>4369.36181640625</v>
       </c>
       <c r="N30">
-        <v>56.780910491943359</v>
+        <v>52.91778564453125</v>
       </c>
     </row>
   </sheetData>

--- a/models/training_results_with_epoch.xlsx
+++ b/models/training_results_with_epoch.xlsx
@@ -44,7 +44,7 @@
     <t>Val_R2</t>
   </si>
   <si>
-    <t>ADRO</t>
+    <t>ACES</t>
   </si>
   <si>
     <t>Open_LAG</t>
@@ -556,22 +556,22 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E2">
-        <v>13244.58203125</v>
+        <v>119786.296875</v>
       </c>
       <c r="F2">
-        <v>94.26763916015624</v>
+        <v>301.6027526855469</v>
       </c>
       <c r="G2">
-        <v>0.1497542726865895</v>
+        <v>0.2408252802280958</v>
       </c>
       <c r="H2">
-        <v>115.0368873074632</v>
+        <v>346.0753491707113</v>
       </c>
       <c r="I2">
-        <v>-0.4039003090240525</v>
+        <v>-5.233701066291687</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -585,22 +585,22 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E3">
-        <v>3924.5009765625</v>
+        <v>81684</v>
       </c>
       <c r="F3">
-        <v>46.21036148071289</v>
+        <v>252.6526489257812</v>
       </c>
       <c r="G3">
-        <v>0.1180686806099806</v>
+        <v>0.1754828440843651</v>
       </c>
       <c r="H3">
-        <v>62.59663533304472</v>
+        <v>285.6078566342165</v>
       </c>
       <c r="I3">
-        <v>0.003259520668164</v>
+        <v>-2.569963231175957</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -614,22 +614,22 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E4">
-        <v>8918.8671875</v>
+        <v>6070.69873046875</v>
       </c>
       <c r="F4">
-        <v>56.53035736083984</v>
+        <v>61.75927352905273</v>
       </c>
       <c r="G4">
-        <v>0.083539420018983</v>
+        <v>0.0490734799102345</v>
       </c>
       <c r="H4">
-        <v>91.97087827097796</v>
+        <v>77.47625279365276</v>
       </c>
       <c r="I4">
-        <v>0.5567850250912665</v>
+        <v>0.5251833275251854</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -643,22 +643,22 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>1212366.5</v>
+        <v>4250.689453125</v>
       </c>
       <c r="F5">
-        <v>1076.806274414062</v>
+        <v>54.06869506835938</v>
       </c>
       <c r="G5">
-        <v>0.7134307315699316</v>
+        <v>0.1055167274174651</v>
       </c>
       <c r="H5">
-        <v>1101.0222776155</v>
+        <v>63.5062515646624</v>
       </c>
       <c r="I5">
-        <v>-29.11092915596901</v>
+        <v>0.6198242713837214</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -672,22 +672,22 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>146228.671875</v>
+        <v>7053.38427734375</v>
       </c>
       <c r="F6">
-        <v>281.6713256835937</v>
+        <v>65.98105621337891</v>
       </c>
       <c r="G6">
-        <v>0.1258523154973978</v>
+        <v>0.0795195367401903</v>
       </c>
       <c r="H6">
-        <v>382.3793538492028</v>
+        <v>82.35485544569195</v>
       </c>
       <c r="I6">
-        <v>0.1340607730446823</v>
+        <v>-0.7314425192182969</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -701,22 +701,22 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E7">
-        <v>13855.00390625</v>
+        <v>115004.2109375</v>
       </c>
       <c r="F7">
-        <v>98.02194213867188</v>
+        <v>290.9263610839844</v>
       </c>
       <c r="G7">
-        <v>0.1574185526092076</v>
+        <v>0.2316559487982109</v>
       </c>
       <c r="H7">
-        <v>117.6695848682293</v>
+        <v>339.0922001958085</v>
       </c>
       <c r="I7">
-        <v>-0.4682622209264776</v>
+        <v>-4.983227856079052</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -730,22 +730,22 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E8">
-        <v>3120.37060546875</v>
+        <v>40545.03515625</v>
       </c>
       <c r="F8">
-        <v>41.18591690063477</v>
+        <v>174.9710693359375</v>
       </c>
       <c r="G8">
-        <v>0.1030023855158922</v>
+        <v>0.1235852542969761</v>
       </c>
       <c r="H8">
-        <v>54.9784025737908</v>
+        <v>201.0867064448396</v>
       </c>
       <c r="I8">
-        <v>0.2081599901169234</v>
+        <v>-0.7702983251220794</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -759,22 +759,22 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="E9">
-        <v>7495.1962890625</v>
+        <v>5964.2490234375</v>
       </c>
       <c r="F9">
-        <v>52.55439758300781</v>
+        <v>59.86454010009766</v>
       </c>
       <c r="G9">
-        <v>0.0785053852474366</v>
+        <v>0.0471244913794287</v>
       </c>
       <c r="H9">
-        <v>83.4354978092274</v>
+        <v>77.04441921612373</v>
       </c>
       <c r="I9">
-        <v>0.6324552557971738</v>
+        <v>0.5356683915677763</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -788,22 +788,22 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>648123.375</v>
+        <v>12988.8564453125</v>
       </c>
       <c r="F10">
-        <v>778.7572021484375</v>
+        <v>98.84420776367188</v>
       </c>
       <c r="G10">
-        <v>0.5123648922441872</v>
+        <v>0.1904982761538342</v>
       </c>
       <c r="H10">
-        <v>805.0330041835149</v>
+        <v>113.7418551511327</v>
       </c>
       <c r="I10">
-        <v>-15.09983434112772</v>
+        <v>-0.1294780303275368</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -817,22 +817,22 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>122100.0546875</v>
+        <v>3599.329345703125</v>
       </c>
       <c r="F11">
-        <v>263.8988647460937</v>
+        <v>47.78776931762695</v>
       </c>
       <c r="G11">
-        <v>0.1185733934210404</v>
+        <v>0.0594833725824345</v>
       </c>
       <c r="H11">
-        <v>349.3754179343541</v>
+        <v>59.53368862726195</v>
       </c>
       <c r="I11">
-        <v>0.276637061928074</v>
+        <v>0.1032909043030254</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -846,22 +846,22 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="E12">
-        <v>18041.962890625</v>
+        <v>117703.9609375</v>
       </c>
       <c r="F12">
-        <v>115.1800155639648</v>
+        <v>311.2023010253906</v>
       </c>
       <c r="G12">
-        <v>0.1847585329586056</v>
+        <v>0.2510566943437046</v>
       </c>
       <c r="H12">
-        <v>134.2594383939122</v>
+        <v>342.9705269563665</v>
       </c>
       <c r="I12">
-        <v>-0.9094624124878692</v>
+        <v>-5.107894928198306</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -875,22 +875,22 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E13">
-        <v>4410.0439453125</v>
+        <v>17314.302734375</v>
       </c>
       <c r="F13">
-        <v>51.33213424682617</v>
+        <v>102.8113632202148</v>
       </c>
       <c r="G13">
-        <v>0.1276746104719683</v>
+        <v>0.0797894828613933</v>
       </c>
       <c r="H13">
-        <v>66.28074145302934</v>
+        <v>131.3702646400255</v>
       </c>
       <c r="I13">
-        <v>-0.1203269147936861</v>
+        <v>0.2389005809355587</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -904,22 +904,22 @@
         <v>3</v>
       </c>
       <c r="D14">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="E14">
-        <v>7604.62353515625</v>
+        <v>5967.07958984375</v>
       </c>
       <c r="F14">
-        <v>52.00767517089844</v>
+        <v>60.33173370361328</v>
       </c>
       <c r="G14">
-        <v>0.0771819213468931</v>
+        <v>0.047023536305991</v>
       </c>
       <c r="H14">
-        <v>84.06841930575796</v>
+        <v>77.20124993221278</v>
       </c>
       <c r="I14">
-        <v>0.6269927771960409</v>
+        <v>0.5374522107066648</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -933,22 +933,22 @@
         <v>4</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E15">
-        <v>1320107.75</v>
+        <v>13496.7314453125</v>
       </c>
       <c r="F15">
-        <v>1130.518920898438</v>
+        <v>97.66808319091795</v>
       </c>
       <c r="G15">
-        <v>0.7520821487924482</v>
+        <v>0.1744784075375988</v>
       </c>
       <c r="H15">
-        <v>1148.816391531906</v>
+        <v>115.7671633888487</v>
       </c>
       <c r="I15">
-        <v>-31.79050461178268</v>
+        <v>-0.1735004665939243</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -962,22 +962,22 @@
         <v>5</v>
       </c>
       <c r="D16">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>342773.875</v>
+        <v>3647.9462890625</v>
       </c>
       <c r="F16">
-        <v>437.111083984375</v>
+        <v>47.11026000976562</v>
       </c>
       <c r="G16">
-        <v>0.1962757534060397</v>
+        <v>0.0586042562105731</v>
       </c>
       <c r="H16">
-        <v>585.4637357873215</v>
+        <v>58.10121997195204</v>
       </c>
       <c r="I16">
-        <v>-1.029100551453969</v>
+        <v>0.0786132513209418</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -991,22 +991,22 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="E17">
-        <v>14096.291015625</v>
+        <v>237873.890625</v>
       </c>
       <c r="F17">
-        <v>98.38352966308594</v>
+        <v>464.6670532226562</v>
       </c>
       <c r="G17">
-        <v>0.1564137445842706</v>
+        <v>0.3808837379149912</v>
       </c>
       <c r="H17">
-        <v>118.6851172703796</v>
+        <v>487.369784501501</v>
       </c>
       <c r="I17">
-        <v>-0.4939959337450565</v>
+        <v>-11.35046468894166</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1020,22 +1020,22 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="E18">
-        <v>4369.36181640625</v>
+        <v>15700.3505859375</v>
       </c>
       <c r="F18">
-        <v>52.91778564453125</v>
+        <v>96.09198760986328</v>
       </c>
       <c r="G18">
-        <v>0.1253629026379392</v>
+        <v>0.0740933634298402</v>
       </c>
       <c r="H18">
-        <v>66.03783489527342</v>
+        <v>125.2555342849601</v>
       </c>
       <c r="I18">
-        <v>-0.1098361998560855</v>
+        <v>0.3111550621079977</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1049,22 +1049,22 @@
         <v>3</v>
       </c>
       <c r="D19">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E19">
-        <v>12138.7509765625</v>
+        <v>6444.92529296875</v>
       </c>
       <c r="F19">
-        <v>69.44911956787109</v>
+        <v>63.90695571899414</v>
       </c>
       <c r="G19">
-        <v>0.1011711576730682</v>
+        <v>0.0501339496828512</v>
       </c>
       <c r="H19">
-        <v>108.9401635321166</v>
+        <v>80.15093320269078</v>
       </c>
       <c r="I19">
-        <v>0.3795760801236656</v>
+        <v>0.4984832523494651</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1078,22 +1078,22 @@
         <v>4</v>
       </c>
       <c r="D20">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="E20">
-        <v>363278.09375</v>
+        <v>12180.7548828125</v>
       </c>
       <c r="F20">
-        <v>568.8429565429688</v>
+        <v>96.10594940185548</v>
       </c>
       <c r="G20">
-        <v>0.369762800255231</v>
+        <v>0.1811820393661341</v>
       </c>
       <c r="H20">
-        <v>602.7154884768747</v>
+        <v>110.1949619912842</v>
       </c>
       <c r="I20">
-        <v>-8.023193334722055</v>
+        <v>-0.0554521981794597</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1107,22 +1107,22 @@
         <v>5</v>
       </c>
       <c r="D21">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E21">
-        <v>181987.734375</v>
+        <v>4574.76904296875</v>
       </c>
       <c r="F21">
-        <v>334.7237854003906</v>
+        <v>53.80073928833008</v>
       </c>
       <c r="G21">
-        <v>0.1526499722246629</v>
+        <v>0.0660445858105269</v>
       </c>
       <c r="H21">
-        <v>426.567172325096</v>
+        <v>66.43272545470494</v>
       </c>
       <c r="I21">
-        <v>-0.0778776630690235</v>
+        <v>-0.1474767516198159</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1136,22 +1136,22 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E22">
-        <v>13338.419921875</v>
+        <v>98408.8203125</v>
       </c>
       <c r="F22">
-        <v>95.11325073242188</v>
+        <v>280.8493957519531</v>
       </c>
       <c r="G22">
-        <v>0.152073457645217</v>
+        <v>0.2257219708006898</v>
       </c>
       <c r="H22">
-        <v>115.4481256363376</v>
+        <v>313.6796644426313</v>
       </c>
       <c r="I22">
-        <v>-0.4137193409453149</v>
+        <v>-4.121805416913702</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1165,22 +1165,22 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="E23">
-        <v>3913.98388671875</v>
+        <v>19351.15625</v>
       </c>
       <c r="F23">
-        <v>47.86849594116211</v>
+        <v>114.2257995605469</v>
       </c>
       <c r="G23">
-        <v>0.1177022273034302</v>
+        <v>0.0851917012040494</v>
       </c>
       <c r="H23">
-        <v>62.48978469147815</v>
+        <v>139.1068451316271</v>
       </c>
       <c r="I23">
-        <v>0.00596145636824</v>
+        <v>0.1523332641932806</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1194,22 +1194,22 @@
         <v>3</v>
       </c>
       <c r="D24">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E24">
-        <v>7663.17626953125</v>
+        <v>5581.78759765625</v>
       </c>
       <c r="F24">
-        <v>53.40924835205078</v>
+        <v>59.06019973754883</v>
       </c>
       <c r="G24">
-        <v>0.08002024585309089</v>
+        <v>0.046881032510213</v>
       </c>
       <c r="H24">
-        <v>84.68373847812015</v>
+        <v>74.5174983164119</v>
       </c>
       <c r="I24">
-        <v>0.6225453997547994</v>
+        <v>0.5646206155622302</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1223,22 +1223,22 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="E25">
-        <v>557781.625</v>
+        <v>6035.0615234375</v>
       </c>
       <c r="F25">
-        <v>717.7891235351562</v>
+        <v>59.97473907470703</v>
       </c>
       <c r="G25">
-        <v>0.4706221110323372</v>
+        <v>0.1078754221400809</v>
       </c>
       <c r="H25">
-        <v>746.8025645073864</v>
+        <v>76.36289646207918</v>
       </c>
       <c r="I25">
-        <v>-12.85691164997065</v>
+        <v>0.4619646575175577</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1252,22 +1252,22 @@
         <v>5</v>
       </c>
       <c r="D26">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="E26">
-        <v>113242.1328125</v>
+        <v>4174.2158203125</v>
       </c>
       <c r="F26">
-        <v>251.8615112304688</v>
+        <v>50.93564224243164</v>
       </c>
       <c r="G26">
-        <v>0.1130701063720515</v>
+        <v>0.0637415192585329</v>
       </c>
       <c r="H26">
-        <v>336.4343825792145</v>
+        <v>62.49185112953369</v>
       </c>
       <c r="I26">
-        <v>0.3289580126285047</v>
+        <v>-0.052570745524545</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1281,22 +1281,22 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="E27">
-        <v>14316.048828125</v>
+        <v>102753.8046875</v>
       </c>
       <c r="F27">
-        <v>100.035026550293</v>
+        <v>286.7163391113281</v>
       </c>
       <c r="G27">
-        <v>0.1605935735407425</v>
+        <v>0.2303771831899956</v>
       </c>
       <c r="H27">
-        <v>119.6003024380985</v>
+        <v>320.4122890783929</v>
       </c>
       <c r="I27">
-        <v>-0.5174746780194265</v>
+        <v>-4.327836038747247</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1310,22 +1310,22 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E28">
-        <v>3283.640625</v>
+        <v>62174.25</v>
       </c>
       <c r="F28">
-        <v>41.0859260559082</v>
+        <v>218.8927001953125</v>
       </c>
       <c r="G28">
-        <v>0.1051244947921938</v>
+        <v>0.1524583464828836</v>
       </c>
       <c r="H28">
-        <v>57.04832916888427</v>
+        <v>249.1096602802525</v>
       </c>
       <c r="I28">
-        <v>0.166373871279878</v>
+        <v>-1.716013867539669</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1339,22 +1339,22 @@
         <v>3</v>
       </c>
       <c r="D29">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="E29">
-        <v>8073.67236328125</v>
+        <v>5713.5390625</v>
       </c>
       <c r="F29">
-        <v>53.58689880371094</v>
+        <v>59.20624923706055</v>
       </c>
       <c r="G29">
-        <v>0.0794695947675586</v>
+        <v>0.0467250354677709</v>
       </c>
       <c r="H29">
-        <v>87.21345388159627</v>
+        <v>75.17381577129413</v>
       </c>
       <c r="I29">
-        <v>0.600632216583795</v>
+        <v>0.5537613199871626</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1368,22 +1368,22 @@
         <v>4</v>
       </c>
       <c r="D30">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E30">
-        <v>647996.875</v>
+        <v>6329.23779296875</v>
       </c>
       <c r="F30">
-        <v>764.4179077148438</v>
+        <v>61.8863639831543</v>
       </c>
       <c r="G30">
-        <v>0.4987280001922194</v>
+        <v>0.116984005776478</v>
       </c>
       <c r="H30">
-        <v>804.9607822278305</v>
+        <v>78.12590332734322</v>
       </c>
       <c r="I30">
-        <v>-15.09594221047156</v>
+        <v>0.43568311740054</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1397,22 +1397,22 @@
         <v>5</v>
       </c>
       <c r="D31">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E31">
-        <v>140549.203125</v>
+        <v>3743.862060546875</v>
       </c>
       <c r="F31">
-        <v>277.0344848632812</v>
+        <v>48.19223403930664</v>
       </c>
       <c r="G31">
-        <v>0.1236150024768324</v>
+        <v>0.0599876675846325</v>
       </c>
       <c r="H31">
-        <v>374.8686472448009</v>
+        <v>59.15613991263242</v>
       </c>
       <c r="I31">
-        <v>0.167555604245624</v>
+        <v>0.0558687292956049</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1426,22 +1426,22 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="E32">
-        <v>13921.9384765625</v>
+        <v>293116.75</v>
       </c>
       <c r="F32">
-        <v>97.90781402587891</v>
+        <v>512.2249755859375</v>
       </c>
       <c r="G32">
-        <v>0.1565833070905131</v>
+        <v>0.4188490595139479</v>
       </c>
       <c r="H32">
-        <v>117.9492032205888</v>
+        <v>541.1006384267276</v>
       </c>
       <c r="I32">
-        <v>-0.4755203505135288</v>
+        <v>-14.24384999889065</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1455,22 +1455,22 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E33">
-        <v>3158.03662109375</v>
+        <v>128228.9765625</v>
       </c>
       <c r="F33">
-        <v>41.56772232055664</v>
+        <v>325.3860168457031</v>
       </c>
       <c r="G33">
-        <v>0.100714814218689</v>
+        <v>0.2265556905461766</v>
       </c>
       <c r="H33">
-        <v>56.15236802668588</v>
+        <v>357.8565737983271</v>
       </c>
       <c r="I33">
-        <v>0.1979995198916207</v>
+        <v>-4.609575490889859</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1484,22 +1484,22 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="E34">
-        <v>8326.1201171875</v>
+        <v>5820.53369140625</v>
       </c>
       <c r="F34">
-        <v>54.26575088500977</v>
+        <v>61.12945938110352</v>
       </c>
       <c r="G34">
-        <v>0.08074372146164149</v>
+        <v>0.0480175558315656</v>
       </c>
       <c r="H34">
-        <v>88.92261114684044</v>
+        <v>76.12597732044219</v>
       </c>
       <c r="I34">
-        <v>0.5857942044018239</v>
+        <v>0.5468174159738507</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1513,22 +1513,22 @@
         <v>4</v>
       </c>
       <c r="D35">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="E35">
-        <v>1781695.875</v>
+        <v>14476.5830078125</v>
       </c>
       <c r="F35">
-        <v>1322.113159179688</v>
+        <v>99.35336303710938</v>
       </c>
       <c r="G35">
-        <v>0.8855750791368355</v>
+        <v>0.1742124878077384</v>
       </c>
       <c r="H35">
-        <v>1334.76926127029</v>
+        <v>119.3982817224111</v>
       </c>
       <c r="I35">
-        <v>-43.25393512312898</v>
+        <v>-0.2493919631535477</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1542,22 +1542,22 @@
         <v>5</v>
       </c>
       <c r="D36">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E36">
-        <v>193420.53125</v>
+        <v>3872.371826171875</v>
       </c>
       <c r="F36">
-        <v>328.1384582519531</v>
+        <v>48.81060791015625</v>
       </c>
       <c r="G36">
-        <v>0.1462172897769694</v>
+        <v>0.0610646496060713</v>
       </c>
       <c r="H36">
-        <v>439.7529228020172</v>
+        <v>59.99440357369356</v>
       </c>
       <c r="I36">
-        <v>-0.1456876407652867</v>
+        <v>0.0226755907992474</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1571,22 +1571,22 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E37">
-        <v>14372.703125</v>
+        <v>99117.109375</v>
       </c>
       <c r="F37">
-        <v>99.46248626708984</v>
+        <v>281.977294921875</v>
       </c>
       <c r="G37">
-        <v>0.1579728859077971</v>
+        <v>0.2266537637535831</v>
       </c>
       <c r="H37">
-        <v>119.8439337776254</v>
+        <v>314.8034638510741</v>
       </c>
       <c r="I37">
-        <v>-0.5232772797364001</v>
+        <v>-4.157656369379899</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1600,22 +1600,22 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="E38">
-        <v>4228.27880859375</v>
+        <v>16274.5517578125</v>
       </c>
       <c r="F38">
-        <v>52.15508651733398</v>
+        <v>96.73589324951172</v>
       </c>
       <c r="G38">
-        <v>0.1221463699732979</v>
+        <v>0.07456614249463191</v>
       </c>
       <c r="H38">
-        <v>64.89845292253216</v>
+        <v>127.3480212581778</v>
       </c>
       <c r="I38">
-        <v>-0.0738389285018468</v>
+        <v>0.2845682944397598</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1629,22 +1629,22 @@
         <v>3</v>
       </c>
       <c r="D39">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E39">
-        <v>8322.748046875</v>
+        <v>6717.21044921875</v>
       </c>
       <c r="F39">
-        <v>55.99771118164063</v>
+        <v>65.46553039550781</v>
       </c>
       <c r="G39">
-        <v>0.0832607929071099</v>
+        <v>0.0508365762840467</v>
       </c>
       <c r="H39">
-        <v>88.76491266458119</v>
+        <v>81.88375192819079</v>
       </c>
       <c r="I39">
-        <v>0.5869556385115509</v>
+        <v>0.4787505393339717</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1658,22 +1658,22 @@
         <v>4</v>
       </c>
       <c r="D40">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E40">
-        <v>456300.96875</v>
+        <v>22761.716796875</v>
       </c>
       <c r="F40">
-        <v>641.7939453125</v>
+        <v>120.4742050170898</v>
       </c>
       <c r="G40">
-        <v>0.4184514754430934</v>
+        <v>0.2071222484481224</v>
       </c>
       <c r="H40">
-        <v>675.4557429368542</v>
+        <v>149.913485148026</v>
       </c>
       <c r="I40">
-        <v>-10.33603826224016</v>
+        <v>-0.983698995828366</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1687,22 +1687,22 @@
         <v>5</v>
       </c>
       <c r="D41">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="E41">
-        <v>148556.921875</v>
+        <v>3538.288818359375</v>
       </c>
       <c r="F41">
-        <v>293.6627502441406</v>
+        <v>47.22919464111328</v>
       </c>
       <c r="G41">
-        <v>0.1323821131613767</v>
+        <v>0.0587448768201062</v>
       </c>
       <c r="H41">
-        <v>385.3674210261463</v>
+        <v>58.22623647316269</v>
       </c>
       <c r="I41">
-        <v>0.1198628389743532</v>
+        <v>0.1114133419132078</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1716,22 +1716,22 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="E42">
-        <v>13067.947265625</v>
+        <v>485539.5625</v>
       </c>
       <c r="F42">
-        <v>93.85549926757812</v>
+        <v>591.7442626953125</v>
       </c>
       <c r="G42">
-        <v>0.1498519060319758</v>
+        <v>0.4704333980913207</v>
       </c>
       <c r="H42">
-        <v>114.2692954571326</v>
+        <v>696.7422928398159</v>
       </c>
       <c r="I42">
-        <v>-0.3851249583831485</v>
+        <v>-24.26167305144706</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1745,22 +1745,22 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E43">
-        <v>4161.42138671875</v>
+        <v>43434.19921875</v>
       </c>
       <c r="F43">
-        <v>49.46764373779297</v>
+        <v>176.8715515136719</v>
       </c>
       <c r="G43">
-        <v>0.1226278358646443</v>
+        <v>0.1241094785651772</v>
       </c>
       <c r="H43">
-        <v>64.3678959327144</v>
+        <v>208.1989569601396</v>
       </c>
       <c r="I43">
-        <v>-0.0568559593479033</v>
+        <v>-0.8975247946674426</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1774,22 +1774,22 @@
         <v>3</v>
       </c>
       <c r="D44">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="E44">
-        <v>7449.84423828125</v>
+        <v>5805.35595703125</v>
       </c>
       <c r="F44">
-        <v>53.01898574829102</v>
+        <v>58.708740234375</v>
       </c>
       <c r="G44">
-        <v>0.07904648364344299</v>
+        <v>0.0456007063995745</v>
       </c>
       <c r="H44">
-        <v>83.26717118840719</v>
+        <v>76.09718805154955</v>
       </c>
       <c r="I44">
-        <v>0.6344351595937361</v>
+        <v>0.5497779868811001</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1803,22 +1803,22 @@
         <v>4</v>
       </c>
       <c r="D45">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="E45">
-        <v>551039.625</v>
+        <v>4077.546630859375</v>
       </c>
       <c r="F45">
-        <v>707.1371459960938</v>
+        <v>50.33551025390625</v>
       </c>
       <c r="G45">
-        <v>0.461698316959606</v>
+        <v>0.095049923479019</v>
       </c>
       <c r="H45">
-        <v>742.3036883584264</v>
+        <v>62.58107739579531</v>
       </c>
       <c r="I45">
-        <v>-12.68721273933748</v>
+        <v>0.6359833840020644</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1832,22 +1832,22 @@
         <v>5</v>
       </c>
       <c r="D46">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E46">
-        <v>228753.609375</v>
+        <v>3833.1298828125</v>
       </c>
       <c r="F46">
-        <v>363.7479248046875</v>
+        <v>48.45933151245117</v>
       </c>
       <c r="G46">
-        <v>0.1633085569118534</v>
+        <v>0.0605448758769177</v>
       </c>
       <c r="H46">
-        <v>478.1957269704928</v>
+        <v>59.49988322412017</v>
       </c>
       <c r="I46">
-        <v>-0.355344187374139</v>
+        <v>0.0310068894057889</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1861,22 +1861,22 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="E47">
-        <v>87642.390625</v>
+        <v>99202.15625</v>
       </c>
       <c r="F47">
-        <v>279.2057189941406</v>
+        <v>280.9455871582031</v>
       </c>
       <c r="G47">
-        <v>0.4520996532358195</v>
+        <v>0.2255791680801195</v>
       </c>
       <c r="H47">
-        <v>295.6422642012566</v>
+        <v>314.935031978195</v>
       </c>
       <c r="I47">
-        <v>-8.276797659385142</v>
+        <v>-4.161030455020583</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1890,22 +1890,22 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="E48">
-        <v>3190.403564453125</v>
+        <v>16254.4091796875</v>
       </c>
       <c r="F48">
-        <v>41.86094284057617</v>
+        <v>98.63729095458984</v>
       </c>
       <c r="G48">
-        <v>0.1057636836524072</v>
+        <v>0.0759640954405105</v>
       </c>
       <c r="H48">
-        <v>55.98874208712303</v>
+        <v>127.4017440469871</v>
       </c>
       <c r="I48">
-        <v>0.1901986832579093</v>
+        <v>0.2863547560791682</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1919,22 +1919,22 @@
         <v>3</v>
       </c>
       <c r="D49">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E49">
-        <v>7909.53564453125</v>
+        <v>5882.708984375</v>
       </c>
       <c r="F49">
-        <v>55.58462142944336</v>
+        <v>61.15806579589844</v>
       </c>
       <c r="G49">
-        <v>0.0832091798825164</v>
+        <v>0.0483013823007302</v>
       </c>
       <c r="H49">
-        <v>86.05641363654024</v>
+        <v>76.3276569205257</v>
       </c>
       <c r="I49">
-        <v>0.6103692915508616</v>
+        <v>0.5409244192532113</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1948,22 +1948,22 @@
         <v>4</v>
       </c>
       <c r="D50">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="E50">
-        <v>463133.6875</v>
+        <v>12609.4482421875</v>
       </c>
       <c r="F50">
-        <v>648.6007080078125</v>
+        <v>96.83175659179688</v>
       </c>
       <c r="G50">
-        <v>0.423475591676007</v>
+        <v>0.1878466512109337</v>
       </c>
       <c r="H50">
-        <v>680.5190650731957</v>
+        <v>111.9187481555806</v>
       </c>
       <c r="I50">
-        <v>-10.5040487462977</v>
+        <v>-0.091088902434746</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1977,22 +1977,22 @@
         <v>5</v>
       </c>
       <c r="D51">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="E51">
-        <v>147474.6875</v>
+        <v>4268.064453125</v>
       </c>
       <c r="F51">
-        <v>282.2631530761719</v>
+        <v>51.94306182861328</v>
       </c>
       <c r="G51">
-        <v>0.1254491875979864</v>
+        <v>0.0644325125758442</v>
       </c>
       <c r="H51">
-        <v>383.9699888241099</v>
+        <v>63.75206395103028</v>
       </c>
       <c r="I51">
-        <v>0.1263434671782537</v>
+        <v>-0.0738722593329157</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2006,22 +2006,22 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="E52">
-        <v>14598.3203125</v>
+        <v>255653.15625</v>
       </c>
       <c r="F52">
-        <v>99.7637939453125</v>
+        <v>485.376220703125</v>
       </c>
       <c r="G52">
-        <v>0.1579255363783982</v>
+        <v>0.3989130599279911</v>
       </c>
       <c r="H52">
-        <v>120.7656032801738</v>
+        <v>505.5223767839456</v>
       </c>
       <c r="I52">
-        <v>-0.5475647790140775</v>
+        <v>-12.30358079790579</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2035,22 +2035,22 @@
         <v>2</v>
       </c>
       <c r="D53">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="E53">
-        <v>4169.19287109375</v>
+        <v>17968.162109375</v>
       </c>
       <c r="F53">
-        <v>51.07997512817383</v>
+        <v>107.3055801391602</v>
       </c>
       <c r="G53">
-        <v>0.1209478492751477</v>
+        <v>0.0801708940927839</v>
       </c>
       <c r="H53">
-        <v>64.40923694925824</v>
+        <v>134.043858974763</v>
       </c>
       <c r="I53">
-        <v>-0.0587694094797776</v>
+        <v>0.2128966925975146</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2064,22 +2064,22 @@
         <v>3</v>
       </c>
       <c r="D54">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E54">
-        <v>8137.8388671875</v>
+        <v>5828.16943359375</v>
       </c>
       <c r="F54">
-        <v>53.50756454467773</v>
+        <v>60.17753982543945</v>
       </c>
       <c r="G54">
-        <v>0.07929956325144399</v>
+        <v>0.0469735752743582</v>
       </c>
       <c r="H54">
-        <v>87.84922454853564</v>
+        <v>76.2291371001659</v>
       </c>
       <c r="I54">
-        <v>0.595635146588116</v>
+        <v>0.5472958802535032</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2093,22 +2093,22 @@
         <v>4</v>
       </c>
       <c r="D55">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="E55">
-        <v>802242.0625</v>
+        <v>12106.7353515625</v>
       </c>
       <c r="F55">
-        <v>862.3854370117188</v>
+        <v>95.66934967041016</v>
       </c>
       <c r="G55">
-        <v>0.5665343050014368</v>
+        <v>0.1795517028796776</v>
       </c>
       <c r="H55">
-        <v>895.6567961738925</v>
+        <v>109.8464797978339</v>
       </c>
       <c r="I55">
-        <v>-18.92729668404941</v>
+        <v>-0.0509618238696636</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2122,22 +2122,22 @@
         <v>5</v>
       </c>
       <c r="D56">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="E56">
-        <v>171689.125</v>
+        <v>4095.747314453125</v>
       </c>
       <c r="F56">
-        <v>309.184326171875</v>
+        <v>50.97608947753906</v>
       </c>
       <c r="G56">
-        <v>0.1379080523240037</v>
+        <v>0.062133526843327</v>
       </c>
       <c r="H56">
-        <v>414.3209526977552</v>
+        <v>63.17134224113572</v>
       </c>
       <c r="I56">
-        <v>-0.0168721976730243</v>
+        <v>-0.0249196165438966</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2151,22 +2151,22 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="E57">
-        <v>15802.4306640625</v>
+        <v>251723.515625</v>
       </c>
       <c r="F57">
-        <v>106.5433654785156</v>
+        <v>472.8193664550781</v>
       </c>
       <c r="G57">
-        <v>0.1715806676922549</v>
+        <v>0.3860222582810937</v>
       </c>
       <c r="H57">
-        <v>125.64976662176</v>
+        <v>501.612486694359</v>
       </c>
       <c r="I57">
-        <v>-0.6751788453575345</v>
+        <v>-12.08892177138792</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2180,22 +2180,22 @@
         <v>2</v>
       </c>
       <c r="D58">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E58">
-        <v>4088.483154296875</v>
+        <v>159830.6875</v>
       </c>
       <c r="F58">
-        <v>49.86845779418945</v>
+        <v>323.5946960449219</v>
       </c>
       <c r="G58">
-        <v>0.1213197654126059</v>
+        <v>0.2236063169634591</v>
       </c>
       <c r="H58">
-        <v>63.8642293460212</v>
+        <v>399.6924351446742</v>
       </c>
       <c r="I58">
-        <v>-0.0385201113326965</v>
+        <v>-5.992847484341243</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2209,22 +2209,22 @@
         <v>3</v>
       </c>
       <c r="D59">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="E59">
-        <v>7468.7568359375</v>
+        <v>5643.14404296875</v>
       </c>
       <c r="F59">
-        <v>51.65164184570312</v>
+        <v>58.97388076782227</v>
       </c>
       <c r="G59">
-        <v>0.0766053327268388</v>
+        <v>0.0465481747456677</v>
       </c>
       <c r="H59">
-        <v>83.10896425015957</v>
+        <v>74.67922806443194</v>
       </c>
       <c r="I59">
-        <v>0.634671844091637</v>
+        <v>0.5592220764452365</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2238,22 +2238,22 @@
         <v>4</v>
       </c>
       <c r="D60">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E60">
-        <v>836731.5</v>
+        <v>3836.409912109375</v>
       </c>
       <c r="F60">
-        <v>889.156494140625</v>
+        <v>48.46113204956055</v>
       </c>
       <c r="G60">
-        <v>0.5866870063152574</v>
+        <v>0.0914660289583166</v>
       </c>
       <c r="H60">
-        <v>914.7015615141941</v>
+        <v>60.11565554438719</v>
       </c>
       <c r="I60">
-        <v>-19.78419847168578</v>
+        <v>0.6559605388541451</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2267,22 +2267,22 @@
         <v>5</v>
       </c>
       <c r="D61">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E61">
-        <v>620380.5625</v>
+        <v>3505.2275390625</v>
       </c>
       <c r="F61">
-        <v>592.7683715820312</v>
+        <v>46.11997985839844</v>
       </c>
       <c r="G61">
-        <v>0.2656412894218837</v>
+        <v>0.0573971251368984</v>
       </c>
       <c r="H61">
-        <v>787.6295121069855</v>
+        <v>56.91919196698056</v>
       </c>
       <c r="I61">
-        <v>-2.672930141903109</v>
+        <v>0.1142862069837072</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2296,22 +2296,22 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="E62">
-        <v>14223.2275390625</v>
+        <v>128000.8203125</v>
       </c>
       <c r="F62">
-        <v>99.5657196044922</v>
+        <v>329.0666809082031</v>
       </c>
       <c r="G62">
-        <v>0.1596337343440865</v>
+        <v>0.2665273452508785</v>
       </c>
       <c r="H62">
-        <v>119.2129513353778</v>
+        <v>357.7388644763412</v>
       </c>
       <c r="I62">
-        <v>-0.5076024680308584</v>
+        <v>-5.66036909990637</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2325,22 +2325,22 @@
         <v>2</v>
       </c>
       <c r="D63">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="E63">
-        <v>3025.489013671875</v>
+        <v>13123.1142578125</v>
       </c>
       <c r="F63">
-        <v>40.07379150390625</v>
+        <v>83.18627166748047</v>
       </c>
       <c r="G63">
-        <v>0.1012479088715922</v>
+        <v>0.06468491937469791</v>
       </c>
       <c r="H63">
-        <v>54.54106244434983</v>
+        <v>114.0435933521089</v>
       </c>
       <c r="I63">
-        <v>0.232057308234768</v>
+        <v>0.4218826754266198</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2354,22 +2354,22 @@
         <v>3</v>
       </c>
       <c r="D64">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E64">
-        <v>8170.16162109375</v>
+        <v>6041.154296875</v>
       </c>
       <c r="F64">
-        <v>55.29310607910156</v>
+        <v>61.76495361328125</v>
       </c>
       <c r="G64">
-        <v>0.0825932212717566</v>
+        <v>0.0485848707460257</v>
       </c>
       <c r="H64">
-        <v>87.3429992587904</v>
+        <v>77.49251753902477</v>
       </c>
       <c r="I64">
-        <v>0.5981264719560472</v>
+        <v>0.5293215437913487</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2383,22 +2383,22 @@
         <v>4</v>
       </c>
       <c r="D65">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="E65">
-        <v>554842.125</v>
+        <v>14256.23828125</v>
       </c>
       <c r="F65">
-        <v>705.2232055664062</v>
+        <v>103.169303894043</v>
       </c>
       <c r="G65">
-        <v>0.459371952352428</v>
+        <v>0.2087014510874451</v>
       </c>
       <c r="H65">
-        <v>744.8499924243489</v>
+        <v>118.8419473406647</v>
       </c>
       <c r="I65">
-        <v>-12.78267029297892</v>
+        <v>-0.2348828093698047</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2412,22 +2412,22 @@
         <v>5</v>
       </c>
       <c r="D66">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="E66">
-        <v>182039.8125</v>
+        <v>4604.30224609375</v>
       </c>
       <c r="F66">
-        <v>316.7022399902344</v>
+        <v>53.99228286743164</v>
       </c>
       <c r="G66">
-        <v>0.1409231644611193</v>
+        <v>0.0662804950430277</v>
       </c>
       <c r="H66">
-        <v>426.6303153495277</v>
+        <v>66.57293749969885</v>
       </c>
       <c r="I66">
-        <v>-0.07814100559986439</v>
+        <v>-0.1550400262880734</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2441,22 +2441,22 @@
         <v>1</v>
       </c>
       <c r="D67">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E67">
-        <v>14206.2822265625</v>
+        <v>114116.28125</v>
       </c>
       <c r="F67">
-        <v>100.021354675293</v>
+        <v>303.9375610351562</v>
       </c>
       <c r="G67">
-        <v>0.1612535452676468</v>
+        <v>0.2446572939290965</v>
       </c>
       <c r="H67">
-        <v>119.1571774966148</v>
+        <v>337.7844648526752</v>
       </c>
       <c r="I67">
-        <v>-0.5052920530494852</v>
+        <v>-4.938410035994798</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2470,22 +2470,22 @@
         <v>2</v>
       </c>
       <c r="D68">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="E68">
-        <v>3121.62939453125</v>
+        <v>14845.212890625</v>
       </c>
       <c r="F68">
-        <v>40.29271697998047</v>
+        <v>90.67597198486328</v>
       </c>
       <c r="G68">
-        <v>0.0987934942676542</v>
+        <v>0.0701175360942124</v>
       </c>
       <c r="H68">
-        <v>55.7850886802979</v>
+        <v>121.4251291470794</v>
       </c>
       <c r="I68">
-        <v>0.207351575008937</v>
+        <v>0.3464497646143823</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2499,22 +2499,22 @@
         <v>3</v>
       </c>
       <c r="D69">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E69">
-        <v>7953.29052734375</v>
+        <v>6410.28125</v>
       </c>
       <c r="F69">
-        <v>53.80508804321289</v>
+        <v>64.12273406982422</v>
       </c>
       <c r="G69">
-        <v>0.0794586251604576</v>
+        <v>0.0506803015537582</v>
       </c>
       <c r="H69">
-        <v>86.69037035267405</v>
+        <v>79.69819292344242</v>
       </c>
       <c r="I69">
-        <v>0.6058028493724872</v>
+        <v>0.4993612276561592</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2528,22 +2528,22 @@
         <v>4</v>
       </c>
       <c r="D70">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E70">
-        <v>786341.625</v>
+        <v>15553.0126953125</v>
       </c>
       <c r="F70">
-        <v>846.055908203125</v>
+        <v>100.8485946655273</v>
       </c>
       <c r="G70">
-        <v>0.5536860100954807</v>
+        <v>0.172582372696422</v>
       </c>
       <c r="H70">
-        <v>886.7288449408858</v>
+        <v>123.8740296362291</v>
       </c>
       <c r="I70">
-        <v>-18.53308436304911</v>
+        <v>-0.349886354879764</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2557,22 +2557,22 @@
         <v>5</v>
       </c>
       <c r="D71">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E71">
-        <v>284038.28125</v>
+        <v>3759.95068359375</v>
       </c>
       <c r="F71">
-        <v>378.9862976074219</v>
+        <v>49.03516006469727</v>
       </c>
       <c r="G71">
-        <v>0.1668282221139005</v>
+        <v>0.0608125235455917</v>
       </c>
       <c r="H71">
-        <v>532.9132200822569</v>
+        <v>59.86501132081035</v>
       </c>
       <c r="I71">
-        <v>-0.6821534054864888</v>
+        <v>0.0547662010587059</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2586,22 +2586,22 @@
         <v>1</v>
       </c>
       <c r="D72">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="E72">
-        <v>17759.845703125</v>
+        <v>104553.4609375</v>
       </c>
       <c r="F72">
-        <v>113.79248046875</v>
+        <v>289.7985229492188</v>
       </c>
       <c r="G72">
-        <v>0.1823136118338387</v>
+        <v>0.2330024382192641</v>
       </c>
       <c r="H72">
-        <v>133.1917099819099</v>
+        <v>323.3163865628011</v>
       </c>
       <c r="I72">
-        <v>-0.8793954213056266</v>
+        <v>-4.439159309939078</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2615,22 +2615,22 @@
         <v>2</v>
       </c>
       <c r="D73">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="E73">
-        <v>3354.867431640625</v>
+        <v>15222.2353515625</v>
       </c>
       <c r="F73">
-        <v>42.77275466918945</v>
+        <v>93.59510803222656</v>
       </c>
       <c r="G73">
-        <v>0.10949275509713</v>
+        <v>0.0723571650010878</v>
       </c>
       <c r="H73">
-        <v>57.60811417852695</v>
+        <v>123.2828515571802</v>
       </c>
       <c r="I73">
-        <v>0.1483100894333676</v>
+        <v>0.3316131728172896</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2644,22 +2644,22 @@
         <v>3</v>
       </c>
       <c r="D74">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="E74">
-        <v>8145.6904296875</v>
+        <v>6305.45361328125</v>
       </c>
       <c r="F74">
-        <v>55.60565948486328</v>
+        <v>63.12028884887695</v>
       </c>
       <c r="G74">
-        <v>0.0845391704944698</v>
+        <v>0.0497053211313844</v>
       </c>
       <c r="H74">
-        <v>87.220081521464</v>
+        <v>79.15234381859503</v>
       </c>
       <c r="I74">
-        <v>0.599362711726206</v>
+        <v>0.5084266698845764</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2673,22 +2673,22 @@
         <v>4</v>
       </c>
       <c r="D75">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="E75">
-        <v>574382.625</v>
+        <v>12036.5673828125</v>
       </c>
       <c r="F75">
-        <v>719.1249389648438</v>
+        <v>94.41079711914062</v>
       </c>
       <c r="G75">
-        <v>0.4687912473198222</v>
+        <v>0.1759514463041894</v>
       </c>
       <c r="H75">
-        <v>757.8332355751467</v>
+        <v>109.5245007154024</v>
       </c>
       <c r="I75">
-        <v>-13.26939192131876</v>
+        <v>-0.0423978834739289</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2702,22 +2702,22 @@
         <v>5</v>
       </c>
       <c r="D76">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="E76">
-        <v>178594.890625</v>
+        <v>5650.982421875</v>
       </c>
       <c r="F76">
-        <v>319.9248352050781</v>
+        <v>59.85900115966797</v>
       </c>
       <c r="G76">
-        <v>0.1438926846247125</v>
+        <v>0.07311965164997811</v>
       </c>
       <c r="H76">
-        <v>422.5795160732304</v>
+        <v>74.30474980703254</v>
       </c>
       <c r="I76">
-        <v>-0.0576781966474242</v>
+        <v>-0.3988304485435072</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2731,22 +2731,22 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E77">
-        <v>11443.232421875</v>
+        <v>85212.6171875</v>
       </c>
       <c r="F77">
-        <v>86.62290954589844</v>
+        <v>256.6817932128906</v>
       </c>
       <c r="G77">
-        <v>0.1380391921982527</v>
+        <v>0.2053011772841178</v>
       </c>
       <c r="H77">
-        <v>106.9724064572829</v>
+        <v>291.8828177920203</v>
       </c>
       <c r="I77">
-        <v>-0.2109733447297989</v>
+        <v>-3.432638614359181</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2760,22 +2760,22 @@
         <v>2</v>
       </c>
       <c r="D78">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E78">
-        <v>2778.181884765625</v>
+        <v>11524.216796875</v>
       </c>
       <c r="F78">
-        <v>38.24588012695312</v>
+        <v>82.40273284912109</v>
       </c>
       <c r="G78">
-        <v>0.09525039498261979</v>
+        <v>0.0630548840097984</v>
       </c>
       <c r="H78">
-        <v>51.59447647330973</v>
+        <v>106.9294512906305</v>
       </c>
       <c r="I78">
-        <v>0.2950730105474329</v>
+        <v>0.4924692588323089</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2789,22 +2789,22 @@
         <v>3</v>
       </c>
       <c r="D79">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E79">
-        <v>6996.55615234375</v>
+        <v>5530.98193359375</v>
       </c>
       <c r="F79">
-        <v>51.91007614135742</v>
+        <v>58.17546844482422</v>
       </c>
       <c r="G79">
-        <v>0.0785915087795008</v>
+        <v>0.0453155700235769</v>
       </c>
       <c r="H79">
-        <v>80.08078297276289</v>
+        <v>74.22705465839213</v>
       </c>
       <c r="I79">
-        <v>0.6594132688283157</v>
+        <v>0.5705529425410453</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2818,22 +2818,22 @@
         <v>4</v>
       </c>
       <c r="D80">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="E80">
-        <v>277236.75</v>
+        <v>17342.373046875</v>
       </c>
       <c r="F80">
-        <v>485.6703491210938</v>
+        <v>104.2749328613281</v>
       </c>
       <c r="G80">
-        <v>0.3127143499623125</v>
+        <v>0.1743654486568173</v>
       </c>
       <c r="H80">
-        <v>526.528837705381</v>
+        <v>130.984642201673</v>
       </c>
       <c r="I80">
-        <v>-5.884199534262055</v>
+        <v>-0.4977814222398844</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2847,22 +2847,22 @@
         <v>5</v>
       </c>
       <c r="D81">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="E81">
-        <v>126982.3125</v>
+        <v>3420.9814453125</v>
       </c>
       <c r="F81">
-        <v>273.9138793945312</v>
+        <v>46.65570831298828</v>
       </c>
       <c r="G81">
-        <v>0.123928399435992</v>
+        <v>0.0581356071606965</v>
       </c>
       <c r="H81">
-        <v>356.0570122777822</v>
+        <v>57.07160586736798</v>
       </c>
       <c r="I81">
-        <v>0.2468312355137296</v>
+        <v>0.1399774116443491</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2876,22 +2876,22 @@
         <v>1</v>
       </c>
       <c r="D82">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E82">
-        <v>14376.095703125</v>
+        <v>127738.921875</v>
       </c>
       <c r="F82">
-        <v>101.0649719238281</v>
+        <v>328.4033203125</v>
       </c>
       <c r="G82">
-        <v>0.1635285635616933</v>
+        <v>0.2659187037672789</v>
       </c>
       <c r="H82">
-        <v>119.8561360607447</v>
+        <v>357.3751739650182</v>
       </c>
       <c r="I82">
-        <v>-0.5236730164951214</v>
+        <v>-5.647804267253181</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2905,22 +2905,22 @@
         <v>2</v>
       </c>
       <c r="D83">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E83">
-        <v>3969.239501953125</v>
+        <v>15213.423828125</v>
       </c>
       <c r="F83">
-        <v>50.90125274658203</v>
+        <v>93.49635314941406</v>
       </c>
       <c r="G83">
-        <v>0.1211916835124724</v>
+        <v>0.0721950329578393</v>
       </c>
       <c r="H83">
-        <v>62.88909346468613</v>
+        <v>123.0848457788475</v>
       </c>
       <c r="I83">
-        <v>-0.008150490410983299</v>
+        <v>0.3309757625981594</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2934,22 +2934,22 @@
         <v>3</v>
       </c>
       <c r="D84">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E84">
-        <v>7317.53271484375</v>
+        <v>6176.0107421875</v>
       </c>
       <c r="F84">
-        <v>51.97793197631836</v>
+        <v>64.40465545654297</v>
       </c>
       <c r="G84">
-        <v>0.0781667595114596</v>
+        <v>0.0512080450032919</v>
       </c>
       <c r="H84">
-        <v>82.19577989279111</v>
+        <v>78.34630524909736</v>
       </c>
       <c r="I84">
-        <v>0.6424283827502563</v>
+        <v>0.5176045489838889</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2963,22 +2963,22 @@
         <v>4</v>
       </c>
       <c r="D85">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E85">
-        <v>1033766.625</v>
+        <v>18881.279296875</v>
       </c>
       <c r="F85">
-        <v>996.1077270507812</v>
+        <v>109.6282653808594</v>
       </c>
       <c r="G85">
-        <v>0.660519263352327</v>
+        <v>0.1859769060345119</v>
       </c>
       <c r="H85">
-        <v>1016.727941093299</v>
+        <v>134.4827381455765</v>
       </c>
       <c r="I85">
-        <v>-24.67622344652625</v>
+        <v>-0.6134401638624071</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2992,22 +2992,22 @@
         <v>5</v>
       </c>
       <c r="D86">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="E86">
-        <v>149720.921875</v>
+        <v>3938.680419921875</v>
       </c>
       <c r="F86">
-        <v>285.7183227539062</v>
+        <v>48.88082504272461</v>
       </c>
       <c r="G86">
-        <v>0.1273403823956906</v>
+        <v>0.0610951351242309</v>
       </c>
       <c r="H86">
-        <v>386.4278180207803</v>
+        <v>60.75756124181766</v>
       </c>
       <c r="I86">
-        <v>0.1114289576638776</v>
+        <v>0.006870856646932</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3021,22 +3021,22 @@
         <v>1</v>
       </c>
       <c r="D87">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E87">
-        <v>12540.271484375</v>
+        <v>82899.125</v>
       </c>
       <c r="F87">
-        <v>93.27218627929688</v>
+        <v>252.189193725586</v>
       </c>
       <c r="G87">
-        <v>0.1519414655324013</v>
+        <v>0.2015032220202672</v>
       </c>
       <c r="H87">
-        <v>111.953621815759</v>
+        <v>287.8896521051564</v>
       </c>
       <c r="I87">
-        <v>-0.32864301323667</v>
+        <v>-3.311469084860537</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3050,22 +3050,22 @@
         <v>2</v>
       </c>
       <c r="D88">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E88">
-        <v>3963.161376953125</v>
+        <v>18349.17578125</v>
       </c>
       <c r="F88">
-        <v>48.36641311645508</v>
+        <v>109.0231018066406</v>
       </c>
       <c r="G88">
-        <v>0.1186503642247477</v>
+        <v>0.0816968967473627</v>
       </c>
       <c r="H88">
-        <v>62.94276225651642</v>
+        <v>135.4560981062647</v>
       </c>
       <c r="I88">
-        <v>-0.0065796080152116</v>
+        <v>0.1962120643470727</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3079,22 +3079,22 @@
         <v>3</v>
       </c>
       <c r="D89">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E89">
-        <v>6919.291015625</v>
+        <v>5339.70263671875</v>
       </c>
       <c r="F89">
-        <v>51.21274948120117</v>
+        <v>57.36117553710938</v>
       </c>
       <c r="G89">
-        <v>0.07726589903321709</v>
+        <v>0.0451847006989239</v>
       </c>
       <c r="H89">
-        <v>79.99852164912426</v>
+        <v>72.90958253956948</v>
       </c>
       <c r="I89">
-        <v>0.6615143401069378</v>
+        <v>0.584259791856296</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3108,22 +3108,22 @@
         <v>4</v>
       </c>
       <c r="D90">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="E90">
-        <v>476366.28125</v>
+        <v>18692.609375</v>
       </c>
       <c r="F90">
-        <v>656.30078125</v>
+        <v>108.4548034667969</v>
       </c>
       <c r="G90">
-        <v>0.4281496813623322</v>
+        <v>0.1817191607473507</v>
       </c>
       <c r="H90">
-        <v>690.1287930984641</v>
+        <v>135.1272833724081</v>
       </c>
       <c r="I90">
-        <v>-10.83540375034112</v>
+        <v>-0.6222272158067897</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3137,22 +3137,22 @@
         <v>5</v>
       </c>
       <c r="D91">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E91">
-        <v>148944.015625</v>
+        <v>4204.62939453125</v>
       </c>
       <c r="F91">
-        <v>282.75244140625</v>
+        <v>51.37819671630859</v>
       </c>
       <c r="G91">
-        <v>0.1256631769071694</v>
+        <v>0.06402217608310209</v>
       </c>
       <c r="H91">
-        <v>385.8867140194134</v>
+        <v>62.62824773638373</v>
       </c>
       <c r="I91">
-        <v>0.1177046288513982</v>
+        <v>-0.0610623824451533</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3166,22 +3166,22 @@
         <v>1</v>
       </c>
       <c r="D92">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E92">
-        <v>11473.5625</v>
+        <v>116396.40625</v>
       </c>
       <c r="F92">
-        <v>86.22301483154297</v>
+        <v>296.7179870605469</v>
       </c>
       <c r="G92">
-        <v>0.1375413473052064</v>
+        <v>0.2367812915809481</v>
       </c>
       <c r="H92">
-        <v>107.0888897298501</v>
+        <v>341.139706890367</v>
       </c>
       <c r="I92">
-        <v>-0.2156604486102711</v>
+        <v>-5.0562014335061</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3195,22 +3195,22 @@
         <v>2</v>
       </c>
       <c r="D93">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E93">
-        <v>4019.853759765625</v>
+        <v>18327.599609375</v>
       </c>
       <c r="F93">
-        <v>50.23584747314453</v>
+        <v>107.3705749511719</v>
       </c>
       <c r="G93">
-        <v>0.1206886686162156</v>
+        <v>0.0798949299661037</v>
       </c>
       <c r="H93">
-        <v>63.38103433878933</v>
+        <v>134.4827894475889</v>
       </c>
       <c r="I93">
-        <v>-0.021113256472813</v>
+        <v>0.2027809949213009</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3224,22 +3224,22 @@
         <v>3</v>
       </c>
       <c r="D94">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="E94">
-        <v>6786.02685546875</v>
+        <v>5567.69140625</v>
       </c>
       <c r="F94">
-        <v>51.52444458007812</v>
+        <v>59.16707611083984</v>
       </c>
       <c r="G94">
-        <v>0.0786975367585217</v>
+        <v>0.0464895445809971</v>
       </c>
       <c r="H94">
-        <v>78.62721829095197</v>
+        <v>74.12422623447024</v>
       </c>
       <c r="I94">
-        <v>0.6707580118070794</v>
+        <v>0.5651633210765686</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3253,22 +3253,22 @@
         <v>4</v>
       </c>
       <c r="D95">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E95">
-        <v>472416.5625</v>
+        <v>13196.96875</v>
       </c>
       <c r="F95">
-        <v>651.6963500976562</v>
+        <v>98.73380279541016</v>
       </c>
       <c r="G95">
-        <v>0.4245508971890779</v>
+        <v>0.1838872658090962</v>
       </c>
       <c r="H95">
-        <v>687.3114717125719</v>
+        <v>114.1482397972827</v>
       </c>
       <c r="I95">
-        <v>-10.73391182096198</v>
+        <v>-0.1478729425316667</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3282,22 +3282,22 @@
         <v>5</v>
       </c>
       <c r="D96">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E96">
-        <v>152467.421875</v>
+        <v>3596.344482421875</v>
       </c>
       <c r="F96">
-        <v>289.8931579589844</v>
+        <v>46.92557144165039</v>
       </c>
       <c r="G96">
-        <v>0.1291192885857905</v>
+        <v>0.0583327255537515</v>
       </c>
       <c r="H96">
-        <v>390.4349861446526</v>
+        <v>57.99680355477194</v>
       </c>
       <c r="I96">
-        <v>0.0969187525270423</v>
+        <v>0.0927669791628382</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3311,22 +3311,22 @@
         <v>1</v>
       </c>
       <c r="D97">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="E97">
-        <v>13524.634765625</v>
+        <v>84986.2109375</v>
       </c>
       <c r="F97">
-        <v>96.23985290527344</v>
+        <v>256.2651672363281</v>
       </c>
       <c r="G97">
-        <v>0.1539032436434194</v>
+        <v>0.2049523518143012</v>
       </c>
       <c r="H97">
-        <v>116.25514585425</v>
+        <v>291.4955984764142</v>
       </c>
       <c r="I97">
-        <v>-0.4333588699382893</v>
+        <v>-3.421137439789041</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3340,22 +3340,22 @@
         <v>2</v>
       </c>
       <c r="D98">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="E98">
-        <v>2881.595703125</v>
+        <v>12636.2470703125</v>
       </c>
       <c r="F98">
-        <v>38.99174880981445</v>
+        <v>89.62409210205078</v>
       </c>
       <c r="G98">
-        <v>0.09786497909191789</v>
+        <v>0.06741277955123109</v>
       </c>
       <c r="H98">
-        <v>52.62039829337903</v>
+        <v>111.9113273753807</v>
       </c>
       <c r="I98">
-        <v>0.2688128733501522</v>
+        <v>0.4433817641689482</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3369,22 +3369,22 @@
         <v>3</v>
       </c>
       <c r="D99">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E99">
-        <v>7090.54736328125</v>
+        <v>5598.7109375</v>
       </c>
       <c r="F99">
-        <v>52.87139892578125</v>
+        <v>59.0357780456543</v>
       </c>
       <c r="G99">
-        <v>0.0806801432181211</v>
+        <v>0.0462762044317237</v>
       </c>
       <c r="H99">
-        <v>80.60869370422644</v>
+        <v>74.41293748231641</v>
       </c>
       <c r="I99">
-        <v>0.6549228081306067</v>
+        <v>0.5633883432294007</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3398,22 +3398,22 @@
         <v>4</v>
       </c>
       <c r="D100">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E100">
-        <v>496457.90625</v>
+        <v>12983.375</v>
       </c>
       <c r="F100">
-        <v>675.2244873046875</v>
+        <v>97.08786773681641</v>
       </c>
       <c r="G100">
-        <v>0.4420682400785941</v>
+        <v>0.1776919200036062</v>
       </c>
       <c r="H100">
-        <v>704.5876894654695</v>
+        <v>113.6746175021593</v>
       </c>
       <c r="I100">
-        <v>-11.3306761451717</v>
+        <v>-0.1249661156890688</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3427,22 +3427,22 @@
         <v>5</v>
       </c>
       <c r="D101">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E101">
-        <v>134029.59375</v>
+        <v>3614.57373046875</v>
       </c>
       <c r="F101">
-        <v>270.882080078125</v>
+        <v>47.59943771362305</v>
       </c>
       <c r="G101">
-        <v>0.1211069141871345</v>
+        <v>0.0593865776931517</v>
       </c>
       <c r="H101">
-        <v>366.0696796732018</v>
+        <v>58.29525017337849</v>
       </c>
       <c r="I101">
-        <v>0.2061638680570585</v>
+        <v>0.08943090657861261</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3456,22 +3456,22 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E102">
-        <v>11449.0830078125</v>
+        <v>85592.1171875</v>
       </c>
       <c r="F102">
-        <v>86.63817596435547</v>
+        <v>257.4475708007812</v>
       </c>
       <c r="G102">
-        <v>0.1379228513342267</v>
+        <v>0.2059504399695679</v>
       </c>
       <c r="H102">
-        <v>106.98926536725</v>
+        <v>292.5216564787234</v>
       </c>
       <c r="I102">
-        <v>-0.2124840911185148</v>
+        <v>-3.450229214131687</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3485,22 +3485,22 @@
         <v>2</v>
       </c>
       <c r="D103">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E103">
-        <v>2989.56396484375</v>
+        <v>50281.4609375</v>
       </c>
       <c r="F103">
-        <v>40.20781707763672</v>
+        <v>196.7273864746093</v>
       </c>
       <c r="G103">
-        <v>0.0997574562315878</v>
+        <v>0.1371891095520734</v>
       </c>
       <c r="H103">
-        <v>52.89134343675357</v>
+        <v>224.0404525421788</v>
       </c>
       <c r="I103">
-        <v>0.241592652859792</v>
+        <v>-1.196785609095374</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3514,22 +3514,22 @@
         <v>3</v>
       </c>
       <c r="D104">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E104">
-        <v>7252.58984375</v>
+        <v>5693.1328125</v>
       </c>
       <c r="F104">
-        <v>53.97492599487305</v>
+        <v>59.64248275756836</v>
       </c>
       <c r="G104">
-        <v>0.08318599841951831</v>
+        <v>0.0469347697171046</v>
       </c>
       <c r="H104">
-        <v>81.49098024492838</v>
+        <v>74.98362199042712</v>
       </c>
       <c r="I104">
-        <v>0.6471700365938777</v>
+        <v>0.5555337289648793</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3543,22 +3543,22 @@
         <v>4</v>
       </c>
       <c r="D105">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E105">
-        <v>755687.5</v>
+        <v>12647.595703125</v>
       </c>
       <c r="F105">
-        <v>845.475830078125</v>
+        <v>97.35872650146484</v>
       </c>
       <c r="G105">
-        <v>0.5580066085012746</v>
+        <v>0.1832290403115395</v>
       </c>
       <c r="H105">
-        <v>869.2794136053476</v>
+        <v>112.293458521842</v>
       </c>
       <c r="I105">
-        <v>-17.77091193890326</v>
+        <v>-0.09832565172876109</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3572,22 +3572,22 @@
         <v>5</v>
       </c>
       <c r="D106">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E106">
-        <v>139417.53125</v>
+        <v>3820.0673828125</v>
       </c>
       <c r="F106">
-        <v>276.665283203125</v>
+        <v>48.28108215332031</v>
       </c>
       <c r="G106">
-        <v>0.1234444585526697</v>
+        <v>0.060103457603122</v>
       </c>
       <c r="H106">
-        <v>373.0478106848949</v>
+        <v>59.37021679683946</v>
       </c>
       <c r="I106">
-        <v>0.1729862716289059</v>
+        <v>0.0347103106360446</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3601,22 +3601,22 @@
         <v>1</v>
       </c>
       <c r="D107">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="E107">
-        <v>10598.326171875</v>
+        <v>85451.2734375</v>
       </c>
       <c r="F107">
-        <v>81.45613861083984</v>
+        <v>257.1828002929688</v>
       </c>
       <c r="G107">
-        <v>0.1300085400765144</v>
+        <v>0.2057336257953753</v>
       </c>
       <c r="H107">
-        <v>102.9350980757961</v>
+        <v>292.2942131835526</v>
       </c>
       <c r="I107">
-        <v>-0.1225134709409778</v>
+        <v>-3.445925399548734</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3630,22 +3630,22 @@
         <v>2</v>
       </c>
       <c r="D108">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E108">
-        <v>2817.332275390625</v>
+        <v>13333.2041015625</v>
       </c>
       <c r="F108">
-        <v>38.5756721496582</v>
+        <v>90.44955444335938</v>
       </c>
       <c r="G108">
-        <v>0.096675124821585</v>
+        <v>0.0693308977564783</v>
       </c>
       <c r="H108">
-        <v>52.0267928671666</v>
+        <v>115.262206512329</v>
       </c>
       <c r="I108">
-        <v>0.2851205863915718</v>
+        <v>0.4138160726414703</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3659,22 +3659,22 @@
         <v>3</v>
       </c>
       <c r="D109">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="E109">
-        <v>7260.11767578125</v>
+        <v>5895.90771484375</v>
       </c>
       <c r="F109">
-        <v>52.41477966308594</v>
+        <v>59.51821517944336</v>
       </c>
       <c r="G109">
-        <v>0.07903168730637369</v>
+        <v>0.0460811167108393</v>
       </c>
       <c r="H109">
-        <v>82.18908180597924</v>
+        <v>76.7384351921868</v>
       </c>
       <c r="I109">
-        <v>0.6437040058217389</v>
+        <v>0.5428720821410344</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3688,22 +3688,22 @@
         <v>4</v>
       </c>
       <c r="D110">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="E110">
-        <v>397259.15625</v>
+        <v>12981.4716796875</v>
       </c>
       <c r="F110">
-        <v>596.4088745117188</v>
+        <v>98.84782409667967</v>
       </c>
       <c r="G110">
-        <v>0.3881005023856429</v>
+        <v>0.1903287909081123</v>
       </c>
       <c r="H110">
-        <v>630.2828780982584</v>
+        <v>113.6526514184345</v>
       </c>
       <c r="I110">
-        <v>-8.865798529701008</v>
+        <v>-0.1273196550210002</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3717,22 +3717,22 @@
         <v>5</v>
       </c>
       <c r="D111">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E111">
-        <v>139274.765625</v>
+        <v>3613.058837890625</v>
       </c>
       <c r="F111">
-        <v>280.1679382324219</v>
+        <v>47.01696014404297</v>
       </c>
       <c r="G111">
-        <v>0.1254678050692288</v>
+        <v>0.0579189927109319</v>
       </c>
       <c r="H111">
-        <v>373.0737776099222</v>
+        <v>58.55157770923606</v>
       </c>
       <c r="I111">
-        <v>0.1745711808066409</v>
+        <v>0.0907405152412302</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3746,22 +3746,22 @@
         <v>1</v>
       </c>
       <c r="D112">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="E112">
-        <v>12361.4736328125</v>
+        <v>85404.015625</v>
       </c>
       <c r="F112">
-        <v>91.22210693359376</v>
+        <v>257.0757446289062</v>
       </c>
       <c r="G112">
-        <v>0.145680289350833</v>
+        <v>0.2056323230043205</v>
       </c>
       <c r="H112">
-        <v>111.1470394850008</v>
+        <v>292.1946317953094</v>
       </c>
       <c r="I112">
-        <v>-0.3100005816385302</v>
+        <v>-3.439298296038837</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3775,22 +3775,22 @@
         <v>2</v>
       </c>
       <c r="D113">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="E113">
-        <v>3551.248046875</v>
+        <v>12912.9404296875</v>
       </c>
       <c r="F113">
-        <v>45.21559524536133</v>
+        <v>86.45470428466797</v>
       </c>
       <c r="G113">
-        <v>0.1104481495036011</v>
+        <v>0.0663807247258392</v>
       </c>
       <c r="H113">
-        <v>59.55779501925625</v>
+        <v>113.3379990481586</v>
       </c>
       <c r="I113">
-        <v>0.0980970198760784</v>
+        <v>0.4318722168980274</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -3804,22 +3804,22 @@
         <v>3</v>
       </c>
       <c r="D114">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E114">
-        <v>8139.17724609375</v>
+        <v>5778.7119140625</v>
       </c>
       <c r="F114">
-        <v>57.16025161743164</v>
+        <v>60.36064147949219</v>
       </c>
       <c r="G114">
-        <v>0.0873192803063365</v>
+        <v>0.0477327760170683</v>
       </c>
       <c r="H114">
-        <v>87.35776419786238</v>
+        <v>75.35771476818942</v>
       </c>
       <c r="I114">
-        <v>0.5986982872868706</v>
+        <v>0.5478214505166975</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3833,22 +3833,22 @@
         <v>4</v>
       </c>
       <c r="D115">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E115">
-        <v>460504.75</v>
+        <v>15158.96484375</v>
       </c>
       <c r="F115">
-        <v>648.0381469726562</v>
+        <v>100.3517837524414</v>
       </c>
       <c r="G115">
-        <v>0.423516375503</v>
+        <v>0.1728487045479657</v>
       </c>
       <c r="H115">
-        <v>678.5614620763768</v>
+        <v>122.5655869317025</v>
       </c>
       <c r="I115">
-        <v>-10.44043442416221</v>
+        <v>-0.3219438697793302</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3862,22 +3862,22 @@
         <v>5</v>
       </c>
       <c r="D116">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E116">
-        <v>146968.03125</v>
+        <v>3912.80712890625</v>
       </c>
       <c r="F116">
-        <v>284.7383728027344</v>
+        <v>48.78307342529297</v>
       </c>
       <c r="G116">
-        <v>0.1270179735687175</v>
+        <v>0.0607661497033541</v>
       </c>
       <c r="H116">
-        <v>383.2146405806772</v>
+        <v>59.82997736360028</v>
       </c>
       <c r="I116">
-        <v>0.1288363793855773</v>
+        <v>0.0101192893686329</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -3891,22 +3891,22 @@
         <v>1</v>
       </c>
       <c r="D117">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="E117">
-        <v>12849.53125</v>
+        <v>85456.8671875</v>
       </c>
       <c r="F117">
-        <v>92.85163879394533</v>
+        <v>257.1895446777344</v>
       </c>
       <c r="G117">
-        <v>0.1476774943659171</v>
+        <v>0.2057361910372008</v>
       </c>
       <c r="H117">
-        <v>113.321555798505</v>
+        <v>292.3000747770927</v>
       </c>
       <c r="I117">
-        <v>-0.3616787811238209</v>
+        <v>-3.44510353938264</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -3920,22 +3920,22 @@
         <v>2</v>
       </c>
       <c r="D118">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E118">
-        <v>2927.558837890625</v>
+        <v>20876.740234375</v>
       </c>
       <c r="F118">
-        <v>39.46227645874024</v>
+        <v>118.9284133911133</v>
       </c>
       <c r="G118">
-        <v>0.0997090608244644</v>
+        <v>0.08797122387878969</v>
       </c>
       <c r="H118">
-        <v>53.25861218130069</v>
+        <v>144.4356230257911</v>
       </c>
       <c r="I118">
-        <v>0.2570756047253167</v>
+        <v>0.0870582776018099</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -3949,22 +3949,22 @@
         <v>3</v>
       </c>
       <c r="D119">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="E119">
-        <v>6550.39111328125</v>
+        <v>5575.62646484375</v>
       </c>
       <c r="F119">
-        <v>50.71213531494141</v>
+        <v>59.66571807861328</v>
       </c>
       <c r="G119">
-        <v>0.07736339955902979</v>
+        <v>0.0469674811302998</v>
       </c>
       <c r="H119">
-        <v>77.15957243728973</v>
+        <v>74.55676820849861</v>
       </c>
       <c r="I119">
-        <v>0.6824904903582093</v>
+        <v>0.5653348457613763</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -3978,22 +3978,22 @@
         <v>4</v>
       </c>
       <c r="D120">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E120">
-        <v>565731.6875</v>
+        <v>18467.890625</v>
       </c>
       <c r="F120">
-        <v>723.9963989257812</v>
+        <v>114.1442794799805</v>
       </c>
       <c r="G120">
-        <v>0.475051156747816</v>
+        <v>0.2379194619654917</v>
       </c>
       <c r="H120">
-        <v>752.1184554095918</v>
+        <v>134.3935578215932</v>
       </c>
       <c r="I120">
-        <v>-13.05363036405999</v>
+        <v>-0.6011923423200085</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4007,22 +4007,22 @@
         <v>5</v>
       </c>
       <c r="D121">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E121">
-        <v>122625.3828125</v>
+        <v>4596.7490234375</v>
       </c>
       <c r="F121">
-        <v>259.5602722167969</v>
+        <v>53.99995422363281</v>
       </c>
       <c r="G121">
-        <v>0.115907626112847</v>
+        <v>0.066584014904775</v>
       </c>
       <c r="H121">
-        <v>349.8753966605952</v>
+        <v>66.24831231626968</v>
       </c>
       <c r="I121">
-        <v>0.2726419231319241</v>
+        <v>-0.1557052278115319</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4036,22 +4036,22 @@
         <v>1</v>
       </c>
       <c r="D122">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="E122">
-        <v>13789.986328125</v>
+        <v>84528.0859375</v>
       </c>
       <c r="F122">
-        <v>97.8691864013672</v>
+        <v>255.4194030761719</v>
       </c>
       <c r="G122">
-        <v>0.157409651901659</v>
+        <v>0.2042427356471754</v>
       </c>
       <c r="H122">
-        <v>117.3872942891018</v>
+        <v>290.7046649868294</v>
       </c>
       <c r="I122">
-        <v>-0.4615735398819527</v>
+        <v>-3.396227801861107</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4065,22 +4065,22 @@
         <v>2</v>
       </c>
       <c r="D123">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="E123">
-        <v>3144.64453125</v>
+        <v>16585.158203125</v>
       </c>
       <c r="F123">
-        <v>41.15015029907227</v>
+        <v>101.0833740234375</v>
       </c>
       <c r="G123">
-        <v>0.1025932505805384</v>
+        <v>0.0775758382134371</v>
       </c>
       <c r="H123">
-        <v>55.84318333971305</v>
+        <v>128.6573187772682</v>
       </c>
       <c r="I123">
-        <v>0.201685207994591</v>
+        <v>0.2715601402952836</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4094,22 +4094,22 @@
         <v>3</v>
       </c>
       <c r="D124">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E124">
-        <v>6744.384765625</v>
+        <v>5716.201171875</v>
       </c>
       <c r="F124">
-        <v>49.92962265014648</v>
+        <v>60.20342254638672</v>
       </c>
       <c r="G124">
-        <v>0.074607646896944</v>
+        <v>0.047789697281527</v>
       </c>
       <c r="H124">
-        <v>78.26887744091022</v>
+        <v>74.88868445611993</v>
       </c>
       <c r="I124">
-        <v>0.6733119160446637</v>
+        <v>0.5522335663247723</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4123,22 +4123,22 @@
         <v>4</v>
       </c>
       <c r="D125">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="E125">
-        <v>355675.25</v>
+        <v>15040.7958984375</v>
       </c>
       <c r="F125">
-        <v>549.7274780273438</v>
+        <v>100.1684646606445</v>
       </c>
       <c r="G125">
-        <v>0.354310315046471</v>
+        <v>0.1733854481383411</v>
       </c>
       <c r="H125">
-        <v>596.3690993275926</v>
+        <v>121.8243536618587</v>
       </c>
       <c r="I125">
-        <v>-7.834343707526719</v>
+        <v>-0.302048004989045</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4152,22 +4152,22 @@
         <v>5</v>
       </c>
       <c r="D126">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E126">
-        <v>130194.78125</v>
+        <v>3868.3662109375</v>
       </c>
       <c r="F126">
-        <v>264.5292053222656</v>
+        <v>49.12246704101562</v>
       </c>
       <c r="G126">
-        <v>0.1178961969801666</v>
+        <v>0.0610713999410722</v>
       </c>
       <c r="H126">
-        <v>360.7371869917972</v>
+        <v>59.9490626945022</v>
       </c>
       <c r="I126">
-        <v>0.2285128921761161</v>
+        <v>0.0235745330094122</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4181,22 +4181,22 @@
         <v>1</v>
       </c>
       <c r="D127">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="E127">
-        <v>11023.7919921875</v>
+        <v>84427.9609375</v>
       </c>
       <c r="F127">
-        <v>84.06378936767578</v>
+        <v>255.2036437988281</v>
       </c>
       <c r="G127">
-        <v>0.1325886304316622</v>
+        <v>0.2040544960595673</v>
       </c>
       <c r="H127">
-        <v>104.9829692602191</v>
+        <v>290.5284926406327</v>
       </c>
       <c r="I127">
-        <v>-0.1674583463548368</v>
+        <v>-3.390173583557866</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4210,22 +4210,22 @@
         <v>2</v>
       </c>
       <c r="D128">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="E128">
-        <v>2692.53125</v>
+        <v>12345.1337890625</v>
       </c>
       <c r="F128">
-        <v>37.82160186767578</v>
+        <v>83.39451599121094</v>
       </c>
       <c r="G128">
-        <v>0.0938675218052305</v>
+        <v>0.0642184432103494</v>
       </c>
       <c r="H128">
-        <v>50.46521900300759</v>
+        <v>109.8590176686999</v>
       </c>
       <c r="I128">
-        <v>0.3168888464203556</v>
+        <v>0.4543974071755123</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4239,22 +4239,22 @@
         <v>3</v>
       </c>
       <c r="D129">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E129">
-        <v>7064.62548828125</v>
+        <v>4806.54248046875</v>
       </c>
       <c r="F129">
-        <v>50.79271697998047</v>
+        <v>54.52534103393555</v>
       </c>
       <c r="G129">
-        <v>0.0764265366290043</v>
+        <v>0.0421132793113944</v>
       </c>
       <c r="H129">
-        <v>80.77755751692486</v>
+        <v>69.27232016691289</v>
       </c>
       <c r="I129">
-        <v>0.6547389576729709</v>
+        <v>0.6278034185510717</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4268,22 +4268,22 @@
         <v>4</v>
       </c>
       <c r="D130">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="E130">
-        <v>477044.5</v>
+        <v>18100.921875</v>
       </c>
       <c r="F130">
-        <v>653.4506225585938</v>
+        <v>106.6987991333008</v>
       </c>
       <c r="G130">
-        <v>0.4253157973886984</v>
+        <v>0.1789563969755534</v>
       </c>
       <c r="H130">
-        <v>690.6778866753239</v>
+        <v>133.5028249731093</v>
       </c>
       <c r="I130">
-        <v>-10.84821426903619</v>
+        <v>-0.5679990399668782</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4297,22 +4297,22 @@
         <v>5</v>
       </c>
       <c r="D131">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="E131">
-        <v>117241.1640625</v>
+        <v>3175.876708984375</v>
       </c>
       <c r="F131">
-        <v>254.5556335449219</v>
+        <v>43.99907302856445</v>
       </c>
       <c r="G131">
-        <v>0.1139179648872789</v>
+        <v>0.0547422751517869</v>
       </c>
       <c r="H131">
-        <v>342.3636567815262</v>
+        <v>54.10417590447671</v>
       </c>
       <c r="I131">
-        <v>0.305486360694957</v>
+        <v>0.1972315604632546</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4326,22 +4326,22 @@
         <v>1</v>
       </c>
       <c r="D132">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E132">
-        <v>11040.7421875</v>
+        <v>85142.1484375</v>
       </c>
       <c r="F132">
-        <v>84.22175598144531</v>
+        <v>256.5710754394531</v>
       </c>
       <c r="G132">
-        <v>0.1332207316580758</v>
+        <v>0.205209900292746</v>
       </c>
       <c r="H132">
-        <v>105.066273817582</v>
+        <v>291.7567586229204</v>
       </c>
       <c r="I132">
-        <v>-0.1691195783642594</v>
+        <v>-3.427878512051184</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4355,22 +4355,22 @@
         <v>2</v>
       </c>
       <c r="D133">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E133">
-        <v>2826.549560546875</v>
+        <v>36611.421875</v>
       </c>
       <c r="F133">
-        <v>39.00207138061523</v>
+        <v>165.7806091308594</v>
       </c>
       <c r="G133">
-        <v>0.0969845177832602</v>
+        <v>0.1167232607350349</v>
       </c>
       <c r="H133">
-        <v>51.75919609305772</v>
+        <v>191.1561373403101</v>
       </c>
       <c r="I133">
-        <v>0.2828754567271687</v>
+        <v>-0.5993438931927266</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4384,22 +4384,22 @@
         <v>3</v>
       </c>
       <c r="D134">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="E134">
-        <v>7103.66455078125</v>
+        <v>5713.7958984375</v>
       </c>
       <c r="F134">
-        <v>51.41776657104492</v>
+        <v>59.60410308837891</v>
       </c>
       <c r="G134">
-        <v>0.0775109284521884</v>
+        <v>0.046610213917164</v>
       </c>
       <c r="H134">
-        <v>80.42060042535644</v>
+        <v>75.16750262548986</v>
       </c>
       <c r="I134">
-        <v>0.6554125765630651</v>
+        <v>0.55452979634184</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4413,22 +4413,22 @@
         <v>4</v>
       </c>
       <c r="D135">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="E135">
-        <v>429399.9375</v>
+        <v>14843.1474609375</v>
       </c>
       <c r="F135">
-        <v>622.3036499023438</v>
+        <v>99.7142333984375</v>
       </c>
       <c r="G135">
-        <v>0.4056338719389565</v>
+        <v>0.1733064658727827</v>
       </c>
       <c r="H135">
-        <v>655.2802472533649</v>
+        <v>121.435626423153</v>
       </c>
       <c r="I135">
-        <v>-9.664808876783637</v>
+        <v>-0.2926351801675199</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4442,22 +4442,22 @@
         <v>5</v>
       </c>
       <c r="D136">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="E136">
-        <v>129226.078125</v>
+        <v>4724.9130859375</v>
       </c>
       <c r="F136">
-        <v>277.5005187988281</v>
+        <v>55.34879302978516</v>
       </c>
       <c r="G136">
-        <v>0.1263293974383774</v>
+        <v>0.06789961271361079</v>
       </c>
       <c r="H136">
-        <v>359.1857998888491</v>
+        <v>67.33269791131328</v>
       </c>
       <c r="I136">
-        <v>0.2335289589937829</v>
+        <v>-0.1873408373157366</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4471,22 +4471,22 @@
         <v>1</v>
       </c>
       <c r="D137">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E137">
-        <v>11486.625</v>
+        <v>88197.6875</v>
       </c>
       <c r="F137">
-        <v>86.50559234619141</v>
+        <v>262.3207092285156</v>
       </c>
       <c r="G137">
-        <v>0.1371174039903586</v>
+        <v>0.2100598908366035</v>
       </c>
       <c r="H137">
-        <v>107.1514790335892</v>
+        <v>296.9503158031122</v>
       </c>
       <c r="I137">
-        <v>-0.2169990075082332</v>
+        <v>-3.58759149544978</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4500,22 +4500,22 @@
         <v>2</v>
       </c>
       <c r="D138">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="E138">
-        <v>3260.22412109375</v>
+        <v>13713.0439453125</v>
       </c>
       <c r="F138">
-        <v>42.76593399047852</v>
+        <v>84.81310272216797</v>
       </c>
       <c r="G138">
-        <v>0.1047803914368084</v>
+        <v>0.06607307746229631</v>
       </c>
       <c r="H138">
-        <v>57.02996931292577</v>
+        <v>116.2597361178336</v>
       </c>
       <c r="I138">
-        <v>0.1721114581236068</v>
+        <v>0.394995581833869</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4529,22 +4529,22 @@
         <v>3</v>
       </c>
       <c r="D139">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E139">
-        <v>7471.39599609375</v>
+        <v>6320.04150390625</v>
       </c>
       <c r="F139">
-        <v>53.89161682128906</v>
+        <v>62.97658920288086</v>
       </c>
       <c r="G139">
-        <v>0.08245036026335791</v>
+        <v>0.0491663260144949</v>
       </c>
       <c r="H139">
-        <v>83.14845067376822</v>
+        <v>79.20083176163607</v>
       </c>
       <c r="I139">
-        <v>0.6344725711594358</v>
+        <v>0.5076293448639371</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4558,22 +4558,22 @@
         <v>4</v>
       </c>
       <c r="D140">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E140">
-        <v>1136151</v>
+        <v>13279.4013671875</v>
       </c>
       <c r="F140">
-        <v>1046.300659179688</v>
+        <v>98.34832000732422</v>
       </c>
       <c r="G140">
-        <v>0.6947854091932062</v>
+        <v>0.1815486889822538</v>
       </c>
       <c r="H140">
-        <v>1065.812480029373</v>
+        <v>114.7442024674948</v>
       </c>
       <c r="I140">
-        <v>-27.2211009339137</v>
+        <v>-0.1510097331828902</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4587,22 +4587,22 @@
         <v>5</v>
       </c>
       <c r="D141">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E141">
-        <v>145106.15625</v>
+        <v>3623.843017578125</v>
       </c>
       <c r="F141">
-        <v>282.6969604492188</v>
+        <v>47.06546020507812</v>
       </c>
       <c r="G141">
-        <v>0.1267373509662231</v>
+        <v>0.0588205607882116</v>
       </c>
       <c r="H141">
-        <v>380.9016687875706</v>
+        <v>57.58688144377408</v>
       </c>
       <c r="I141">
-        <v>0.1406170142783503</v>
+        <v>0.0832813643213898</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4616,22 +4616,22 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="E142">
-        <v>12102.2109375</v>
+        <v>75148.375</v>
       </c>
       <c r="F142">
-        <v>89.35620880126953</v>
+        <v>236.3566589355469</v>
       </c>
       <c r="G142">
-        <v>0.1411459028656941</v>
+        <v>0.1880989333112119</v>
       </c>
       <c r="H142">
-        <v>109.9829298329713</v>
+        <v>274.1020907535639</v>
       </c>
       <c r="I142">
-        <v>-0.2822716827543206</v>
+        <v>-2.908606613581938</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4645,22 +4645,22 @@
         <v>2</v>
       </c>
       <c r="D143">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="E143">
-        <v>2857.15869140625</v>
+        <v>13154.1376953125</v>
       </c>
       <c r="F143">
-        <v>38.91653442382812</v>
+        <v>84.61441040039062</v>
       </c>
       <c r="G143">
-        <v>0.0973347538986503</v>
+        <v>0.06563015834326159</v>
       </c>
       <c r="H143">
-        <v>52.09400575009672</v>
+        <v>113.5827515817425</v>
       </c>
       <c r="I143">
-        <v>0.2750869199056253</v>
+        <v>0.4190388760298894</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -4674,22 +4674,22 @@
         <v>3</v>
       </c>
       <c r="D144">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E144">
-        <v>6920.34912109375</v>
+        <v>5751.99755859375</v>
       </c>
       <c r="F144">
-        <v>51.04093933105469</v>
+        <v>59.83225250244141</v>
       </c>
       <c r="G144">
-        <v>0.0769209465080954</v>
+        <v>0.0469502673939992</v>
       </c>
       <c r="H144">
-        <v>79.59606365290601</v>
+        <v>75.41728369634838</v>
       </c>
       <c r="I144">
-        <v>0.6633129111338452</v>
+        <v>0.5508469478701928</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -4703,22 +4703,22 @@
         <v>4</v>
       </c>
       <c r="D145">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E145">
-        <v>420658.40625</v>
+        <v>15332.3212890625</v>
       </c>
       <c r="F145">
-        <v>616.0314331054688</v>
+        <v>100.7848129272461</v>
       </c>
       <c r="G145">
-        <v>0.4015623169752693</v>
+        <v>0.1745288889044657</v>
       </c>
       <c r="H145">
-        <v>648.5582960861522</v>
+        <v>123.0313207707947</v>
       </c>
       <c r="I145">
-        <v>-9.449452621083374</v>
+        <v>-0.3272030448108797</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -4732,22 +4732,22 @@
         <v>5</v>
       </c>
       <c r="D146">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E146">
-        <v>165801.3125</v>
+        <v>4631.87939453125</v>
       </c>
       <c r="F146">
-        <v>306.791748046875</v>
+        <v>54.06839370727539</v>
       </c>
       <c r="G146">
-        <v>0.1373641200836384</v>
+        <v>0.06587172336847449</v>
       </c>
       <c r="H146">
-        <v>407.146707959932</v>
+        <v>66.92391540207144</v>
       </c>
       <c r="I146">
-        <v>0.0179239398929017</v>
+        <v>-0.1614959341949676</v>
       </c>
     </row>
   </sheetData>
@@ -4815,40 +4815,40 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>139187.867578125</v>
+        <v>26710.20830078125</v>
       </c>
       <c r="D2">
-        <v>233.2083259582519</v>
+        <v>113.0091552734375</v>
       </c>
       <c r="E2">
-        <v>0.1866976296412254</v>
+        <v>0.1058823291827132</v>
       </c>
       <c r="F2">
-        <v>269.1717191785073</v>
+        <v>133.2317510964566</v>
       </c>
       <c r="G2">
-        <v>-2.462633224432884</v>
+        <v>-0.5990915250330356</v>
       </c>
       <c r="H2">
-        <v>70.40000000000001</v>
+        <v>62.8</v>
       </c>
       <c r="I2">
-        <v>238395.5570125269</v>
+        <v>40548.08695933071</v>
       </c>
       <c r="J2">
-        <v>283.2469335233396</v>
+        <v>97.14433420453715</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M2">
-        <v>3913.98388671875</v>
+        <v>4174.2158203125</v>
       </c>
       <c r="N2">
-        <v>47.86849594116211</v>
+        <v>50.93564224243164</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -4859,40 +4859,40 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>158938.8000976563</v>
+        <v>35620.33618164062</v>
       </c>
       <c r="D3">
-        <v>246.8836647033691</v>
+        <v>134.4787895202637</v>
       </c>
       <c r="E3">
-        <v>0.1939729218075528</v>
+        <v>0.1304694686421769</v>
       </c>
       <c r="F3">
-        <v>282.0983814738233</v>
+        <v>158.0997739270333</v>
       </c>
       <c r="G3">
-        <v>-2.890168850842406</v>
+        <v>-1.048808983131573</v>
       </c>
       <c r="H3">
-        <v>71.40000000000001</v>
+        <v>45.2</v>
       </c>
       <c r="I3">
-        <v>277903.9840965926</v>
+        <v>46752.17773169078</v>
       </c>
       <c r="J3">
-        <v>310.4086889982332</v>
+        <v>100.5831869525572</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M3">
-        <v>3120.37060546875</v>
+        <v>3599.329345703125</v>
       </c>
       <c r="N3">
-        <v>41.18591690063477</v>
+        <v>47.78776931762695</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -4903,40 +4903,40 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>160894.489453125</v>
+        <v>108537.9588378906</v>
       </c>
       <c r="D4">
-        <v>253.4454399108887</v>
+        <v>185.2238792419434</v>
       </c>
       <c r="E4">
-        <v>0.1953066198823045</v>
+        <v>0.1591476764824018</v>
       </c>
       <c r="F4">
-        <v>296.4807555814347</v>
+        <v>220.6238796942841</v>
       </c>
       <c r="G4">
-        <v>-2.570020536969787</v>
+        <v>-4.78848591716511</v>
       </c>
       <c r="H4">
-        <v>62.8</v>
+        <v>34.2</v>
       </c>
       <c r="I4">
-        <v>238107.7945454493</v>
+        <v>211422.4298058276</v>
       </c>
       <c r="J4">
-        <v>285.1532291411983</v>
+        <v>233.5776517261254</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>4161.42138671875</v>
+        <v>3833.1298828125</v>
       </c>
       <c r="N4">
-        <v>49.46764373779297</v>
+        <v>48.45933151245117</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -4947,40 +4947,40 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>219132.2216796875</v>
+        <v>30936.94775390625</v>
       </c>
       <c r="D5">
-        <v>283.8322731018067</v>
+        <v>121.7240043640137</v>
       </c>
       <c r="E5">
-        <v>0.2120039793810279</v>
+        <v>0.1197700055638162</v>
       </c>
       <c r="F5">
-        <v>336.2549403105459</v>
+        <v>144.5293655760473</v>
       </c>
       <c r="G5">
-        <v>-3.781475079440732</v>
+        <v>-0.877543839509063</v>
       </c>
       <c r="H5">
-        <v>47.2</v>
+        <v>49.6</v>
       </c>
       <c r="I5">
-        <v>338818.1892205265</v>
+        <v>46782.89604440165</v>
       </c>
       <c r="J5">
-        <v>343.2055430936943</v>
+        <v>103.9267984021911</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>3121.62939453125</v>
+        <v>3759.95068359375</v>
       </c>
       <c r="N5">
-        <v>40.29271697998047</v>
+        <v>49.03516006469727</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -4991,40 +4991,40 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>141870.1409667969</v>
+        <v>27643.357421875</v>
       </c>
       <c r="D6">
-        <v>261.5030288696289</v>
+        <v>117.9031524658203</v>
       </c>
       <c r="E6">
-        <v>0.2379994592089473</v>
+        <v>0.1204247619216276</v>
       </c>
       <c r="F6">
-        <v>300.4352947644451</v>
+        <v>138.8670490104637</v>
       </c>
       <c r="G6">
-        <v>-3.570786992739164</v>
+        <v>-0.6997424882911731</v>
       </c>
       <c r="H6">
-        <v>58.6</v>
+        <v>54.8</v>
       </c>
       <c r="I6">
-        <v>189314.4471008205</v>
+        <v>40299.8709638311</v>
       </c>
       <c r="J6">
-        <v>245.5778988767005</v>
+        <v>93.49966720838522</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="M6">
-        <v>3190.403564453125</v>
+        <v>4268.064453125</v>
       </c>
       <c r="N6">
-        <v>41.86094284057617</v>
+        <v>51.94306182861328</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -5035,40 +5035,40 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>338587.6510742187</v>
+        <v>31626.00419921875</v>
       </c>
       <c r="D7">
-        <v>357.2299659729004</v>
+        <v>123.8247482299805</v>
       </c>
       <c r="E7">
-        <v>0.267594593395191</v>
+        <v>0.1221904754518522</v>
       </c>
       <c r="F7">
-        <v>403.7777452943855</v>
+        <v>145.0820849778811</v>
       </c>
       <c r="G7">
-        <v>-6.644480342664433</v>
+        <v>-0.8852858703658129</v>
       </c>
       <c r="H7">
-        <v>38</v>
+        <v>53.2</v>
       </c>
       <c r="I7">
-        <v>567312.348910292</v>
+        <v>48435.68442320033</v>
       </c>
       <c r="J7">
-        <v>460.8902010171989</v>
+        <v>107.4157301837888</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>4410.0439453125</v>
+        <v>3647.9462890625</v>
       </c>
       <c r="N7">
-        <v>51.33213424682617</v>
+        <v>47.11026000976562</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -5079,40 +5079,40 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>200167.3079101563</v>
+        <v>59130.39409179687</v>
       </c>
       <c r="D8">
-        <v>275.1842193603516</v>
+        <v>159.9009559631348</v>
       </c>
       <c r="E8">
-        <v>0.2125230612460861</v>
+        <v>0.1535485518036276</v>
       </c>
       <c r="F8">
-        <v>316.6003627299231</v>
+        <v>177.7626389795688</v>
       </c>
       <c r="G8">
-        <v>-3.790973584725634</v>
+        <v>-2.323853933093667</v>
       </c>
       <c r="H8">
-        <v>51.2</v>
+        <v>37.2</v>
       </c>
       <c r="I8">
-        <v>343886.4072095952</v>
+        <v>109996.2378547591</v>
       </c>
       <c r="J8">
-        <v>344.9988603243421</v>
+        <v>183.463557026765</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>4169.19287109375</v>
+        <v>4095.747314453125</v>
       </c>
       <c r="N8">
-        <v>51.07997512817383</v>
+        <v>50.97608947753906</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -5123,40 +5123,40 @@
         <v>24</v>
       </c>
       <c r="C9">
-        <v>156447.5838378906</v>
+        <v>28753.73994140625</v>
       </c>
       <c r="D9">
-        <v>250.2441337585449</v>
+        <v>120.1567436218262</v>
       </c>
       <c r="E9">
-        <v>0.1978058938739946</v>
+        <v>0.1208272044611808</v>
       </c>
       <c r="F9">
-        <v>291.6865314660556</v>
+        <v>141.9161664922023</v>
       </c>
       <c r="G9">
-        <v>-2.691758547622447</v>
+        <v>-0.8080695598509295</v>
       </c>
       <c r="H9">
-        <v>53.6</v>
+        <v>48.4</v>
       </c>
       <c r="I9">
-        <v>244859.8180302028</v>
+        <v>42561.20928139895</v>
       </c>
       <c r="J9">
-        <v>284.7157231956694</v>
+        <v>96.22328520033109</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M9">
-        <v>3354.867431640625</v>
+        <v>5650.982421875</v>
       </c>
       <c r="N9">
-        <v>42.77275466918945</v>
+        <v>59.85900115966797</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -5167,40 +5167,40 @@
         <v>26</v>
       </c>
       <c r="C10">
-        <v>241830.0829589844</v>
+        <v>34389.66323242187</v>
       </c>
       <c r="D10">
-        <v>297.1540412902832</v>
+        <v>128.9626838684082</v>
       </c>
       <c r="E10">
-        <v>0.2301493304667286</v>
+        <v>0.1272787645774306</v>
       </c>
       <c r="F10">
-        <v>333.6193537064602</v>
+        <v>150.8093248760715</v>
       </c>
       <c r="G10">
-        <v>-4.890837922603644</v>
+        <v>-1.081158652577322</v>
       </c>
       <c r="H10">
-        <v>28.2</v>
+        <v>26</v>
       </c>
       <c r="I10">
-        <v>446921.9220306177</v>
+        <v>52549.01226519168</v>
       </c>
       <c r="J10">
-        <v>402.4517716651005</v>
+        <v>114.0055820602099</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L10">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M10">
-        <v>3969.239501953125</v>
+        <v>3938.680419921875</v>
       </c>
       <c r="N10">
-        <v>50.90125274658203</v>
+        <v>48.88082504272461</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -5211,40 +5211,40 @@
         <v>33</v>
       </c>
       <c r="C11">
-        <v>142136.9103027344</v>
+        <v>26994.77470703125</v>
       </c>
       <c r="D11">
-        <v>233.316544342041</v>
+        <v>120.7855819702148</v>
       </c>
       <c r="E11">
-        <v>0.1831417475220149</v>
+        <v>0.1290356745833114</v>
       </c>
       <c r="F11">
-        <v>269.1467184974564</v>
+        <v>142.3868672298491</v>
       </c>
       <c r="G11">
-        <v>-2.440620225393673</v>
+        <v>-0.7099215972301989</v>
       </c>
       <c r="H11">
-        <v>41</v>
+        <v>33.4</v>
       </c>
       <c r="I11">
-        <v>242018.2891215574</v>
+        <v>33497.78284116584</v>
       </c>
       <c r="J11">
-        <v>288.1447943354291</v>
+        <v>81.92916887752081</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L11">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M11">
-        <v>2927.558837890625</v>
+        <v>4596.7490234375</v>
       </c>
       <c r="N11">
-        <v>39.46227645874024</v>
+        <v>53.99995422363281</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -5255,40 +5255,40 @@
         <v>32</v>
       </c>
       <c r="C12">
-        <v>126304.9360351562</v>
+        <v>24633.48798828125</v>
       </c>
       <c r="D12">
-        <v>225.2748947143555</v>
+        <v>110.6051895141602</v>
       </c>
       <c r="E12">
-        <v>0.1787964136464976</v>
+        <v>0.1106721355997096</v>
       </c>
       <c r="F12">
-        <v>263.9677402718347</v>
+        <v>132.6571819813921</v>
       </c>
       <c r="G12">
-        <v>-1.984960663850443</v>
+        <v>-0.5542858418069618</v>
       </c>
       <c r="H12">
-        <v>33.8</v>
+        <v>37.6</v>
       </c>
       <c r="I12">
-        <v>196297.7370266577</v>
+        <v>34296.66182451185</v>
       </c>
       <c r="J12">
-        <v>255.4010117183601</v>
+        <v>84.39266915299822</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L12">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="M12">
-        <v>3551.248046875</v>
+        <v>3912.80712890625</v>
       </c>
       <c r="N12">
-        <v>45.21559524536133</v>
+        <v>48.78307342529297</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -5299,40 +5299,40 @@
         <v>37</v>
       </c>
       <c r="C13">
-        <v>260695.0802734375</v>
+        <v>25026.80346679688</v>
       </c>
       <c r="D13">
-        <v>302.4321525573731</v>
+        <v>111.1048362731934</v>
       </c>
       <c r="E13">
-        <v>0.2291741831699909</v>
+        <v>0.113133708816772</v>
       </c>
       <c r="F13">
-        <v>338.8088095674453</v>
+        <v>132.9483935187702</v>
       </c>
       <c r="G13">
-        <v>-5.298179779572108</v>
+        <v>-0.5505389875226949</v>
       </c>
       <c r="H13">
-        <v>29.4</v>
+        <v>40.2</v>
       </c>
       <c r="I13">
-        <v>493022.2257571457</v>
+        <v>35582.97647493587</v>
       </c>
       <c r="J13">
-        <v>427.0693899489581</v>
+        <v>86.80091308168105</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L13">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M13">
-        <v>3260.22412109375</v>
+        <v>3623.843017578125</v>
       </c>
       <c r="N13">
-        <v>42.76593399047852</v>
+        <v>47.06546020507812</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -5343,40 +5343,40 @@
         <v>25</v>
       </c>
       <c r="C14">
-        <v>85087.40659179687</v>
+        <v>24606.23408203125</v>
       </c>
       <c r="D14">
-        <v>187.2726188659668</v>
+        <v>109.6381271362305</v>
       </c>
       <c r="E14">
-        <v>0.1497047690717355</v>
+        <v>0.1092345374270014</v>
       </c>
       <c r="F14">
-        <v>224.2467031773037</v>
+        <v>132.2191143620168</v>
       </c>
       <c r="G14">
-        <v>-0.978771072820475</v>
+        <v>-0.5454840847162724</v>
       </c>
       <c r="H14">
-        <v>64.40000000000001</v>
+        <v>35.6</v>
       </c>
       <c r="I14">
-        <v>119345.0953083747</v>
+        <v>34313.68786767936</v>
       </c>
       <c r="J14">
-        <v>191.8399490888578</v>
+        <v>85.15803046172958</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L14">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="M14">
-        <v>2778.181884765625</v>
+        <v>3420.9814453125</v>
       </c>
       <c r="N14">
-        <v>38.24588012695312</v>
+        <v>46.65570831298828</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -5387,40 +5387,40 @@
         <v>28</v>
       </c>
       <c r="C15">
-        <v>129432.6854980469</v>
+        <v>31417.00209960937</v>
       </c>
       <c r="D15">
-        <v>225.9145629882813</v>
+        <v>121.7830024719238</v>
       </c>
       <c r="E15">
-        <v>0.1781195476909624</v>
+        <v>0.1210771514981793</v>
       </c>
       <c r="F15">
-        <v>265.3687200433632</v>
+        <v>144.3783531848962</v>
       </c>
       <c r="G15">
-        <v>-2.040601752342188</v>
+        <v>-0.8686726161754118</v>
       </c>
       <c r="H15">
-        <v>36.8</v>
+        <v>29.6</v>
       </c>
       <c r="I15">
-        <v>201775.5404543118</v>
+        <v>47872.16585904135</v>
       </c>
       <c r="J15">
-        <v>257.9593204162142</v>
+        <v>101.0762357336028</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M15">
-        <v>4019.853759765625</v>
+        <v>3596.344482421875</v>
       </c>
       <c r="N15">
-        <v>50.23584747314453</v>
+        <v>46.92557144165039</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -5431,40 +5431,40 @@
         <v>29</v>
       </c>
       <c r="C16">
-        <v>130796.8555664062</v>
+        <v>23963.82353515625</v>
       </c>
       <c r="D16">
-        <v>226.8419136047363</v>
+        <v>109.9224685668945</v>
       </c>
       <c r="E16">
-        <v>0.1791247040438374</v>
+        <v>0.1111439666988028</v>
       </c>
       <c r="F16">
-        <v>264.0283213981053</v>
+        <v>129.9579462019298</v>
       </c>
       <c r="G16">
-        <v>-2.126827093114433</v>
+        <v>-0.4899805083002297</v>
       </c>
       <c r="H16">
-        <v>41.2</v>
+        <v>36.6</v>
       </c>
       <c r="I16">
-        <v>211622.7733195779</v>
+        <v>34365.62719935425</v>
       </c>
       <c r="J16">
-        <v>267.2062832863788</v>
+        <v>84.36016827622339</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L16">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M16">
-        <v>2881.595703125</v>
+        <v>3614.57373046875</v>
       </c>
       <c r="N16">
-        <v>38.99174880981445</v>
+        <v>47.59943771362305</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -5475,40 +5475,40 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>123013.3225585937</v>
+        <v>24571.28715820313</v>
       </c>
       <c r="D17">
-        <v>216.1368728637695</v>
+        <v>108.764274597168</v>
       </c>
       <c r="E17">
-        <v>0.1684232902283749</v>
+        <v>0.1088169781417303</v>
       </c>
       <c r="F17">
-        <v>253.8534578474003</v>
+        <v>131.4533662707663</v>
       </c>
       <c r="G17">
-        <v>-1.947711690120549</v>
+        <v>-0.5357480474669811</v>
       </c>
       <c r="H17">
-        <v>46.2</v>
+        <v>42.2</v>
       </c>
       <c r="I17">
-        <v>203613.7523254298</v>
+        <v>33994.75904272438</v>
       </c>
       <c r="J17">
-        <v>259.4694789295662</v>
+        <v>85.48212231381348</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L17">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>2692.53125</v>
+        <v>3175.876708984375</v>
       </c>
       <c r="N17">
-        <v>37.82160186767578</v>
+        <v>43.99907302856445</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -5519,40 +5519,40 @@
         <v>38</v>
       </c>
       <c r="C18">
-        <v>121667.8875</v>
+        <v>22803.7421875</v>
       </c>
       <c r="D18">
-        <v>220.4273727416992</v>
+        <v>107.1313056945801</v>
       </c>
       <c r="E18">
-        <v>0.1708656080662695</v>
+        <v>0.1082159942642826</v>
       </c>
       <c r="F18">
-        <v>259.4756006564116</v>
+        <v>130.6114724409042</v>
       </c>
       <c r="G18">
-        <v>-1.755080106581065</v>
+        <v>-0.4854839537375406</v>
       </c>
       <c r="H18">
-        <v>40.8</v>
+        <v>42</v>
       </c>
       <c r="I18">
-        <v>180714.3559801427</v>
+        <v>29622.10396658473</v>
       </c>
       <c r="J18">
-        <v>246.363033025091</v>
+        <v>74.66484032969127</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M18">
-        <v>2857.15869140625</v>
+        <v>4631.87939453125</v>
       </c>
       <c r="N18">
-        <v>38.91653442382812</v>
+        <v>54.06839370727539</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -5563,40 +5563,40 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>111441.9395996094</v>
+        <v>24254.98315429688</v>
       </c>
       <c r="D19">
-        <v>209.8046806335449</v>
+        <v>110.6030708312988</v>
       </c>
       <c r="E19">
-        <v>0.1638567319318689</v>
+        <v>0.1138786847763474</v>
       </c>
       <c r="F19">
-        <v>248.1015256914245</v>
+        <v>131.2998168031478</v>
       </c>
       <c r="G19">
-        <v>-1.576983245524407</v>
+        <v>-0.5051632769091999</v>
       </c>
       <c r="H19">
-        <v>47</v>
+        <v>35.4</v>
       </c>
       <c r="I19">
-        <v>169770.977527968</v>
+        <v>34476.47006853635</v>
       </c>
       <c r="J19">
-        <v>237.1592783644246</v>
+        <v>84.68001990869794</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L19">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M19">
-        <v>2817.332275390625</v>
+        <v>3613.058837890625</v>
       </c>
       <c r="N19">
-        <v>38.5756721496582</v>
+        <v>47.01696014404297</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -5607,40 +5607,40 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>183359.2536132812</v>
+        <v>31606.8748046875</v>
       </c>
       <c r="D20">
-        <v>260.592406463623</v>
+        <v>131.8914497375488</v>
       </c>
       <c r="E20">
-        <v>0.2004634746078554</v>
+        <v>0.1266813634306815</v>
       </c>
       <c r="F20">
-        <v>296.739762667835</v>
+        <v>152.6418812660021</v>
       </c>
       <c r="G20">
-        <v>-3.384329413787839</v>
+        <v>-0.8310192870709796</v>
       </c>
       <c r="H20">
-        <v>48.6</v>
+        <v>33.2</v>
       </c>
       <c r="I20">
-        <v>325034.7617185961</v>
+        <v>35588.72545186123</v>
       </c>
       <c r="J20">
-        <v>340.5389777134112</v>
+        <v>91.33886631708499</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M20">
-        <v>2989.56396484375</v>
+        <v>3820.0673828125</v>
       </c>
       <c r="N20">
-        <v>40.20781707763672</v>
+        <v>48.28108215332031</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -5651,40 +5651,40 @@
         <v>36</v>
       </c>
       <c r="C21">
-        <v>115919.3943847656</v>
+        <v>29407.0853515625</v>
       </c>
       <c r="D21">
-        <v>214.8891525268555</v>
+        <v>127.4037628173828</v>
       </c>
       <c r="E21">
-        <v>0.1679358894541716</v>
+        <v>0.1219498907062677</v>
       </c>
       <c r="F21">
-        <v>250.342423495642</v>
+        <v>149.3697445846373</v>
       </c>
       <c r="G21">
-        <v>-1.732422292572776</v>
+        <v>-0.7905337252770656</v>
       </c>
       <c r="H21">
-        <v>52.2</v>
+        <v>30.8</v>
       </c>
       <c r="I21">
-        <v>183082.9764344828</v>
+        <v>33693.43260072318</v>
       </c>
       <c r="J21">
-        <v>247.305420340203</v>
+        <v>84.72366781614038</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="M21">
-        <v>2826.549560546875</v>
+        <v>4724.9130859375</v>
       </c>
       <c r="N21">
-        <v>39.00207138061523</v>
+        <v>55.34879302978516</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -5695,40 +5695,40 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>129746.6041503906</v>
+        <v>25897.0484375</v>
       </c>
       <c r="D22">
-        <v>226.3809143066406</v>
+        <v>115.6812942504883</v>
       </c>
       <c r="E22">
-        <v>0.1803341174119735</v>
+        <v>0.1148252312594013</v>
       </c>
       <c r="F22">
-        <v>266.1820825678554</v>
+        <v>138.8021727719565</v>
       </c>
       <c r="G22">
-        <v>-2.078281480526934</v>
+        <v>-0.6428573653818221</v>
       </c>
       <c r="H22">
-        <v>36</v>
+        <v>32.8</v>
       </c>
       <c r="I22">
-        <v>203198.8489785462</v>
+        <v>32600.90706784861</v>
       </c>
       <c r="J22">
-        <v>258.8917839269422</v>
+        <v>81.03561703658812</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M22">
-        <v>3963.161376953125</v>
+        <v>4204.62939453125</v>
       </c>
       <c r="N22">
-        <v>48.36641311645508</v>
+        <v>51.37819671630859</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -5739,40 +5739,40 @@
         <v>34</v>
       </c>
       <c r="C23">
-        <v>101909.809375</v>
+        <v>25147.721484375</v>
       </c>
       <c r="D23">
-        <v>200.6411285400391</v>
+        <v>113.1994262695312</v>
       </c>
       <c r="E23">
-        <v>0.1613634122811558</v>
+        <v>0.1128130238443106</v>
       </c>
       <c r="F23">
-        <v>241.721128277823</v>
+        <v>135.2048169153157</v>
       </c>
       <c r="G23">
-        <v>-1.43848144623866</v>
+        <v>-0.5701815134441369</v>
       </c>
       <c r="H23">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I23">
-        <v>151470.3415945497</v>
+        <v>33659.65708321801</v>
       </c>
       <c r="J23">
-        <v>214.8583067931739</v>
+        <v>82.8516137440306</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L23">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M23">
-        <v>3144.64453125</v>
+        <v>3868.3662109375</v>
       </c>
       <c r="N23">
-        <v>41.15015029907227</v>
+        <v>49.12246704101562</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -5783,40 +5783,40 @@
         <v>15</v>
       </c>
       <c r="C24">
-        <v>162843.8879882813</v>
+        <v>36142.93872070312</v>
       </c>
       <c r="D24">
-        <v>247.2320487976074</v>
+        <v>134.9787773132324</v>
       </c>
       <c r="E24">
-        <v>0.1935061331539094</v>
+        <v>0.1213064477003521</v>
       </c>
       <c r="F24">
-        <v>288.7383029922421</v>
+        <v>156.3955616739831</v>
       </c>
       <c r="G24">
-        <v>-2.935771039276339</v>
+        <v>-0.9997073479207217</v>
       </c>
       <c r="H24">
-        <v>56.4</v>
+        <v>45.4</v>
       </c>
       <c r="I24">
-        <v>277193.2020127711</v>
+        <v>44663.02141247262</v>
       </c>
       <c r="J24">
-        <v>304.1508791929915</v>
+        <v>110.3196663165694</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M24">
-        <v>3283.640625</v>
+        <v>3743.862060546875</v>
       </c>
       <c r="N24">
-        <v>41.0859260559082</v>
+        <v>48.19223403930664</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -5827,40 +5827,40 @@
         <v>21</v>
       </c>
       <c r="C25">
-        <v>296894.3466308594</v>
+        <v>84907.79692382812</v>
       </c>
       <c r="D25">
-        <v>337.9976661682129</v>
+        <v>189.9938110351563</v>
       </c>
       <c r="E25">
-        <v>0.2443668123137681</v>
+        <v>0.1610079808170871</v>
       </c>
       <c r="F25">
-        <v>394.990806767824</v>
+        <v>218.6037994829666</v>
       </c>
       <c r="G25">
-        <v>-4.507231145237497</v>
+        <v>-3.350460086689215</v>
       </c>
       <c r="H25">
-        <v>43.6</v>
+        <v>34.2</v>
       </c>
       <c r="I25">
-        <v>401429.5065610249</v>
+        <v>115024.7330238655</v>
       </c>
       <c r="J25">
-        <v>383.1669824176801</v>
+        <v>197.317568857638</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M25">
-        <v>4088.483154296875</v>
+        <v>3505.2275390625</v>
       </c>
       <c r="N25">
-        <v>49.86845779418945</v>
+        <v>46.11997985839844</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -5871,40 +5871,40 @@
         <v>22</v>
       </c>
       <c r="C26">
-        <v>152460.1631347656</v>
+        <v>33205.12587890625</v>
       </c>
       <c r="D26">
-        <v>243.3716125488281</v>
+        <v>126.2358985900879</v>
       </c>
       <c r="E26">
-        <v>0.1887539962601965</v>
+        <v>0.130955816300415</v>
       </c>
       <c r="F26">
-        <v>286.5154641624789</v>
+        <v>146.9379720415677</v>
       </c>
       <c r="G26">
-        <v>-2.507645997283766</v>
+        <v>-1.019817543269256</v>
       </c>
       <c r="H26">
-        <v>59.6</v>
+        <v>46</v>
       </c>
       <c r="I26">
-        <v>237195.0545545104</v>
+        <v>53161.21631337614</v>
       </c>
       <c r="J26">
-        <v>281.099599064477</v>
+        <v>115.0014208430826</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L26">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M26">
-        <v>3025.489013671875</v>
+        <v>4604.30224609375</v>
       </c>
       <c r="N26">
-        <v>40.07379150390625</v>
+        <v>53.99228286743164</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -5915,40 +5915,40 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>276936.6244140625</v>
+        <v>43769.0138671875</v>
       </c>
       <c r="D27">
-        <v>311.0971916198731</v>
+        <v>147.2128852844238</v>
       </c>
       <c r="E27">
-        <v>0.2381290840765765</v>
+        <v>0.1300835736760702</v>
       </c>
       <c r="F27">
-        <v>350.6012064752377</v>
+        <v>171.004113121787</v>
       </c>
       <c r="G27">
-        <v>-5.76414482923779</v>
+        <v>-1.478019843555407</v>
       </c>
       <c r="H27">
-        <v>50.2</v>
+        <v>43.2</v>
       </c>
       <c r="I27">
-        <v>526311.754558148</v>
+        <v>53728.65128160737</v>
       </c>
       <c r="J27">
-        <v>438.5090197947296</v>
+        <v>119.9276291145552</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M27">
-        <v>3924.5009765625</v>
+        <v>4250.689453125</v>
       </c>
       <c r="N27">
-        <v>46.21036148071289</v>
+        <v>54.06869506835938</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -5959,40 +5959,40 @@
         <v>16</v>
       </c>
       <c r="C28">
-        <v>400104.5002929688</v>
+        <v>89103.04301757812</v>
       </c>
       <c r="D28">
-        <v>368.7985809326172</v>
+        <v>209.380884552002</v>
       </c>
       <c r="E28">
-        <v>0.2739668423369297</v>
+        <v>0.1857398886611</v>
       </c>
       <c r="F28">
-        <v>407.5092732932844</v>
+        <v>230.8951749683203</v>
       </c>
       <c r="G28">
-        <v>-8.618269878022868</v>
+        <v>-3.706664889232191</v>
       </c>
       <c r="H28">
-        <v>59.8</v>
+        <v>32.2</v>
       </c>
       <c r="I28">
-        <v>776483.5405483601</v>
+        <v>125421.0743031866</v>
       </c>
       <c r="J28">
-        <v>545.402299746678</v>
+        <v>203.1250159934771</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L28">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M28">
-        <v>3158.03662109375</v>
+        <v>3872.371826171875</v>
       </c>
       <c r="N28">
-        <v>41.56772232055664</v>
+        <v>48.81060791015625</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -6003,40 +6003,40 @@
         <v>17</v>
       </c>
       <c r="C29">
-        <v>126356.3241210938</v>
+        <v>29681.77543945313</v>
       </c>
       <c r="D29">
-        <v>228.614395904541</v>
+        <v>122.3764236450195</v>
       </c>
       <c r="E29">
-        <v>0.182842727478535</v>
+        <v>0.1235847215600981</v>
       </c>
       <c r="F29">
-        <v>266.8660926655479</v>
+        <v>146.4349917317263</v>
       </c>
       <c r="G29">
-        <v>-2.045267198598501</v>
+        <v>-0.8533246379042652</v>
       </c>
       <c r="H29">
-        <v>57.4</v>
+        <v>53.6</v>
       </c>
       <c r="I29">
-        <v>194128.7272430611</v>
+        <v>39559.32126283634</v>
       </c>
       <c r="J29">
-        <v>251.2783575680513</v>
+        <v>93.56742107222155</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L29">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M29">
-        <v>4228.27880859375</v>
+        <v>3538.288818359375</v>
       </c>
       <c r="N29">
-        <v>52.15508651733398</v>
+        <v>47.22919464111328</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -6047,40 +6047,40 @@
         <v>13</v>
       </c>
       <c r="C30">
-        <v>115174.0463867188</v>
+        <v>55354.9380859375</v>
       </c>
       <c r="D30">
-        <v>224.8634353637695</v>
+        <v>154.9145370483398</v>
       </c>
       <c r="E30">
-        <v>0.1810721154750344</v>
+        <v>0.1504675352408687</v>
       </c>
       <c r="F30">
-        <v>264.5891552999481</v>
+        <v>173.8807878870282</v>
       </c>
       <c r="G30">
-        <v>-1.665065410253711</v>
+        <v>-2.148751064856694</v>
       </c>
       <c r="H30">
-        <v>62.8</v>
+        <v>43.8</v>
       </c>
       <c r="I30">
-        <v>157424.863089094</v>
+        <v>102127.9581706811</v>
       </c>
       <c r="J30">
-        <v>223.6667666745398</v>
+        <v>174.1920947808812</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L30">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>4369.36181640625</v>
+        <v>4574.76904296875</v>
       </c>
       <c r="N30">
-        <v>52.91778564453125</v>
+        <v>53.80073928833008</v>
       </c>
     </row>
   </sheetData>
